--- a/static/tmp/planificacion.xlsx
+++ b/static/tmp/planificacion.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +470,2944 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>82319</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>(9, 9)</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45174.28680555556</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:53:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2023-09-05 15:15:00</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0.3486111111111111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>83273</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>(52, 52)</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45174.30277777778</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:16:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-09-05 15:00:00</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0.3222222222222222</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>83306</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(41, 41)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45174.10416666666</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-09-05 02:30:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:25:00</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.2048611111111111</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>82959</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>(39, 39)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45174.27986111111</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:43:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2023-09-05 15:04:00</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0.3479166666666667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>82620</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>(63, 63)</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45174.24930555555</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:59:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:31:00</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0.3555555555555556</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>83272</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>(12, 12)</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45174.19861111111</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:46:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:30:00</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0.3222222222222222</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>82292</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>(15, 15)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45174.47916666666</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:30:00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2023-09-05 19:43:00</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0.3423611111111111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>83263</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>(53, 53)</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>45174.16666666666</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:00:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:55:00</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0.2048611111111111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>83614</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>(44, 44)</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>45174.30486111111</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:19:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:59:00</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>83271</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>(25, 25)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>45174.19861111111</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:46:00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:30:00</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0.3222222222222222</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>82627</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>(65, 65)</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>45174.16597222222</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023-09-05 03:59:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:31:00</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0.3555555555555556</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>83217</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>(36, 36)</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45174.21736111111</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:13:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:25:00</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>83214</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>(15, 15)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45174.20555555556</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:56:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:36:00</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>81808</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45174.125</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023-09-05 03:00:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:50:00</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>83388</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>(28, 28)</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45174.25</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:00:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:40:00</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>81811</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45174.29166666666</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:00:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:50:00</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>82634</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>(27, 27)</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45174.20763888889</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:59:00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2023-09-05 13:31:00</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0.3555555555555556</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>83285</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>(16, 16)</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45174.16805555556</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:02:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:23:00</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0.30625</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>83835</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>(46, 46)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45174.28888888889</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:56:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:55:00</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>0.1659722222222222</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>83308</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>(67, 67)</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45174.1875</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:30:00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:25:00</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0.2048611111111111</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>83351</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>(13, 13)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45174.20833333334</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:00:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:55:00</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>0.2048611111111111</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>83386</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>(48, 48)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45174.35694444444</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:34:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:14:00</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>83198</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>(49, 49)</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45174.24930555555</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:59:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:39:00</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>83530</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>(55, 55)</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45174.22222222222</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:20:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:00:00</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>82749</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>(54, 54)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45174.16666666666</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:00:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:58:00</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>0.3319444444444444</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>83100</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>(40, 40)</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45174.41666666666</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:00:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2023-09-05 18:35:00</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>83094</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>(31, 31)</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45174.14583333334</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023-09-05 03:30:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:24:00</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>0.3291666666666667</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>83182</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>(20, 20)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45174.44791666666</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:45:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:55:00</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>0.1736111111111111</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>83230</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>(8, 8)</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45174.21527777778</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:10:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:50:00</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>82281</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>(3, 3)</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:30:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2023-09-05 18:43:00</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>0.3423611111111111</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>82321</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>(5, 5)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45174.35972222222</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:38:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2023-09-05 15:48:00</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>0.2986111111111111</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>83786</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45174.14583333334</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023-09-05 03:30:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:05:00</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>0.3159722222222222</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>83168</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>(26, 26)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45174.44444444445</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:40:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2023-09-05 17:54:00</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>0.3013888888888889</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>82298</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45174.18819444445</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:31:00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:01:00</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>82295</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>(30, 30)</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45174.40625</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:45:00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2023-09-05 17:58:00</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>0.3423611111111111</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>83749</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>(51, 51)</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45174.22222222222</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:20:00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:55:00</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>0.2743055555555556</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>81316</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>(21, 21)</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45174.4875</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:42:00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2023-09-05 18:49:00</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>0.2965277777777778</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>83274</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>(7, 7)</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45174.30277777778</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:16:00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2023-09-05 15:00:00</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>0.3222222222222222</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>83541</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45174.41666666666</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:00:00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:40:00</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>83532</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>(11, 11)</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45174.22916666666</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:30:00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:10:00</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>83646</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45174.18263888889</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:23:00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:23:00</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>82179</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>(60, 60)</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45174.16666666666</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:00:00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2023-09-05 13:55:00</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>0.4131944444444444</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>83551</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>(2, 2)</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45174.41805555556</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:02:00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:42:00</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>83156</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>(64, 64)</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45174.23819444444</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:43:00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:55:00</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>83651</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>(35, 35)</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45174.125</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-09-05 03:00:00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:00:00</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>83363</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>(14, 14)</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45174.375</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:00:00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2023-09-05 13:55:00</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>0.2048611111111111</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>83527</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>(46, 46)</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45174.20138888889</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:50:00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:30:00</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>82291</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>(6, 6)</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45174.375</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:00:00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2023-09-05 17:13:00</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>0.3423611111111111</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>83082</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>(11, 11)</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45174.51388888889</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:20:00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:00:00</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>83219</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>(37, 37)</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45174.23680555556</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:41:00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:21:00</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>83617</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>(37, 37)</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45174.31666666667</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:36:00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:16:00</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>83375</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>(35, 35)</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45174.29166666666</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:00:00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2023-09-05 16:55:00</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>0.4131944444444444</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>83186</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>(59, 59)</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45174.23819444444</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:43:00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:43:00</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>83257</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>(32, 32)</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45174.25</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:00:00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:55:00</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>0.2048611111111111</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>83142</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>(37, 37)</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>45174.52847222222</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:41:00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2023-09-05 19:52:00</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>0.2993055555555555</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>83232</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>(7, 7)</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>45174.21666666667</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:12:00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:52:00</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>81810</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>(69, 69)</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>45174.20833333334</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:00:00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:50:00</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>83167</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>(17, 17)</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>45174.25972222222</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:14:00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:54:00</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>82286</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>(33, 33)</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>45174.45833333334</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:00:00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2023-09-05 19:13:00</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>0.3423611111111111</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>83701</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>(11, 11)</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>45174.375</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:00:00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:40:00</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>82386</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>(45, 45)</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>45174.18402777778</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:25:00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:02:00</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>0.3173611111111111</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>82625</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>(62, 62)</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>45174.14513888889</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-09-05 03:29:00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:01:00</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>0.3555555555555556</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>83085</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>(56, 56)</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>45174.51388888889</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:20:00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:00:00</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>83261</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>(66, 66)</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>45174.20833333334</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:00:00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:55:00</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>0.2048611111111111</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>83147</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>(38, 38)</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>45174.25138888889</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:02:00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:42:00</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>83136</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>(34, 34)</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>45174.21111111111</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:04:00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:44:00</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>83600</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>(4, 4)</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>45174.30902777778</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:25:00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:05:00</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>83748</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>(47, 47)</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>45174.22222222222</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:20:00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:00:00</t>
+        </is>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>83602</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>45174.35277777778</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:28:00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:08:00</t>
+        </is>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>82621</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>(68, 68)</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>45174.29097222222</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:59:00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2023-09-05 15:31:00</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>0.3555555555555556</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>83888</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>(66, 66)</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>45174.51388888889</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:20:00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:00:00</t>
+        </is>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>83205</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>(42, 42)</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>45174.24097222222</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:47:00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:27:00</t>
+        </is>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>82528</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>(34, 34)</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>45174.31319444445</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:31:00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2023-09-05 15:02:00</t>
+        </is>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>0.3131944444444444</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>83547</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>(18, 18)</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>45174.32361111111</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:46:00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:26:00</t>
+        </is>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>83300</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>(43, 43)</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>45174.34722222222</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:20:00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:00:00</t>
+        </is>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>83165</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>(21, 21)</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>45174.2375</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:42:00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:55:00</t>
+        </is>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>0.1756944444444444</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>82320</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>(44, 44)</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>45174.43263888889</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:23:00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2023-09-05 17:42:00</t>
+        </is>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>0.3048611111111111</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>83210</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>(5, 5)</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>45174.28263888889</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:47:00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:27:00</t>
+        </is>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>83348</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>(50, 50)</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>45174.16666666666</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:00:00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:52:00</t>
+        </is>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>0.3277777777777778</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>83376</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>(61, 61)</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>45174.33333333334</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:00:00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2023-09-05 17:55:00</t>
+        </is>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>0.4131944444444444</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>83284</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>(47, 47)</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>45174.29305555556</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:02:00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:23:00</t>
+        </is>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>0.30625</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>83364</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>(57, 57)</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>45174.29166666666</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:00:00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:55:00</t>
+        </is>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>0.2048611111111111</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83378</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>(61, 61)</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>45174.18055555555</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:20:00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:20:00</t>
+        </is>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83601</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>(15, 15)</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>45174.34513888889</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:17:00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:57:00</t>
+        </is>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>83083</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>(62, 62)</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>45174.51388888889</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:20:00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:00:00</t>
+        </is>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>83352</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>(10, 10)</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>45174.25</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:00:00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:55:00</t>
+        </is>
+      </c>
+      <c r="F87" s="3" t="n">
+        <v>0.2048611111111111</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>83558</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>(66, 66)</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>45174.42708333334</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:15:00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:55:00</t>
+        </is>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>83728</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>(19, 19)</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>45174.17638888889</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:14:00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:55:00</t>
+        </is>
+      </c>
+      <c r="F89" s="3" t="n">
+        <v>0.3201388888888889</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>83562</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>(42, 42)</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>45174.35138888889</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:26:00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:06:00</t>
+        </is>
+      </c>
+      <c r="F90" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>83111</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>(12, 12)</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>45174.54444444444</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-09-05 13:04:00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2023-09-05 20:26:00</t>
+        </is>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>0.3069444444444445</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>83354</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>(17, 17)</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>45174.33333333334</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:00:00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:55:00</t>
+        </is>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>0.2048611111111111</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>83650</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>(41, 41)</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>45174.375</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:00:00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2023-09-05 18:55:00</t>
+        </is>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>0.4131944444444444</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>81812</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>(53, 53)</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>45174.375</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:00:00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2023-09-05 16:50:00</t>
+        </is>
+      </c>
+      <c r="F94" s="3" t="n">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>83623</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>(20, 20)</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>45174.31111111111</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:28:00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:08:00</t>
+        </is>
+      </c>
+      <c r="F95" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>83702</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>(28, 28)</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>45174.37361111111</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:58:00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:38:00</t>
+        </is>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>83584</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>(30, 30)</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>45174.33541666667</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:03:00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:43:00</t>
+        </is>
+      </c>
+      <c r="F97" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>83192</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>(14, 14)</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>45174.25555555556</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:08:00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:48:00</t>
+        </is>
+      </c>
+      <c r="F98" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>83895</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>(3, 3)</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>45174.35972222222</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:38:00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:18:00</t>
+        </is>
+      </c>
+      <c r="F99" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>83703</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>(56, 56)</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>45174.16666666666</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:00:00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:58:00</t>
+        </is>
+      </c>
+      <c r="F100" s="3" t="n">
+        <v>0.3319444444444444</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>83764</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>(6, 6)</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>45174.17013888889</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:05:00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:05:00</t>
+        </is>
+      </c>
+      <c r="F101" s="3" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>83227</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>(26, 26)</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>45174.09444444445</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-09-05 02:16:00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:25:00</t>
+        </is>
+      </c>
+      <c r="F102" s="3" t="n">
+        <v>0.1729166666666667</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>83296</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>(38, 38)</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>45174.39583333334</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:30:00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2023-09-05 13:55:00</t>
+        </is>
+      </c>
+      <c r="F103" s="3" t="n">
+        <v>0.1840277777777778</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>83615</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>(33, 33)</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>45174.35416666666</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:30:00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:10:00</t>
+        </is>
+      </c>
+      <c r="F104" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>83745</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>45174.22638888889</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:26:00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:26:00</t>
+        </is>
+      </c>
+      <c r="F105" s="3" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>83634</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>45174.20694444444</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:58:00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:38:00</t>
+        </is>
+      </c>
+      <c r="F106" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>83185</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>(64, 64)</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>45174.44375</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:39:00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2023-09-05 17:46:00</t>
+        </is>
+      </c>
+      <c r="F107" s="3" t="n">
+        <v>0.2965277777777778</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>83353</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>(55, 55)</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>45174.29166666666</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:00:00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:55:00</t>
+        </is>
+      </c>
+      <c r="F108" s="3" t="n">
+        <v>0.2048611111111111</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>83160</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>(58, 58)</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>45174.24305555555</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:50:00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:30:00</t>
+        </is>
+      </c>
+      <c r="F109" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>83556</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>(8, 8)</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>45174.32013888889</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:41:00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:21:00</t>
+        </is>
+      </c>
+      <c r="F110" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>83276</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>45174.42777777778</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:16:00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2023-09-05 18:00:00</t>
+        </is>
+      </c>
+      <c r="F111" s="3" t="n">
+        <v>0.3222222222222222</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>83170</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>(40, 40)</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>45174.28888888889</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:56:00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:36:00</t>
+        </is>
+      </c>
+      <c r="F112" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>83181</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>(48, 48)</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>45174.22083333333</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:18:00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:58:00</t>
+        </is>
+      </c>
+      <c r="F113" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>83275</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>(42, 42)</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>45174.42777777778</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:16:00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2023-09-05 18:00:00</t>
+        </is>
+      </c>
+      <c r="F114" s="3" t="n">
+        <v>0.3222222222222222</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/tmp/planificacion.xlsx
+++ b/static/tmp/planificacion.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +470,4374 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>83165</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>(52, 52)</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45174.2375</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:42:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:55:00</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0.1756944444444444</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>83558</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>(37, 37)</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45174.42708333334</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:15:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:55:00</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>83757</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(66, 66)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45174.32291666666</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:45:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:55:00</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.1736111111111111</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>83184</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>(35, 35)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45174.38402777778</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:13:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2023-09-05 16:13:00</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>81812</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>(40, 40)</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45174.375</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:00:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2023-09-05 16:50:00</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>83835</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>(13, 13)</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45174.28888888889</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:56:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2023-09-05 15:27:00</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0.3548611111111111</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>83749</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>(21, 21)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45174.22222222222</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:20:00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:55:00</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0.2743055555555556</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>83547</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>(2, 2)</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>45174.32361111111</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:46:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:26:00</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>83182</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>45174.44791666666</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:45:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:55:00</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0.1736111111111111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>82320</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>(49, 49)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>45174.43263888889</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:23:00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2023-09-05 17:42:00</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0.3048611111111111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>83911</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>(41, 41)</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:30:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:10:00</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>83918</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>(16, 16)</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:30:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:10:00</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>82319</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>(5, 5)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45174.28680555556</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:53:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2023-09-05 15:15:00</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0.3486111111111111</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>82295</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>(2, 2)</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45174.40625</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:45:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2023-09-05 17:58:00</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0.3423611111111111</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>83895</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>(16, 16)</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45174.35972222222</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:38:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:18:00</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>83602</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>(44, 44)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45174.35277777778</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:28:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:08:00</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>83364</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>(64, 64)</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45174.29166666666</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:00:00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2023-09-05 15:04:00</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0.3361111111111111</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>83701</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>(63, 63)</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45174.375</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:00:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:40:00</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>83378</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>(42, 42)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45174.18055555555</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:20:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:20:00</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>83915</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>(52, 52)</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:30:00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:10:00</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>83187</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>(56, 56)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45174.20833333334</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:00:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:43:00</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>0.3215277777777778</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>83186</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>(10, 10)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45174.23819444444</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:43:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:43:00</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>83551</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45174.41805555556</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:02:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:42:00</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>83196</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>(26, 26)</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45174.39583333334</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:30:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:25:00</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>0.2048611111111111</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>83100</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>(20, 20)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45174.41666666666</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:00:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2023-09-05 18:35:00</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>83917</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>(31, 31)</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:30:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:10:00</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>83190</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>(72, 72)</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45174.46805555555</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:14:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2023-09-05 18:11:00</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>0.2895833333333334</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>83562</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>(31, 31)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45174.35138888889</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:26:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:06:00</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>83215</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>(58, 58)</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45174.44652777778</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:43:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:55:00</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>83160</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>(2, 2)</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45174.24305555555</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:50:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:30:00</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>83386</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>(41, 41)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45174.35694444444</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:34:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:14:00</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>83584</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>(49, 49)</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45174.33541666667</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:03:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:43:00</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>83306</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>(30, 30)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45174.1875</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:30:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:25:00</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>0.2048611111111111</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>83898</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>(20, 20)</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45174.3125</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:30:00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:10:00</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>83185</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>(17, 17)</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45174.44375</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:39:00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2023-09-05 17:46:00</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>0.2965277777777778</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>83786</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>(57, 57)</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45174.14583333334</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-09-05 03:30:00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:05:00</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>0.3159722222222222</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>83094</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>(19, 19)</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45174.14583333334</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-09-05 03:30:00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:24:00</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>0.3291666666666667</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>83348</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>(48, 48)</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45174.16666666666</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:00:00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:52:00</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>0.3277777777777778</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>82959</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>(36, 36)</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45174.30069444444</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:13:00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2023-09-05 15:34:00</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>0.3479166666666667</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>83219</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>(55, 55)</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45174.23680555556</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:41:00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:21:00</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>83376</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>(4, 4)</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45174.33333333334</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:00:00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2023-09-05 17:55:00</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>0.4131944444444444</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>83221</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>(70, 70)</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45174.375</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:00:00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2023-09-05 16:43:00</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>0.3215277777777778</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>83601</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45174.34513888889</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:17:00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:57:00</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>83912</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:30:00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:10:00</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>83541</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>(50, 50)</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45174.41666666666</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:00:00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:40:00</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>83388</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>(40, 40)</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45174.25</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:00:00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:40:00</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>83905</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>(72, 72)</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45174.38888888889</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:20:00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:00:00</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>81316</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45174.4875</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:42:00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2023-09-05 18:49:00</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>0.2965277777777778</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>83901</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>(62, 62)</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45174.3125</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:30:00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:10:00</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>83914</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>(44, 44)</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:30:00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:10:00</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>83156</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>(28, 28)</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45174.27986111111</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:43:00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:55:00</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>83085</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>(27, 27)</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45174.51388888889</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:20:00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:00:00</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>83703</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>(43, 43)</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45174.16666666666</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:00:00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:58:00</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>0.3319444444444444</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>83764</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>(16, 16)</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45174.17013888889</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:05:00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:05:00</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>82291</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>(7, 7)</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>45174.375</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:00:00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2023-09-05 17:13:00</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>0.3423611111111111</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>83214</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>(35, 35)</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>45174.20555555556</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:56:00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:36:00</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>83192</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>(6, 6)</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>45174.25555555556</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:08:00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:48:00</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>83899</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>(53, 53)</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>45174.3125</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:30:00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:10:00</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>83261</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>(37, 37)</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>45174.20833333334</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:00:00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:55:00</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>0.2048611111111111</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>83273</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>(68, 68)</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>45174.30277777778</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:16:00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2023-09-05 15:00:00</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>0.3222222222222222</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>83906</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>(53, 53)</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>45174.38888888889</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:20:00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:00:00</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>82620</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>(69, 69)</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>45174.24930555555</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:59:00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:31:00</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>0.3555555555555556</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>83903</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>(17, 17)</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>45174.3125</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:30:00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:10:00</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>83556</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>(71, 71)</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>45174.32013888889</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:41:00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2023-09-05 20:34:00</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>0.5368055555555555</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>81811</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>(65, 65)</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>45174.29166666666</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:00:00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:50:00</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>83532</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>(54, 54)</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>45174.22916666666</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:30:00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:10:00</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>83210</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>(41, 41)</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>45174.28263888889</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:47:00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:27:00</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>82286</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>(63, 63)</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>45174.45833333334</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:00:00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2023-09-05 19:13:00</t>
+        </is>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>0.3423611111111111</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>83285</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>(12, 12)</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>45174.16805555556</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:02:00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:23:00</t>
+        </is>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>0.30625</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>83651</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>(38, 38)</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>45174.125</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-09-05 03:00:00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:00:00</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>83908</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>(67, 67)</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:30:00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:10:00</t>
+        </is>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>82634</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>(15, 15)</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>45174.20763888889</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:59:00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2023-09-05 13:31:00</t>
+        </is>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>0.3555555555555556</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>83900</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>(67, 67)</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>45174.3125</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:30:00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:10:00</t>
+        </is>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>83910</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>(60, 60)</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>45174.52083333334</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:30:00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:10:00</t>
+        </is>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>83752</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>(31, 31)</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>45174.11388888889</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-09-05 02:44:00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:25:00</t>
+        </is>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>0.2368055555555555</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>83913</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>(16, 16)</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>45174.52083333334</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:30:00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:10:00</t>
+        </is>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>82179</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>(34, 34)</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>45174.16666666666</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:00:00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2023-09-05 13:55:00</t>
+        </is>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>0.4131944444444444</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>83897</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>(32, 32)</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>45174.52083333334</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:30:00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:10:00</t>
+        </is>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>83181</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>(9, 9)</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>45174.22083333333</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:18:00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:58:00</t>
+        </is>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>83300</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>(33, 33)</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>45174.34722222222</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:20:00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:00:00</t>
+        </is>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>83902</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>(35, 35)</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>45174.3125</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:30:00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:10:00</t>
+        </is>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>83623</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>(45, 45)</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>45174.31111111111</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:28:00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:08:00</t>
+        </is>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83363</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>45174.375</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:00:00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2023-09-05 17:04:00</t>
+        </is>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>0.3361111111111111</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83907</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>(42, 42)</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>45174.38888888889</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:20:00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:00:00</t>
+        </is>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>83147</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>(50, 50)</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>45174.25138888889</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:02:00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:42:00</t>
+        </is>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>83600</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>(72, 72)</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>45174.30902777778</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:25:00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:05:00</t>
+        </is>
+      </c>
+      <c r="F87" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>82281</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>(33, 33)</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>45174.4375</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:30:00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2023-09-05 18:43:00</t>
+        </is>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>0.3423611111111111</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>83888</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>(66, 66)</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>45174.51388888889</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:20:00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:00:00</t>
+        </is>
+      </c>
+      <c r="F89" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>83909</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>(31, 31)</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>45174.52083333334</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:30:00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:10:00</t>
+        </is>
+      </c>
+      <c r="F90" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>83136</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>(67, 67)</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>45174.21111111111</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:04:00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:44:00</t>
+        </is>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>82328</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>45174.11458333334</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-09-05 02:45:00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:35:00</t>
+        </is>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>83646</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>45174.18263888889</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:23:00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:23:00</t>
+        </is>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>83232</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>(64, 64)</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>45174.21666666667</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:12:00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:52:00</t>
+        </is>
+      </c>
+      <c r="F94" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>83650</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>(6, 6)</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>45174.375</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:00:00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2023-09-05 17:29:00</t>
+        </is>
+      </c>
+      <c r="F95" s="3" t="n">
+        <v>0.3534722222222222</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>82321</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>(55, 55)</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>45174.35972222222</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:38:00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2023-09-05 15:48:00</t>
+        </is>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>0.2986111111111111</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>83615</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>(38, 38)</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>45174.35416666666</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:30:00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:10:00</t>
+        </is>
+      </c>
+      <c r="F97" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>83527</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>(53, 53)</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>45174.20138888889</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:50:00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:30:00</t>
+        </is>
+      </c>
+      <c r="F98" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>81808</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>(11, 11)</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>45174.125</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-09-05 03:00:00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:50:00</t>
+        </is>
+      </c>
+      <c r="F99" s="3" t="n">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>83170</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>45174.28888888889</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:56:00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:36:00</t>
+        </is>
+      </c>
+      <c r="F100" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>83603</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>(8, 8)</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>45174.51666666667</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:24:00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:04:00</t>
+        </is>
+      </c>
+      <c r="F101" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>82621</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>(47, 47)</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>45174.29097222222</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:59:00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2023-09-05 15:31:00</t>
+        </is>
+      </c>
+      <c r="F102" s="3" t="n">
+        <v>0.3555555555555556</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>83226</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>45174.23541666667</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:39:00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:55:00</t>
+        </is>
+      </c>
+      <c r="F103" s="3" t="n">
+        <v>0.1777777777777778</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>81810</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>(3, 3)</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>45174.20833333334</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:00:00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:50:00</t>
+        </is>
+      </c>
+      <c r="F104" s="3" t="n">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>83904</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>(45, 45)</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>45174.38888888889</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:20:00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:00:00</t>
+        </is>
+      </c>
+      <c r="F105" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>82528</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>(8, 8)</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>45174.18819444445</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:31:00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:02:00</t>
+        </is>
+      </c>
+      <c r="F106" s="3" t="n">
+        <v>0.3131944444444444</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>83744</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>(56, 56)</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>45174.59513888889</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:17:00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2023-09-05 15:57:00</t>
+        </is>
+      </c>
+      <c r="F107" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>83271</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>(14, 14)</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>45174.19861111111</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:46:00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:30:00</t>
+        </is>
+      </c>
+      <c r="F108" s="3" t="n">
+        <v>0.3222222222222222</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>82436</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>(39, 39)</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>45174.69305555556</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-09-05 16:38:00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2023-09-05 18:18:00</t>
+        </is>
+      </c>
+      <c r="F109" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>83082</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>(12, 12)</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>45174.51388888889</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:20:00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:00:00</t>
+        </is>
+      </c>
+      <c r="F110" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>83375</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>(61, 61)</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>45174.29166666666</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:00:00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2023-09-05 16:55:00</t>
+        </is>
+      </c>
+      <c r="F111" s="3" t="n">
+        <v>0.4131944444444444</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>82356</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>(57, 57)</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>45174.58333333334</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:00:00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2023-09-05 23:06:00</t>
+        </is>
+      </c>
+      <c r="F112" s="3" t="n">
+        <v>0.3791666666666667</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>82340</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>(37, 37)</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>45174.54166666666</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-09-05 13:00:00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2023-09-05 22:55:00</t>
+        </is>
+      </c>
+      <c r="F113" s="3" t="n">
+        <v>0.4131944444444444</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>83217</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>(59, 59)</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>45174.21736111111</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:13:00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:25:00</t>
+        </is>
+      </c>
+      <c r="F114" s="3" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>83605</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>(25, 25)</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>45174.74305555555</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-09-05 17:50:00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2023-09-05 19:30:00</t>
+        </is>
+      </c>
+      <c r="F115" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>83614</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>(7, 7)</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>45174.30486111111</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:19:00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:59:00</t>
+        </is>
+      </c>
+      <c r="F116" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>82292</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>(45, 45)</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>45174.47916666666</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:30:00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2023-09-05 19:43:00</t>
+        </is>
+      </c>
+      <c r="F117" s="3" t="n">
+        <v>0.3423611111111111</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>83563</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>(9, 9)</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>45174.73472222222</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-09-05 17:38:00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2023-09-05 19:18:00</t>
+        </is>
+      </c>
+      <c r="F118" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>83168</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>(30, 30)</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>45174.44444444445</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:40:00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2023-09-05 17:54:00</t>
+        </is>
+      </c>
+      <c r="F119" s="3" t="n">
+        <v>0.3013888888888889</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>83296</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>(59, 59)</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>45174.39583333334</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:30:00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2023-09-05 13:55:00</t>
+        </is>
+      </c>
+      <c r="F120" s="3" t="n">
+        <v>0.1840277777777778</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>83530</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>(20, 20)</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>45174.22222222222</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:20:00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:00:00</t>
+        </is>
+      </c>
+      <c r="F121" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>83227</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>(62, 62)</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>45174.09444444445</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-09-05 02:16:00</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:25:00</t>
+        </is>
+      </c>
+      <c r="F122" s="3" t="n">
+        <v>0.1729166666666667</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>83083</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>(50, 50)</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>45174.51388888889</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:20:00</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:00:00</t>
+        </is>
+      </c>
+      <c r="F123" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>82435</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>(55, 55)</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>45174.69027777778</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-09-05 16:34:00</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2023-09-05 18:14:00</t>
+        </is>
+      </c>
+      <c r="F124" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>83730</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>45174.58263888889</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-09-05 13:59:00</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2023-09-05 15:39:00</t>
+        </is>
+      </c>
+      <c r="F125" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>83230</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>45174.21527777778</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:10:00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:50:00</t>
+        </is>
+      </c>
+      <c r="F126" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>83111</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>(41, 41)</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>45174.54444444444</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-09-05 13:04:00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2023-09-05 20:26:00</t>
+        </is>
+      </c>
+      <c r="F127" s="3" t="n">
+        <v>0.3069444444444445</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>83919</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>45174.52083333334</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:30:00</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:10:00</t>
+        </is>
+      </c>
+      <c r="F128" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>83389</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>(56, 56)</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>45174.68611111111</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-09-05 16:28:00</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2023-09-05 18:08:00</t>
+        </is>
+      </c>
+      <c r="F129" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>83167</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>(70, 70)</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>45174.25972222222</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:14:00</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:54:00</t>
+        </is>
+      </c>
+      <c r="F130" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>83274</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>(9, 9)</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>45174.30277777778</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:16:00</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2023-09-05 15:00:00</t>
+        </is>
+      </c>
+      <c r="F131" s="3" t="n">
+        <v>0.3222222222222222</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>82442</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>45174.69166666667</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-09-05 16:36:00</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2023-09-05 18:16:00</t>
+        </is>
+      </c>
+      <c r="F132" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>82386</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>(51, 51)</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>45174.18402777778</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:25:00</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:02:00</t>
+        </is>
+      </c>
+      <c r="F133" s="3" t="n">
+        <v>0.3173611111111111</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>83360</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>(16, 16)</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>45174.74583333333</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-09-05 17:54:00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2023-09-05 19:34:00</t>
+        </is>
+      </c>
+      <c r="F134" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>83308</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>(66, 66)</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>45174.10416666666</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-09-05 02:30:00</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:25:00</t>
+        </is>
+      </c>
+      <c r="F135" s="3" t="n">
+        <v>0.2048611111111111</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>83748</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>(46, 46)</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>45174.22222222222</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:20:00</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:00:00</t>
+        </is>
+      </c>
+      <c r="F136" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>83280</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>(18, 18)</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>45174.53333333333</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:48:00</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:28:00</t>
+        </is>
+      </c>
+      <c r="F137" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>83542</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>(52, 52)</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>45174.55972222222</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-09-05 13:26:00</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2023-09-05 15:06:00</t>
+        </is>
+      </c>
+      <c r="F138" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>83961</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>(53, 53)</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>45174.51736111111</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:25:00</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:05:00</t>
+        </is>
+      </c>
+      <c r="F139" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>83275</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>(38, 38)</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>45174.42777777778</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:16:00</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2023-09-05 18:00:00</t>
+        </is>
+      </c>
+      <c r="F140" s="3" t="n">
+        <v>0.3222222222222222</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>82627</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>(39, 39)</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>45174.16597222222</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-09-05 03:59:00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:49:00</t>
+        </is>
+      </c>
+      <c r="F141" s="3" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>83634</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>(13, 13)</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>45174.20694444444</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:58:00</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:38:00</t>
+        </is>
+      </c>
+      <c r="F142" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>83281</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>(12, 12)</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>45174.67222222222</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-09-05 16:08:00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2023-09-05 17:48:00</t>
+        </is>
+      </c>
+      <c r="F143" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>83222</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>(27, 27)</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>45174.17361111111</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:10:00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:24:00</t>
+        </is>
+      </c>
+      <c r="F144" s="3" t="n">
+        <v>0.3013888888888889</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>83916</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>(11, 11)</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>45174.52083333334</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:30:00</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:10:00</t>
+        </is>
+      </c>
+      <c r="F145" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>83728</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>(18, 18)</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>45174.17638888889</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:14:00</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:55:00</t>
+        </is>
+      </c>
+      <c r="F146" s="3" t="n">
+        <v>0.3201388888888889</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>83745</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>(58, 58)</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>45174.22638888889</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:26:00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:26:00</t>
+        </is>
+      </c>
+      <c r="F147" s="3" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>83268</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>(51, 51)</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>45174.51111111111</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:16:00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2023-09-05 20:00:00</t>
+        </is>
+      </c>
+      <c r="F148" s="3" t="n">
+        <v>0.3222222222222222</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>83272</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>(60, 60)</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>45174.19861111111</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:46:00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:30:00</t>
+        </is>
+      </c>
+      <c r="F149" s="3" t="n">
+        <v>0.3222222222222222</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>83263</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>(26, 26)</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>45174.16666666666</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:00:00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:55:00</t>
+        </is>
+      </c>
+      <c r="F150" s="3" t="n">
+        <v>0.2048611111111111</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>83205</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>(45, 45)</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>45174.24097222222</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:47:00</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:27:00</t>
+        </is>
+      </c>
+      <c r="F151" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>82429</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>(44, 44)</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>45174.67916666667</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-09-05 16:18:00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2023-09-05 17:58:00</t>
+        </is>
+      </c>
+      <c r="F152" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>83284</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>(46, 46)</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>45174.29305555556</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:02:00</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:23:00</t>
+        </is>
+      </c>
+      <c r="F153" s="3" t="n">
+        <v>0.30625</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>82361</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>(3, 3)</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="n">
+        <v>45174.56944444445</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-09-05 13:40:00</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2023-09-05 22:05:00</t>
+        </is>
+      </c>
+      <c r="F154" s="3" t="n">
+        <v>0.3506944444444444</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>83617</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>(42, 42)</t>
+        </is>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>45174.31666666667</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:36:00</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:16:00</t>
+        </is>
+      </c>
+      <c r="F155" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>83276</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>(62, 62)</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="n">
+        <v>45174.42777777778</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:16:00</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2023-09-05 18:00:00</t>
+        </is>
+      </c>
+      <c r="F156" s="3" t="n">
+        <v>0.3222222222222222</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>83257</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>(25, 25)</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="n">
+        <v>45174.25</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023-09-05 06:00:00</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:55:00</t>
+        </is>
+      </c>
+      <c r="F157" s="3" t="n">
+        <v>0.2048611111111111</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>83894</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>(68, 68)</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="n">
+        <v>45174.67361111111</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023-09-05 16:10:00</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>2023-09-05 17:50:00</t>
+        </is>
+      </c>
+      <c r="F158" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>82625</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>(32, 32)</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="n">
+        <v>45174.14513888889</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023-09-05 03:29:00</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:01:00</t>
+        </is>
+      </c>
+      <c r="F159" s="3" t="n">
+        <v>0.3555555555555556</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>83142</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>(42, 42)</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>45174.52847222222</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:41:00</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>2023-09-05 19:52:00</t>
+        </is>
+      </c>
+      <c r="F160" s="3" t="n">
+        <v>0.2993055555555555</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>81823</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>(67, 67)</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="n">
+        <v>45174.59513888889</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:17:00</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>2023-09-05 15:57:00</t>
+        </is>
+      </c>
+      <c r="F161" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>83581</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>(19, 19)</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="n">
+        <v>45174.53194444445</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:46:00</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2023-09-05 14:26:00</t>
+        </is>
+      </c>
+      <c r="F162" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>83203</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>(10, 10)</t>
+        </is>
+      </c>
+      <c r="C163" s="2" t="n">
+        <v>45174.54166666666</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023-09-05 13:00:00</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>2023-09-05 21:35:00</t>
+        </is>
+      </c>
+      <c r="F163" s="3" t="n">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>83702</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>(58, 58)</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="n">
+        <v>45174.37361111111</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023-09-05 08:58:00</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>2023-09-05 10:38:00</t>
+        </is>
+      </c>
+      <c r="F164" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>82749</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="n">
+        <v>45174.16666666666</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023-09-05 04:00:00</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>2023-09-05 11:58:00</t>
+        </is>
+      </c>
+      <c r="F165" s="3" t="n">
+        <v>0.3319444444444444</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>83269</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="n">
+        <v>45174.51111111111</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023-09-05 12:16:00</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>2023-09-05 20:00:00</t>
+        </is>
+      </c>
+      <c r="F166" s="3" t="n">
+        <v>0.3222222222222222</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>83198</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>(33, 33)</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="n">
+        <v>45174.24930555555</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023-09-05 05:59:00</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:39:00</t>
+        </is>
+      </c>
+      <c r="F167" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>82738</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="n">
+        <v>45174.375</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023-09-05 09:00:00</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>2023-09-05 13:55:00</t>
+        </is>
+      </c>
+      <c r="F168" s="3" t="n">
+        <v>0.2048611111111111</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>82298</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>(54, 54)</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="n">
+        <v>45174.31319444445</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023-09-05 07:31:00</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>2023-09-05 15:01:00</t>
+        </is>
+      </c>
+      <c r="F169" s="3" t="n">
+        <v>0.3125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/tmp/planificacion.xlsx
+++ b/static/tmp/planificacion.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Trackers</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>fechas</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>start_to_end_time</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,52 +388,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Trackers</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>start_time</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>fechas</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>end_time</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>start_to_end_time</t>
-        </is>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/static/tmp/planificacion.xlsx
+++ b/static/tmp/planificacion.xlsx
@@ -1,63 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Trackers</t>
-  </si>
-  <si>
-    <t>start_time</t>
-  </si>
-  <si>
-    <t>fechas</t>
-  </si>
-  <si>
-    <t>end_time</t>
-  </si>
-  <si>
-    <t>start_to_end_time</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -72,35 +49,95 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,34 +425,2522 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Trackers</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>start_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>fechas</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>end_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>start_to_end_time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>95206</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>(20, 20)</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45362.225</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-03-11 05:24:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2024-03-11 11:53:00</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0.2701388888888889</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>95355</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>(50, 50)</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45362.62152777778</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2024-03-11 14:55:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2024-03-11 16:15:00</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>95187</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(32, 32)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45362.22916666666</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2024-03-11 05:30:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024-03-11 13:48:00</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.3458333333333333</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>95152</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>(49, 49)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45362.1875</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2024-03-11 04:30:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2024-03-11 11:20:50</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0.2853055555555556</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>95577</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>(28, 28)</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45362.52430555555</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2024-03-11 12:35:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2024-03-11 13:55:00</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>95315</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>(47, 47)</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45362.25</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2024-03-11 06:00:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2024-03-11 13:19:00</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0.3048611111111111</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>95496</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>(12, 12)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45362.56180555555</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2024-03-11 13:29:00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2024-03-11 14:49:00</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>94679</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>(13, 13)</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>45362.14236111111</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2024-03-11 03:25:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:45:00</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0.3055555555555556</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>95510</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>(44, 44)</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>45362.23958333334</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2024-03-11 05:45:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2024-03-11 11:33:52</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0.2422777777777778</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>94207</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>(25, 25)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>45362.44583333333</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:42:00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2024-03-11 12:02:00</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>95325</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>(15, 15)</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>45362.38333333333</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-03-11 09:12:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:32:00</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>95609</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>(37, 37)</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45362.14444444444</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024-03-11 03:28:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2024-03-11 14:12:00</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0.4472222222222222</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>95130</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>(43, 43)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45362.625</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024-03-11 15:00:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2024-03-11 22:13:55</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0.3013333333333333</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>95587</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>(30, 30)</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45362.45</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:48:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2024-03-11 12:08:00</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>94457</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>(2, 2)</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45362.57986111111</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2024-03-11 13:55:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2024-03-11 15:15:00</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>94732</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>(39, 39)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45362.42430555556</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:11:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2024-03-11 11:31:00</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>95423</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>(36, 36)</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45362.29722222222</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2024-03-11 07:08:00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2024-03-11 08:28:00</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>95380</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>(34, 34)</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45362.7625</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2024-03-11 18:18:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2024-03-11 19:38:00</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>94740</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>(27, 27)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45362.41041666667</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2024-03-11 09:51:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2024-03-11 11:11:00</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>95024</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>(18, 18)</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45362.36805555555</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2024-03-11 08:50:00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:10:00</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>94452</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>(42, 42)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45362.14583333334</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2024-03-11 03:30:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2024-03-11 11:04:00</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>0.3152777777777778</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>95394</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>(9, 9)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45362.14583333334</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2024-03-11 03:30:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2024-03-11 09:33:16</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>0.2522777777777778</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>94432</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>(16, 16)</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45362.31458333333</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2024-03-11 07:33:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2024-03-11 09:40:00</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>0.08819444444444445</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>95116</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>(54, 54)</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45362.44722222222</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:44:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2024-03-11 17:58:00</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>0.3013888888888889</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>95498</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>(48, 48)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45362.74652777778</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2024-03-11 17:55:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2024-03-11 19:15:00</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>95377</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>(20, 20)</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45362.72916666666</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2024-03-11 17:30:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2024-03-11 18:50:00</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>95532</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>(25, 25)</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45362.26944444444</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2024-03-11 06:28:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2024-03-11 07:48:00</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>95531</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>(7, 7)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45362.57013888889</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2024-03-11 13:41:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2024-03-11 15:01:00</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>94797</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45362.72083333333</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2024-03-11 17:18:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2024-03-11 18:38:00</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>95530</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>(19, 19)</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45362.59444444445</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2024-03-11 14:16:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2024-03-11 15:36:00</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>94646</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45362.18472222222</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2024-03-11 04:26:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:53:21</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>0.269</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>94805</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45362.57222222222</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2024-03-11 13:44:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2024-03-11 15:04:00</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>94939</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>(9, 9)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45362.45555555556</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:56:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2024-03-11 17:29:21</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>0.2731666666666667</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>95525</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45362.56597222222</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2024-03-11 13:35:00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2024-03-11 14:55:00</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>94943</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>(4, 4)</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45362.14305555556</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2024-03-11 03:26:00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2024-03-11 09:59:21</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>0.2731666666666667</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>95351</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>(26, 26)</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45362.18472222222</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2024-03-11 04:26:00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2024-03-11 11:56:00</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>95420</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>(11, 11)</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45362.29097222222</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2024-03-11 06:59:00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2024-03-11 14:56:00</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>0.33125</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>94998</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45362.27152777778</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2024-03-11 06:31:00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2024-03-11 13:27:00</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>0.2888888888888889</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>95091</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>(7, 7)</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45362.34444444445</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2024-03-11 08:16:00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2024-03-11 11:28:00</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>94720</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>(51, 51)</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45362.32638888889</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2024-03-11 07:50:00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2024-03-11 09:10:00</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>95311</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>(35, 35)</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45362.22777777778</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2024-03-11 05:28:00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2024-03-11 13:04:49</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>0.3172361111111111</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>94655</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45362.15486111111</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2024-03-11 03:43:00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2024-03-11 09:54:33</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>0.2580277777777777</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>95514</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>(46, 46)</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45362.71875</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2024-03-11 17:15:00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2024-03-11 18:35:00</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>95378</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>(18, 18)</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45362.74166666667</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2024-03-11 17:48:00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2024-03-11 19:08:00</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>95521</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>(17, 17)</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45362.42361111111</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:10:00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2024-03-11 11:30:00</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>95321</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>(53, 53)</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45362.29166666666</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2024-03-11 07:00:00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2024-03-11 14:19:00</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>0.3048611111111111</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>94936</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>(33, 33)</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45362.20138888889</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2024-03-11 04:50:00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2024-03-11 06:10:00</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>95371</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>(36, 36)</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45362.59166666667</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2024-03-11 14:12:00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2024-03-11 15:32:00</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>95042</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>(19, 19)</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45362.27708333333</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2024-03-11 06:39:00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2024-03-11 11:54:00</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>95026</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>(14, 14)</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45362.21527777778</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2024-03-11 05:10:00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2024-03-11 11:40:51</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>0.2714305555555556</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>94458</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>(13, 13)</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45362.54305555556</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2024-03-11 13:02:00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2024-03-11 14:22:00</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>94937</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>(41, 41)</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45362.39305555556</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2024-03-11 09:26:00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2024-03-11 15:59:21</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>0.2731666666666667</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>94278</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>(46, 46)</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45362.2125</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2024-03-11 05:06:00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2024-03-11 06:26:00</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>94202</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>(40, 40)</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45362.44791666666</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:45:00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2024-03-11 12:05:00</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>95569</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>(51, 51)</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>45362.21388888889</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2024-03-11 05:08:00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2024-03-11 06:28:00</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>94206</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>(45, 45)</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>45362.43611111111</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:28:00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2024-03-11 16:39:33</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>0.2580277777777777</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>95611</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>(36, 36)</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>45362.125</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2024-03-11 03:00:00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2024-03-11 05:40:00</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>95063</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>(6, 6)</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>45362.38125</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2024-03-11 09:09:00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2024-03-11 17:08:00</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>0.3326388888888889</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>95526</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>(49, 49)</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>45362.56041666667</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2024-03-11 13:27:00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2024-03-11 14:47:00</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>94282</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>(38, 38)</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>45362.58611111111</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2024-03-11 14:04:00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2024-03-11 20:40:55</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>0.2756388888888889</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>95535</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>(13, 13)</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>45362.71875</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2024-03-11 17:15:00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2024-03-11 18:35:00</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>95122</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>(55, 55)</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>45362.48888888889</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2024-03-11 11:44:00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2024-03-11 15:18:00</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>0.1486111111111111</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>94319</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>(16, 16)</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>45362.44375</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:39:00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2024-03-11 16:21:42</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>0.2379861111111111</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>94204</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>(38, 38)</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>45362.41458333333</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2024-03-11 09:57:00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2024-03-11 11:17:00</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>95354</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>(4, 4)</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>45362.61944444444</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2024-03-11 14:52:00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2024-03-11 16:12:00</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>95393</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>(54, 54)</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>45362.1875</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2024-03-11 04:30:00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:33:16</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>0.2522777777777778</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>95545</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>(47, 47)</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>45362.5625</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2024-03-11 13:30:00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2024-03-11 14:50:00</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>94681</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>45362.14236111111</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2024-03-11 03:25:00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:52:00</t>
+        </is>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>0.3104166666666667</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>95098</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>(17, 17)</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>45362.28194444445</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2024-03-11 06:46:00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2024-03-11 09:58:00</t>
+        </is>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>94657</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>(12, 12)</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>45362.21736111111</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2024-03-11 05:13:00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2024-03-11 11:24:33</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>0.2580277777777777</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>94536</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>(55, 55)</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>45362.14652777778</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2024-03-11 03:31:00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:51:00</t>
+        </is>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>0.3055555555555556</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>94454</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>(8, 8)</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>45362.35416666666</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2024-03-11 08:30:00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2024-03-11 16:04:00</t>
+        </is>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>0.3152777777777778</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>94269</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>(15, 15)</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>45362.45833333334</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2024-03-11 11:00:00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2024-03-11 19:40:00</t>
+        </is>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>0.3611111111111111</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>95314</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>(50, 50)</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>45362.20833333334</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2024-03-11 05:00:00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2024-03-11 12:19:00</t>
+        </is>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>0.3048611111111111</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>95418</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>(38, 38)</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>45362.29166666666</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2024-03-11 07:00:00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2024-03-11 09:40:00</t>
+        </is>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>94208</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>(43, 43)</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>45362.27986111111</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2024-03-11 06:43:00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2024-03-11 12:54:33</t>
+        </is>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>0.2580277777777777</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>94737</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>(46, 46)</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>45362.31875</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2024-03-11 07:39:00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2024-03-11 15:38:00</t>
+        </is>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>0.3326388888888889</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>95379</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>(31, 31)</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>45362.27013888889</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2024-03-11 06:29:00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2024-03-11 14:26:00</t>
+        </is>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>0.33125</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>94205</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>(51, 51)</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>45362.40486111111</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2024-03-11 09:43:00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2024-03-11 15:54:33</t>
+        </is>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>0.2580277777777777</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>94203</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>45362.45694444444</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:58:00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2024-03-11 17:09:33</t>
+        </is>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>0.2580277777777777</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>95336</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>45362.19375</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2024-03-11 04:39:00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2024-03-11 12:13:31</t>
+        </is>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>0.3156388888888889</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>95544</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>(36, 36)</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>45362.45277777778</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:52:00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2024-03-11 12:12:00</t>
+        </is>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>94531</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>(10, 10)</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>45362.31319444445</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2024-03-11 07:31:00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2024-03-11 14:51:00</t>
+        </is>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>0.3055555555555556</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>95551</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>(2, 2)</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>45362.14583333334</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2024-03-11 03:30:00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2024-03-11 12:10:00</t>
+        </is>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>0.3611111111111111</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>95041</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>(21, 21)</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>45362.23611111111</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2024-03-11 05:40:00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2024-03-11 12:10:51</t>
+        </is>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>0.2714305555555556</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>95419</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>(34, 34)</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>45362.39583333334</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2024-03-11 09:30:00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:50:00</t>
+        </is>
+      </c>
+      <c r="F87" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>94453</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>(5, 5)</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>45362.27083333334</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2024-03-11 06:30:00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2024-03-11 14:06:00</t>
+        </is>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>0.3166666666666667</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>95193</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>45362.14583333334</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2024-03-11 03:30:00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2024-03-11 11:31:00</t>
+        </is>
+      </c>
+      <c r="F89" s="3" t="n">
+        <v>0.3340277777777778</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>95494</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>(4, 4)</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>45362.4375</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:30:00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2024-03-11 11:50:00</t>
+        </is>
+      </c>
+      <c r="F90" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>94938</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>(33, 33)</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>45362.43472222222</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:26:00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2024-03-11 16:59:21</t>
+        </is>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>0.2731666666666667</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>94777</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>(48, 48)</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>45362.15347222222</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2024-03-11 03:41:00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2024-03-11 10:55:00</t>
+        </is>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>0.3013888888888889</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>95301</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>(3, 3)</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>45362.18055555555</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2024-03-11 04:20:00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2024-03-11 11:59:00</t>
+        </is>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>0.31875</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>95124</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>(52, 52)</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>45362.40555555555</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2024-03-11 09:44:00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2024-03-11 16:04:00</t>
+        </is>
+      </c>
+      <c r="F94" s="3" t="n">
+        <v>0.2638888888888889</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>95582</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>(52, 52)</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>45362.21041666667</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2024-03-11 05:03:00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2024-03-11 06:23:00</t>
+        </is>
+      </c>
+      <c r="F95" s="3" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95076</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>(28, 28)</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>45362.19444444445</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2024-03-11 04:40:00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2024-03-11 11:08:51</t>
+        </is>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>0.2700416666666666</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/static/tmp/planificacion.xlsx
+++ b/static/tmp/planificacion.xlsx
@@ -1,37 +1,657 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="203">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Trackers</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>fechas</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>start_to_end_time</t>
+  </si>
+  <si>
+    <t>('OSWALDO ESCALONA A', 'PORTEADOR', 0, 1, '27.643.631-7')</t>
+  </si>
+  <si>
+    <t>('RODRIGO RIQUELME N', 'ASOCIADO', 1, 1, '13.767.617-6')</t>
+  </si>
+  <si>
+    <t>('JOSE SANTIS S', 'PROPIO', 0, 1, '15.872.022-1')</t>
+  </si>
+  <si>
+    <t>('EDUARDO MARAMBIO A', 'ASOCIADO', 1, 1, '18.760.890-2')</t>
+  </si>
+  <si>
+    <t>('PATRICIO CARREÑO B', 'PROPIO', 0, 1, '15.348.250-0')</t>
+  </si>
+  <si>
+    <t>('JUAN BERNACHEA', 'ASOCIADO', 1, 1, '7.741.876-8')</t>
+  </si>
+  <si>
+    <t>('ADOLFO CORVALAN P', 'PROPIO', 0, 1, '19.758.425-4')</t>
+  </si>
+  <si>
+    <t>('DANIEL  L', 'ASOCIADO', 1, 1, '15.873.188-6')</t>
+  </si>
+  <si>
+    <t>('RODRIGO  I', 'PROPIO', 0, 1, '10.355.521-3')</t>
+  </si>
+  <si>
+    <t>('Rene Vives H', 'PROPIO', 0, 1, '10.813.755-K')</t>
+  </si>
+  <si>
+    <t>('AURELIO ARÉVALO G', 'ASOCIADO', 1, 1, '13.196.601-6')</t>
+  </si>
+  <si>
+    <t>('FRANCISCO VIDAL L', 'ASOCIADO', 1, 1, '19.403.547-0')</t>
+  </si>
+  <si>
+    <t>('PATRICIO PARDO V', 'PORTEADOR', 0, 1, '13.546.027-3')</t>
+  </si>
+  <si>
+    <t>('Nelson Gallardo R', 'PROPIO', 0, 1, '11.388.715-K')</t>
+  </si>
+  <si>
+    <t>('CRISTIAN LLANCA P', 'ASOCIADO', 1, 1, '19.143.316-5')</t>
+  </si>
+  <si>
+    <t>('DOMINGO LLANOS', 'ASOCIADO', 1, 1, '10.767.591-4')</t>
+  </si>
+  <si>
+    <t>('ANGEL FLORES H', 'ASOCIADO', 1, 1, '16.668.125-1')</t>
+  </si>
+  <si>
+    <t>('ANDY BETANCOURT H', 'PROPIO', 0, 1, '16.300.244-2')</t>
+  </si>
+  <si>
+    <t>('MAURICIO URBINA S', 'PROPIO', 0, 1, '11.630.504-6')</t>
+  </si>
+  <si>
+    <t>('CRISTIAN REAL M', 'PORTEADOR', 0, 1, '16.642.093-8')</t>
+  </si>
+  <si>
+    <t>('Pablo Tudela M', 'PROPIO', 0, 1, '15.893.630-5')</t>
+  </si>
+  <si>
+    <t>('Luis Olea V', 'PROPIO', 0, 1, '16.491.628-6')</t>
+  </si>
+  <si>
+    <t>('MAURICIO RIVAS R', 'ASOCIADO', 1, 1, '18.448.238-K')</t>
+  </si>
+  <si>
+    <t>('FELIPE RIVAS D', 'PROPIO', 0, 1, '16.517.262-0')</t>
+  </si>
+  <si>
+    <t>('GUILLERMO GARAY', 'ASOCIADO', 1, 1, '15.648.946-8')</t>
+  </si>
+  <si>
+    <t>('FELIPE ROJAS S', 'ASOCIADO', 1, 1, '19.756.747-3')</t>
+  </si>
+  <si>
+    <t>('JHONNY SEPULVEDA', 'ASOCIADO', 1, 1, '16.130.818-8')</t>
+  </si>
+  <si>
+    <t>('CARLOS PONCE A', 'PROPIO', 0, 1, '14.555.433-0')</t>
+  </si>
+  <si>
+    <t>('JUAN VICENCIO N', 'PROPIO', 0, 1, '15.095.552-1')</t>
+  </si>
+  <si>
+    <t>('OWEN AGUILAR G', 'ASOCIADO', 1, 1, '15.873.472-9')</t>
+  </si>
+  <si>
+    <t>('DANIEL BEJARANO H', 'PROPIO', 0, 1, '27.886.201-1')</t>
+  </si>
+  <si>
+    <t>('YOSMAR PEREZ P', 'PROPIO', 0, 1, '11.257.434-4')</t>
+  </si>
+  <si>
+    <t>('SERGIO VEGA V', 'PROPIO', 0, 1, '18.122.272-7')</t>
+  </si>
+  <si>
+    <t>('MIGUEL PEÑAHERRERA P', 'PORTEADOR', 0, 1, '28.278.056-9')</t>
+  </si>
+  <si>
+    <t>('CARLOS OSORIO', 'ASOCIADO', 1, 1, '13.368.536-7')</t>
+  </si>
+  <si>
+    <t>('Luis Arevalo M', 'ASOCIADO', 1, 1, '16.529.122-0')</t>
+  </si>
+  <si>
+    <t>('EDUARDO ROMAN O', 'PROPIO', 0, 1, '11.946.072-7')</t>
+  </si>
+  <si>
+    <t>('Francisco Paredes A', 'PROPIO', 0, 1, '13.837.221-9')</t>
+  </si>
+  <si>
+    <t>('CARLOS AREVALO M', 'PROPIO', 0, 1, '17.149.048-0')</t>
+  </si>
+  <si>
+    <t>('FERNANDO COFRÉ T', 'PROPIO', 0, 1, '15.112.544-1')</t>
+  </si>
+  <si>
+    <t>('CRISTIAN MUÑOZ S', 'ASOCIADO', 1, 1, '13.196.333-5')</t>
+  </si>
+  <si>
+    <t>('FLAVIO PACHECO P', 'PROPIO', 0, 1, '27.918.005-4')</t>
+  </si>
+  <si>
+    <t>('GABRIEL PARRA C', 'ASOCIADO', 1, 1, '18.759.852-4')</t>
+  </si>
+  <si>
+    <t>2024-04-08 09:54:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 04:55:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 12:30:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 02:27:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 02:54:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 05:40:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 05:54:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 13:10:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 08:36:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 03:52:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 04:20:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 04:28:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 09:26:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 12:20:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 06:10:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 04:06:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 04:30:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 04:38:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 08:41:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 04:42:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 04:26:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 06:58:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 06:39:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 06:07:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 04:25:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 17:20:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 03:18:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 12:52:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 12:56:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 14:06:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 02:31:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 06:19:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 16:12:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 06:54:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 06:31:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 17:04:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 03:39:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 14:00:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 05:21:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 05:20:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 16:40:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 03:00:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 11:48:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 08:08:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 16:53:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 10:00:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 09:24:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 03:06:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 10:01:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 02:24:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 12:36:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 02:55:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 11:56:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 15:48:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 13:04:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 02:20:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 07:10:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 17:22:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 06:20:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 13:58:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 07:30:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 06:50:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 06:55:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 09:44:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 09:42:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 02:26:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 02:53:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 07:16:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 05:37:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 09:20:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 09:40:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 04:31:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 02:29:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 04:46:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 09:00:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 06:25:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 09:28:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 06:44:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 11:14:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 13:14:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 22:08:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 10:42:33</t>
+  </si>
+  <si>
+    <t>2024-04-08 10:02:39</t>
+  </si>
+  <si>
+    <t>2024-04-08 07:00:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 07:14:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 14:30:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 11:16:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 05:12:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 11:19:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 05:48:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 10:46:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 13:40:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 05:26:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 05:50:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 08:06:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 16:24:44</t>
+  </si>
+  <si>
+    <t>2024-04-08 06:02:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 05:46:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 08:18:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 14:25:45</t>
+  </si>
+  <si>
+    <t>2024-04-08 07:27:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 12:12:21</t>
+  </si>
+  <si>
+    <t>2024-04-08 18:40:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 05:58:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 14:12:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 14:16:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 15:26:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 09:47:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 07:39:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 17:32:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 08:14:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 15:12:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 18:24:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 11:25:45</t>
+  </si>
+  <si>
+    <t>2024-04-08 15:20:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 06:41:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 12:24:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 18:00:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 10:27:28</t>
+  </si>
+  <si>
+    <t>2024-04-08 13:08:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 11:36:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 18:13:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 19:14:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 10:44:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 17:17:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 11:10:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 13:56:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 13:16:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 17:08:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 20:06:28</t>
+  </si>
+  <si>
+    <t>2024-04-08 10:47:33</t>
+  </si>
+  <si>
+    <t>2024-04-08 17:09:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 18:42:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 13:19:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 13:44:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 15:18:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 11:30:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 10:51:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 08:10:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 15:14:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 11:04:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 11:02:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 10:48:33</t>
+  </si>
+  <si>
+    <t>2024-04-08 10:01:39</t>
+  </si>
+  <si>
+    <t>2024-04-08 06:57:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 10:40:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 11:00:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 08:55:21</t>
+  </si>
+  <si>
+    <t>2024-04-08 06:06:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 19:00:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 07:45:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 10:48:00</t>
+  </si>
+  <si>
+    <t>2024-04-08 10:32:28</t>
+  </si>
+  <si>
+    <t>2024-04-08 08:04:00</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +666,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,52 +984,1794 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Trackers</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>start_time</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>fechas</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>end_time</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>start_to_end_time</t>
-        </is>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>97023</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45390.4125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>96904</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45390.20486111111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.3465277777777778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>96586</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45390.52083333334</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.4013888888888889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>96736</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45390.10208333333</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.3441388888888889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>96897</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45390.12083333333</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.2976805555555556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>97000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45390.23611111111</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>96871</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45390.24583333333</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>96924</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45390.54861111111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>97041</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45390.35833333333</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>97066</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45390.16111111111</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>96622</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45390.18055555555</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.2909722222222222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>97128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45390.18611111111</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>97012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45390.39305555556</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>97064</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45390.51388888889</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>97016</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45390.25694444445</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>97053</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45390.17083333333</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>96263</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45390.1875</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>96039</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45390.19305555556</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.1444444444444444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>96488</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45390.36180555556</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.3220416666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>96935</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45390.19583333333</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>96998</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45390.18472222222</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>97006</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45390.29027777778</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>96820</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45390.27708333333</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.3241388888888889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>97022</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45390.25486111111</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>96910</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45390.18402777778</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.3245555555555555</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>97052</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45390.72222222222</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>97082</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45390.1375</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>96906</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45390.53611111111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>96905</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45390.53888888889</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>96980</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45390.5875</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>96645</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2">
+        <v>45390.10486111111</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.3027777777777778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>97002</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="2">
+        <v>45390.26319444444</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>97092</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45390.675</v>
+      </c>
+      <c r="D34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>97046</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45390.2875</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>96596</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45390.27152777778</v>
+      </c>
+      <c r="D36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.3618055555555555</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>96932</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45390.71111111111</v>
+      </c>
+      <c r="D37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>96828</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45390.15208333333</v>
+      </c>
+      <c r="D38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.3241388888888889</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>97042</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="2">
+        <v>45390.58333333334</v>
+      </c>
+      <c r="D39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>97127</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45390.22291666667</v>
+      </c>
+      <c r="D40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>96621</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45390.22222222222</v>
+      </c>
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.2944444444444445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>96402</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45390.69444444445</v>
+      </c>
+      <c r="D42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" t="s">
+        <v>166</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>96950</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45390.125</v>
+      </c>
+      <c r="D43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" t="s">
+        <v>167</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.31075</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>97019</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45390.49166666667</v>
+      </c>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" t="s">
+        <v>168</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>96038</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45390.33888888889</v>
+      </c>
+      <c r="D45" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.1444444444444444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>96035</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45390.19305555556</v>
+      </c>
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.1444444444444444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>97057</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45390.70347222222</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" t="s">
+        <v>170</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>96824</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45390.41666666666</v>
+      </c>
+      <c r="D48" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" t="s">
+        <v>171</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.3847222222222222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>96936</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45390.39166666667</v>
+      </c>
+      <c r="D49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" t="s">
+        <v>172</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>97081</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45390.12916666667</v>
+      </c>
+      <c r="D50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>96729</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45390.41736111111</v>
+      </c>
+      <c r="D51" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0.3027777777777778</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>97126</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="2">
+        <v>45390.1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" t="s">
+        <v>174</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.3652777777777778</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>97089</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="2">
+        <v>45390.525</v>
+      </c>
+      <c r="D53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" t="s">
+        <v>175</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>96909</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="2">
+        <v>45390.12152777778</v>
+      </c>
+      <c r="D54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.3465277777777778</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>96903</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="2">
+        <v>45390.49722222222</v>
+      </c>
+      <c r="D55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" t="s">
+        <v>176</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>97098</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="2">
+        <v>45390.65833333333</v>
+      </c>
+      <c r="D56" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>96801</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="2">
+        <v>45390.54444444444</v>
+      </c>
+      <c r="D57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" t="s">
+        <v>178</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.2933888888888889</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>96737</v>
+      </c>
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="2">
+        <v>45390.09722222222</v>
+      </c>
+      <c r="D58" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" t="s">
+        <v>179</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0.3524722222222222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>96288</v>
+      </c>
+      <c r="B59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="2">
+        <v>45390.29861111111</v>
+      </c>
+      <c r="D59" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" t="s">
+        <v>180</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0.4159722222222222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>97091</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="2">
+        <v>45390.72361111111</v>
+      </c>
+      <c r="D60" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>96623</v>
+      </c>
+      <c r="B61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="2">
+        <v>45390.26388888889</v>
+      </c>
+      <c r="D61" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" t="s">
+        <v>182</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0.2909722222222222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>96988</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="2">
+        <v>45390.19305555556</v>
+      </c>
+      <c r="D62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" t="s">
+        <v>152</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>97073</v>
+      </c>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="2">
+        <v>45390.125</v>
+      </c>
+      <c r="D63" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" t="s">
+        <v>183</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0.4472222222222222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>96911</v>
+      </c>
+      <c r="B64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="2">
+        <v>45390.19305555556</v>
+      </c>
+      <c r="D64" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" t="s">
+        <v>152</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>97013</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="2">
+        <v>45390.58194444444</v>
+      </c>
+      <c r="D65" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" t="s">
+        <v>184</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>97044</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="2">
+        <v>45390.3125</v>
+      </c>
+      <c r="D66" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" t="s">
+        <v>185</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>96979</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="2">
+        <v>45390.125</v>
+      </c>
+      <c r="D67" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" t="s">
+        <v>186</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0.3270833333333333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>96331</v>
+      </c>
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="2">
+        <v>45390.28472222222</v>
+      </c>
+      <c r="D68" t="s">
+        <v>110</v>
+      </c>
+      <c r="E68" t="s">
+        <v>187</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>96907</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="2">
+        <v>45390.28819444445</v>
+      </c>
+      <c r="D69" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" t="s">
+        <v>188</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0.3465277777777778</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>96949</v>
+      </c>
+      <c r="B70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="2">
+        <v>45390.125</v>
+      </c>
+      <c r="D70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" t="s">
+        <v>167</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0.31075</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>97021</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="2">
+        <v>45390.4125</v>
+      </c>
+      <c r="D71" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" t="s">
+        <v>127</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>97020</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="2">
+        <v>45390.40555555555</v>
+      </c>
+      <c r="D72" t="s">
+        <v>112</v>
+      </c>
+      <c r="E72" t="s">
+        <v>189</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>97051</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="2">
+        <v>45390.40416666667</v>
+      </c>
+      <c r="D73" t="s">
+        <v>113</v>
+      </c>
+      <c r="E73" t="s">
+        <v>190</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>96748</v>
+      </c>
+      <c r="B74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="2">
+        <v>45390.10138888889</v>
+      </c>
+      <c r="D74" t="s">
+        <v>114</v>
+      </c>
+      <c r="E74" t="s">
+        <v>191</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>97015</v>
+      </c>
+      <c r="B75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="2">
+        <v>45390.12013888889</v>
+      </c>
+      <c r="D75" t="s">
+        <v>115</v>
+      </c>
+      <c r="E75" t="s">
+        <v>192</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0.2976805555555556</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>97067</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="2">
+        <v>45390.30277777778</v>
+      </c>
+      <c r="D76" t="s">
+        <v>116</v>
+      </c>
+      <c r="E76" t="s">
+        <v>57</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>96982</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="2">
+        <v>45390.23402777778</v>
+      </c>
+      <c r="D77" t="s">
+        <v>117</v>
+      </c>
+      <c r="E77" t="s">
+        <v>193</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>96908</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="2">
+        <v>45390.38888888889</v>
+      </c>
+      <c r="D78" t="s">
+        <v>118</v>
+      </c>
+      <c r="E78" t="s">
+        <v>194</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>96739</v>
+      </c>
+      <c r="B79" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="2">
+        <v>45390.09722222222</v>
+      </c>
+      <c r="D79" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" t="s">
+        <v>179</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0.3524722222222222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>97054</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="2">
+        <v>45390.40277777778</v>
+      </c>
+      <c r="D80" t="s">
+        <v>119</v>
+      </c>
+      <c r="E80" t="s">
+        <v>195</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>97014</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="2">
+        <v>45390.18819444445</v>
+      </c>
+      <c r="D81" t="s">
+        <v>120</v>
+      </c>
+      <c r="E81" t="s">
+        <v>123</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0.1868055555555556</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>96545</v>
+      </c>
+      <c r="B82" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" s="2">
+        <v>45390.10347222222</v>
+      </c>
+      <c r="D82" t="s">
+        <v>121</v>
+      </c>
+      <c r="E82" t="s">
+        <v>196</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0.2683055555555555</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>96983</v>
+      </c>
+      <c r="B83" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" s="2">
+        <v>45390.19861111111</v>
+      </c>
+      <c r="D83" t="s">
+        <v>122</v>
+      </c>
+      <c r="E83" t="s">
+        <v>197</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>96634</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="2">
+        <v>45390.375</v>
+      </c>
+      <c r="D84" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>97018</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="2">
+        <v>45390.26736111111</v>
+      </c>
+      <c r="D85" t="s">
+        <v>124</v>
+      </c>
+      <c r="E85" t="s">
+        <v>199</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>96870</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="2">
+        <v>45390.39444444444</v>
+      </c>
+      <c r="D86" t="s">
+        <v>125</v>
+      </c>
+      <c r="E86" t="s">
+        <v>200</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>96948</v>
+      </c>
+      <c r="B87" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" s="2">
+        <v>45390.15208333333</v>
+      </c>
+      <c r="D87" t="s">
+        <v>85</v>
+      </c>
+      <c r="E87" t="s">
+        <v>201</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0.2871388888888889</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>96922</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="2">
+        <v>45390.1875</v>
+      </c>
+      <c r="D88" t="s">
+        <v>65</v>
+      </c>
+      <c r="E88" t="s">
+        <v>142</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>96994</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" s="2">
+        <v>45390.28055555555</v>
+      </c>
+      <c r="D89" t="s">
+        <v>126</v>
+      </c>
+      <c r="E89" t="s">
+        <v>202</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0.05555555555555555</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/static/tmp/planificacion.xlsx
+++ b/static/tmp/planificacion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="244">
   <si>
     <t>id</t>
   </si>
@@ -34,28 +34,154 @@
     <t>start_to_end_time</t>
   </si>
   <si>
+    <t>('FRANCISCO VIDAL L', 'ASOCIADO', 1, 1, '19.403.547-0')</t>
+  </si>
+  <si>
+    <t>('JOSE VIDAL J', 'ASOCIADO', 1, 1, '8.780.104-7')</t>
+  </si>
+  <si>
+    <t>('JUAN VICENCIO N', 'PROPIO', 0, 1, '15.095.552-1')</t>
+  </si>
+  <si>
+    <t>('CARLOS TAPIA', 'ASOCIADO', 1, 1, '9.262.912-0')</t>
+  </si>
+  <si>
+    <t>('EDUARDO ROMAN O', 'PROPIO', 0, 1, '11.946.072-7')</t>
+  </si>
+  <si>
+    <t>('JOSE SANTIS S', 'PROPIO', 0, 1, '15.872.022-1')</t>
+  </si>
+  <si>
+    <t>('AURELIO ARÉVALO G', 'ASOCIADO', 1, 1, '13.196.601-6')</t>
+  </si>
+  <si>
+    <t>('MARCO CATALDO C', 'TERCERO', 2, 0, '16.777.267-6')</t>
+  </si>
+  <si>
+    <t>('ADOLFO CORVALAN P', 'PROPIO', 0, 1, '19.758.425-4')</t>
+  </si>
+  <si>
+    <t>('CARLOS AREVALO M', 'PROPIO', 0, 1, '17.149.048-0')</t>
+  </si>
+  <si>
+    <t>('JUAN BERNACHEA', 'ASOCIADO', 1, 1, '7.741.876-8')</t>
+  </si>
+  <si>
+    <t>('SERGIO VEGA V', 'PROPIO', 0, 1, '18.122.272-7')</t>
+  </si>
+  <si>
+    <t>('GABRIEL PARRA C', 'ASOCIADO', 1, 1, '18.759.852-4')</t>
+  </si>
+  <si>
+    <t>('ABELARDO CONSTANTE T', 'PROPIO', 0, 1, '28.036.888-1')</t>
+  </si>
+  <si>
+    <t>('DANIEL BEJARANO H', 'PROPIO', 0, 1, '27.886.201-1')</t>
+  </si>
+  <si>
+    <t>('NATALY GONZALEZ M', 'ASOCIADO', 1, 1, '17.444.914-7')</t>
+  </si>
+  <si>
+    <t>('MAURICIO MAULEN', 'ASOCIADO', 1, 1, '11.275.919-0')</t>
+  </si>
+  <si>
+    <t>('LUIS REYES P', 'ASOCIADO', 1, 1, '8.298.532-8')</t>
+  </si>
+  <si>
+    <t>('DANIEL  L', 'ASOCIADO', 1, 1, '15.873.188-6')</t>
+  </si>
+  <si>
+    <t>('PATRICIO CARREÑO B', 'PROPIO', 0, 1, '15.348.250-0')</t>
+  </si>
+  <si>
+    <t>('ANGEL CARREÑO', 'ASOCIADO', 1, 1, '14.003.333-2')</t>
+  </si>
+  <si>
+    <t>('JHONNY SEPULVEDA', 'ASOCIADO', 1, 1, '16.130.818-8')</t>
+  </si>
+  <si>
+    <t>('FRANCISCO GARCIA D', 'PROPIO', 0, 1, '18.228.515-3')</t>
+  </si>
+  <si>
+    <t>('JORGE ALFARO H', 'ASOCIADO', 1, 1, '16.758.352-0')</t>
+  </si>
+  <si>
+    <t>('JOSE GONZALEZ B', 'ASOCIADO', 1, 1, '9.813.300-3')</t>
+  </si>
+  <si>
+    <t>('RODRIGO RIQUELME N', 'ASOCIADO', 1, 1, '13.767.617-6')</t>
+  </si>
+  <si>
+    <t>('EDUARDO MARAMBIO A', 'ASOCIADO', 1, 1, '18.760.890-2')</t>
+  </si>
+  <si>
+    <t>('BETHI PROAÑO R', 'PORTEADOR', 0, 1, '28.060.670-7')</t>
+  </si>
+  <si>
+    <t>('MANUEL VIDAL L', 'ASOCIADO', 1, 1, '16.311.233-7')</t>
+  </si>
+  <si>
+    <t>('SAMUEL FAUNDEZ J', 'ASOCIADO', 1, 1, '16.265.186-2')</t>
+  </si>
+  <si>
+    <t>('ANGEL FLORES H', 'ASOCIADO', 1, 1, '16.668.125-1')</t>
+  </si>
+  <si>
+    <t>('JOSE REYES', 'ASOCIADO', 1, 1, '14.003.298-0')</t>
+  </si>
+  <si>
+    <t>('JOSE SANCHEZ', 'ASOCIADO', 1, 1, '27.742.628-5')</t>
+  </si>
+  <si>
+    <t>('MAURICIO URBINA S', 'PROPIO', 0, 1, '11.630.504-6')</t>
+  </si>
+  <si>
+    <t>('CAMILO PLAZA G', 'ASOCIADO', 1, 1, '15.401.957-K')</t>
+  </si>
+  <si>
+    <t>('ANDY BETANCOURT H', 'PROPIO', 0, 1, '16.300.244-2')</t>
+  </si>
+  <si>
+    <t>('IVAN PARRA C', 'ASOCIADO', 1, 1, '19.143.325-4')</t>
+  </si>
+  <si>
     <t>('OSWALDO ESCALONA A', 'PORTEADOR', 0, 1, '27.643.631-7')</t>
   </si>
   <si>
-    <t>('RODRIGO RIQUELME N', 'ASOCIADO', 1, 1, '13.767.617-6')</t>
-  </si>
-  <si>
-    <t>('JOSE SANTIS S', 'PROPIO', 0, 1, '15.872.022-1')</t>
-  </si>
-  <si>
-    <t>('EDUARDO MARAMBIO A', 'ASOCIADO', 1, 1, '18.760.890-2')</t>
-  </si>
-  <si>
-    <t>('PATRICIO CARREÑO B', 'PROPIO', 0, 1, '15.348.250-0')</t>
-  </si>
-  <si>
-    <t>('JUAN BERNACHEA', 'ASOCIADO', 1, 1, '7.741.876-8')</t>
-  </si>
-  <si>
-    <t>('ADOLFO CORVALAN P', 'PROPIO', 0, 1, '19.758.425-4')</t>
-  </si>
-  <si>
-    <t>('DANIEL  L', 'ASOCIADO', 1, 1, '15.873.188-6')</t>
+    <t>('CRISTIAN MUÑOZ S', 'ASOCIADO', 1, 1, '13.196.333-5')</t>
+  </si>
+  <si>
+    <t>('Luis Arevalo M', 'ASOCIADO', 1, 1, '16.529.122-0')</t>
+  </si>
+  <si>
+    <t>('GUILLERMO GARAY', 'ASOCIADO', 1, 1, '15.648.946-8')</t>
+  </si>
+  <si>
+    <t>('Luis Olea V', 'PROPIO', 0, 1, '16.491.628-6')</t>
+  </si>
+  <si>
+    <t>('DOMINGO LLANOS', 'ASOCIADO', 1, 1, '10.767.591-4')</t>
+  </si>
+  <si>
+    <t>('MARCO BERNACHEA A', 'ASOCIADO', 1, 1, '13.665.862-K')</t>
+  </si>
+  <si>
+    <t>('RICARDO GONZALEZ L', 'ASOCIADO', 1, 1, '7.614.149-5')</t>
+  </si>
+  <si>
+    <t>('MAURICIO RIVAS R', 'ASOCIADO', 1, 1, '18.448.238-K')</t>
+  </si>
+  <si>
+    <t>('Nelson Gallardo R', 'PROPIO', 0, 1, '11.388.715-K')</t>
+  </si>
+  <si>
+    <t>('OWEN AGUILAR G', 'ASOCIADO', 1, 1, '15.873.472-9')</t>
+  </si>
+  <si>
+    <t>('CRISTIAN REAL M', 'PORTEADOR', 0, 1, '16.642.093-8')</t>
+  </si>
+  <si>
+    <t>('CARLOS PONCE A', 'PROPIO', 0, 1, '14.555.433-0')</t>
   </si>
   <si>
     <t>('RODRIGO  I', 'PROPIO', 0, 1, '10.355.521-3')</t>
@@ -64,565 +190,562 @@
     <t>('Rene Vives H', 'PROPIO', 0, 1, '10.813.755-K')</t>
   </si>
   <si>
-    <t>('AURELIO ARÉVALO G', 'ASOCIADO', 1, 1, '13.196.601-6')</t>
-  </si>
-  <si>
-    <t>('FRANCISCO VIDAL L', 'ASOCIADO', 1, 1, '19.403.547-0')</t>
+    <t>('Leonardo Leiva C', 'PROPIO', 0, 1, '16.166.731-5')</t>
+  </si>
+  <si>
+    <t>('ALEX MILLAR', 'ASOCIADO', 1, 1, '9.716.038-4')</t>
+  </si>
+  <si>
+    <t>('MIGUEL PEÑAHERRERA P', 'PORTEADOR', 0, 1, '28.278.056-9')</t>
+  </si>
+  <si>
+    <t>('Pablo Tudela M', 'PROPIO', 0, 1, '15.893.630-5')</t>
+  </si>
+  <si>
+    <t>('LUIS PAILLALEF P', 'PORTEADOR', 0, 1, '10.048.208-8')</t>
   </si>
   <si>
     <t>('PATRICIO PARDO V', 'PORTEADOR', 0, 1, '13.546.027-3')</t>
   </si>
   <si>
-    <t>('Nelson Gallardo R', 'PROPIO', 0, 1, '11.388.715-K')</t>
-  </si>
-  <si>
-    <t>('CRISTIAN LLANCA P', 'ASOCIADO', 1, 1, '19.143.316-5')</t>
-  </si>
-  <si>
-    <t>('DOMINGO LLANOS', 'ASOCIADO', 1, 1, '10.767.591-4')</t>
-  </si>
-  <si>
-    <t>('ANGEL FLORES H', 'ASOCIADO', 1, 1, '16.668.125-1')</t>
-  </si>
-  <si>
-    <t>('ANDY BETANCOURT H', 'PROPIO', 0, 1, '16.300.244-2')</t>
-  </si>
-  <si>
-    <t>('MAURICIO URBINA S', 'PROPIO', 0, 1, '11.630.504-6')</t>
-  </si>
-  <si>
-    <t>('CRISTIAN REAL M', 'PORTEADOR', 0, 1, '16.642.093-8')</t>
-  </si>
-  <si>
-    <t>('Pablo Tudela M', 'PROPIO', 0, 1, '15.893.630-5')</t>
-  </si>
-  <si>
-    <t>('Luis Olea V', 'PROPIO', 0, 1, '16.491.628-6')</t>
-  </si>
-  <si>
-    <t>('MAURICIO RIVAS R', 'ASOCIADO', 1, 1, '18.448.238-K')</t>
+    <t>('CARLOS OSORIO', 'ASOCIADO', 1, 1, '13.368.536-7')</t>
+  </si>
+  <si>
+    <t>('FELIPE ROJAS S', 'ASOCIADO', 1, 1, '19.756.747-3')</t>
+  </si>
+  <si>
+    <t>('Francisco Paredes A', 'PROPIO', 0, 1, '13.837.221-9')</t>
+  </si>
+  <si>
+    <t>('LEONARDO MIRANDA B', 'ASOCIADO', 1, 1, '13.547.264-6')</t>
+  </si>
+  <si>
+    <t>('DERWINS CORTEZ G', 'ASOCIADO', 1, 1, '26.536.138-2')</t>
+  </si>
+  <si>
+    <t>('FLAVIO PACHECO P', 'PROPIO', 0, 1, '27.918.005-4')</t>
   </si>
   <si>
     <t>('FELIPE RIVAS D', 'PROPIO', 0, 1, '16.517.262-0')</t>
   </si>
   <si>
-    <t>('GUILLERMO GARAY', 'ASOCIADO', 1, 1, '15.648.946-8')</t>
-  </si>
-  <si>
-    <t>('FELIPE ROJAS S', 'ASOCIADO', 1, 1, '19.756.747-3')</t>
-  </si>
-  <si>
-    <t>('JHONNY SEPULVEDA', 'ASOCIADO', 1, 1, '16.130.818-8')</t>
-  </si>
-  <si>
-    <t>('CARLOS PONCE A', 'PROPIO', 0, 1, '14.555.433-0')</t>
-  </si>
-  <si>
-    <t>('JUAN VICENCIO N', 'PROPIO', 0, 1, '15.095.552-1')</t>
-  </si>
-  <si>
-    <t>('OWEN AGUILAR G', 'ASOCIADO', 1, 1, '15.873.472-9')</t>
-  </si>
-  <si>
-    <t>('DANIEL BEJARANO H', 'PROPIO', 0, 1, '27.886.201-1')</t>
-  </si>
-  <si>
     <t>('YOSMAR PEREZ P', 'PROPIO', 0, 1, '11.257.434-4')</t>
   </si>
   <si>
-    <t>('SERGIO VEGA V', 'PROPIO', 0, 1, '18.122.272-7')</t>
-  </si>
-  <si>
-    <t>('MIGUEL PEÑAHERRERA P', 'PORTEADOR', 0, 1, '28.278.056-9')</t>
-  </si>
-  <si>
-    <t>('CARLOS OSORIO', 'ASOCIADO', 1, 1, '13.368.536-7')</t>
-  </si>
-  <si>
-    <t>('Luis Arevalo M', 'ASOCIADO', 1, 1, '16.529.122-0')</t>
-  </si>
-  <si>
-    <t>('EDUARDO ROMAN O', 'PROPIO', 0, 1, '11.946.072-7')</t>
-  </si>
-  <si>
-    <t>('Francisco Paredes A', 'PROPIO', 0, 1, '13.837.221-9')</t>
-  </si>
-  <si>
-    <t>('CARLOS AREVALO M', 'PROPIO', 0, 1, '17.149.048-0')</t>
-  </si>
-  <si>
-    <t>('FERNANDO COFRÉ T', 'PROPIO', 0, 1, '15.112.544-1')</t>
-  </si>
-  <si>
-    <t>('CRISTIAN MUÑOZ S', 'ASOCIADO', 1, 1, '13.196.333-5')</t>
-  </si>
-  <si>
-    <t>('FLAVIO PACHECO P', 'PROPIO', 0, 1, '27.918.005-4')</t>
-  </si>
-  <si>
-    <t>('GABRIEL PARRA C', 'ASOCIADO', 1, 1, '18.759.852-4')</t>
-  </si>
-  <si>
-    <t>2024-04-08 09:54:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 04:55:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 12:30:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 02:27:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 02:54:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 05:40:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 05:54:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 13:10:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 08:36:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 03:52:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 04:20:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 04:28:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 09:26:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 12:20:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 06:10:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 04:06:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 04:30:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 04:38:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 08:41:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 04:42:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 04:26:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 06:58:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 06:39:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 06:07:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 04:25:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 17:20:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 03:18:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 12:52:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 12:56:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 14:06:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 02:31:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 06:19:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 16:12:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 06:54:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 06:31:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 17:04:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 03:39:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 14:00:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 05:21:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 05:20:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 16:40:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 03:00:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 11:48:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 08:08:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 16:53:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 10:00:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 09:24:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 03:06:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 10:01:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 02:24:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 12:36:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 02:55:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 11:56:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 15:48:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 13:04:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 02:20:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 07:10:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 17:22:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 06:20:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 13:58:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 07:30:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 06:50:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 06:55:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 09:44:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 09:42:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 02:26:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 02:53:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 07:16:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 05:37:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 09:20:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 09:40:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 04:31:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 02:29:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 04:46:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 09:00:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 06:25:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 09:28:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 06:44:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 11:14:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 13:14:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 22:08:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 10:42:33</t>
-  </si>
-  <si>
-    <t>2024-04-08 10:02:39</t>
-  </si>
-  <si>
-    <t>2024-04-08 07:00:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 07:14:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 14:30:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 11:16:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 05:12:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 11:19:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 05:48:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 10:46:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 13:40:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 05:26:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 05:50:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 08:06:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 16:24:44</t>
-  </si>
-  <si>
-    <t>2024-04-08 06:02:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 05:46:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 08:18:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 14:25:45</t>
-  </si>
-  <si>
-    <t>2024-04-08 07:27:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 12:12:21</t>
-  </si>
-  <si>
-    <t>2024-04-08 18:40:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 05:58:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 14:12:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 14:16:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 15:26:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 09:47:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 07:39:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 17:32:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 08:14:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 15:12:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 18:24:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 11:25:45</t>
-  </si>
-  <si>
-    <t>2024-04-08 15:20:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 06:41:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 12:24:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 18:00:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 10:27:28</t>
-  </si>
-  <si>
-    <t>2024-04-08 13:08:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 11:36:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 18:13:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 19:14:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 10:44:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 17:17:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 11:10:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 13:56:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 13:16:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 17:08:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 20:06:28</t>
-  </si>
-  <si>
-    <t>2024-04-08 10:47:33</t>
-  </si>
-  <si>
-    <t>2024-04-08 17:09:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 18:42:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 13:19:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 13:44:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 15:18:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 11:30:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 10:51:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 08:10:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 15:14:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 11:04:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 11:02:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 10:48:33</t>
-  </si>
-  <si>
-    <t>2024-04-08 10:01:39</t>
-  </si>
-  <si>
-    <t>2024-04-08 06:57:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 10:40:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 11:00:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 08:55:21</t>
-  </si>
-  <si>
-    <t>2024-04-08 06:06:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 19:00:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 07:45:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 10:48:00</t>
-  </si>
-  <si>
-    <t>2024-04-08 10:32:28</t>
-  </si>
-  <si>
-    <t>2024-04-08 08:04:00</t>
+    <t>2024-04-16 08:50:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 02:39:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 13:28:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 04:59:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 08:59:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 03:15:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 03:00:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 06:20:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 04:30:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 05:10:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 07:20:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 02:30:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 09:30:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 07:00:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 04:00:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 10:00:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 03:43:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 06:57:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 03:16:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 05:00:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 02:29:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 05:32:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 06:40:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 01:12:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 04:36:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 04:50:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 02:59:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 02:57:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 02:16:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 17:20:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 15:36:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 04:16:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 07:59:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 08:24:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 03:22:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 04:26:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 05:50:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 09:36:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 15:50:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 04:02:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 04:46:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 14:01:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 09:34:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 08:40:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 03:58:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 09:48:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 09:52:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 16:28:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 11:00:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 09:08:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 09:31:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 06:25:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 09:04:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 01:38:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 09:14:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 01:50:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 05:40:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 04:44:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 13:29:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 15:56:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 07:44:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 09:40:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 09:20:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 09:10:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 08:00:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 16:32:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 04:34:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 11:43:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 03:08:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 03:40:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 12:51:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 05:42:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 06:50:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 17:32:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 02:25:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 09:29:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 09:24:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 06:58:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 05:16:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 16:44:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 04:57:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 06:31:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 06:30:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 10:10:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 09:28:28</t>
+  </si>
+  <si>
+    <t>2024-04-16 14:48:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 12:56:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 15:58:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 09:41:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 11:34:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 07:40:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 13:15:28</t>
+  </si>
+  <si>
+    <t>2024-04-16 14:19:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 11:10:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 17:34:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 15:40:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 12:41:28</t>
+  </si>
+  <si>
+    <t>2024-04-16 20:00:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 11:02:50</t>
+  </si>
+  <si>
+    <t>2024-04-16 10:46:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 10:32:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 13:45:28</t>
+  </si>
+  <si>
+    <t>2024-04-16 12:01:19</t>
+  </si>
+  <si>
+    <t>2024-04-16 06:52:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 12:01:16</t>
+  </si>
+  <si>
+    <t>2024-04-16 11:26:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 10:30:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 05:56:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 11:40:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 06:10:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 10:56:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 06:46:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 10:05:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 09:57:31</t>
+  </si>
+  <si>
+    <t>2024-04-16 18:40:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 13:10:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 16:56:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 12:05:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 12:06:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 11:55:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 08:11:28</t>
+  </si>
+  <si>
+    <t>2024-04-16 14:58:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 16:42:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 10:54:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 13:19:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 19:37:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 09:19:13</t>
+  </si>
+  <si>
+    <t>2024-04-16 20:53:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 17:10:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 05:22:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 12:10:19</t>
+  </si>
+  <si>
+    <t>2024-04-16 06:06:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 15:21:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 12:16:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 11:08:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 09:26:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 11:12:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 17:48:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 18:32:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 10:28:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 16:47:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 07:45:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 10:24:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 08:40:28</t>
+  </si>
+  <si>
+    <t>2024-04-16 10:34:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 10:17:33</t>
+  </si>
+  <si>
+    <t>2024-04-16 06:04:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 14:49:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 17:16:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 14:23:24</t>
+  </si>
+  <si>
+    <t>2024-04-16 12:35:49</t>
+  </si>
+  <si>
+    <t>2024-04-16 10:40:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 17:52:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 05:54:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 19:04:28</t>
+  </si>
+  <si>
+    <t>2024-04-16 10:48:33</t>
+  </si>
+  <si>
+    <t>2024-04-16 10:06:51</t>
+  </si>
+  <si>
+    <t>2024-04-16 14:11:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 07:02:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 08:10:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 18:52:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 08:53:21</t>
+  </si>
+  <si>
+    <t>2024-04-16 10:49:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 17:42:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 19:22:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 06:36:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 11:53:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 18:04:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 08:46:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 13:45:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 14:04:00</t>
+  </si>
+  <si>
+    <t>2024-04-16 10:04:00</t>
   </si>
 </sst>
 </file>
@@ -985,7 +1108,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1013,19 +1136,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>97023</v>
+        <v>97243</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2">
-        <v>45390.4125</v>
+        <v>45398.36805555555</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="F2" s="3">
         <v>0.05555555555555555</v>
@@ -1033,139 +1156,139 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>96904</v>
+        <v>97440</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>45390.20486111111</v>
+        <v>45398.11041666667</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F3" s="3">
-        <v>0.3465277777777778</v>
+        <v>0.2843611111111111</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>96586</v>
+        <v>97469</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>45390.52083333334</v>
+        <v>45398.56111111111</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="F4" s="3">
-        <v>0.4013888888888889</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>96736</v>
+        <v>97194</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>45390.10208333333</v>
+        <v>45398.20763888889</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="F5" s="3">
-        <v>0.3441388888888889</v>
+        <v>0.33125</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>96897</v>
+        <v>97224</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>45390.12083333333</v>
+        <v>45398.37430555555</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F6" s="3">
-        <v>0.2976805555555556</v>
+        <v>0.2909722222222222</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>97000</v>
+        <v>97320</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>45390.23611111111</v>
+        <v>45398.13541666666</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="F7" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2680555555555555</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>96871</v>
+        <v>97423</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2">
-        <v>45390.24583333333</v>
+        <v>45398.125</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="F8" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3569444444444445</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>96924</v>
+        <v>97521</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>45390.54861111111</v>
+        <v>45398.26388888889</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="F9" s="3">
         <v>0.05555555555555555</v>
@@ -1173,39 +1296,39 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>97041</v>
+        <v>97149</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>45390.35833333333</v>
+        <v>45398.1875</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="F10" s="3">
-        <v>0.1111111111111111</v>
+        <v>0.3649166666666667</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>97066</v>
+        <v>97238</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
-        <v>45390.16111111111</v>
+        <v>45398.21527777778</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F11" s="3">
         <v>0.05555555555555555</v>
@@ -1213,19 +1336,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>96622</v>
+        <v>97239</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2">
-        <v>45390.18055555555</v>
+        <v>45398.30555555555</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="F12" s="3">
         <v>0.2909722222222222</v>
@@ -1233,339 +1356,339 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>97128</v>
+        <v>96975</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>45390.18611111111</v>
+        <v>45398.10416666666</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="F13" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>97012</v>
+        <v>97105</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2">
-        <v>45390.39305555556</v>
+        <v>45398.39583333334</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="F14" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3361111111111111</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>97064</v>
+        <v>97490</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2">
-        <v>45390.51388888889</v>
+        <v>45398.29166666666</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="F15" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>97016</v>
+        <v>97327</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2">
-        <v>45390.25694444445</v>
+        <v>45398.10416666666</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="F16" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.4246388888888889</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>97053</v>
+        <v>97561</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2">
-        <v>45390.17083333333</v>
+        <v>45398.16666666666</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="F17" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>96263</v>
+        <v>96873</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="2">
-        <v>45390.1875</v>
+        <v>45398.41666666666</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="F18" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>96039</v>
+        <v>97061</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="2">
-        <v>45390.19305555556</v>
+        <v>45398.15486111111</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="F19" s="3">
-        <v>0.1444444444444444</v>
+        <v>0.3054444444444445</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>96488</v>
+        <v>97212</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="2">
-        <v>45390.36180555556</v>
+        <v>45398.28958333333</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="F20" s="3">
-        <v>0.3220416666666667</v>
+        <v>0.1590277777777778</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>96935</v>
+        <v>96957</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="2">
-        <v>45390.19583333333</v>
+        <v>45398.13611111111</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F21" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3027777777777778</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>96998</v>
+        <v>97146</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2">
-        <v>45390.18472222222</v>
+        <v>45398.20833333334</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="F22" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3649166666666667</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>97006</v>
+        <v>97096</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2">
-        <v>45390.29027777778</v>
+        <v>45398.10347222222</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F23" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3974444444444444</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>96820</v>
+        <v>97500</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2">
-        <v>45390.27708333333</v>
+        <v>45398.23055555556</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F24" s="3">
-        <v>0.3241388888888889</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>97022</v>
+        <v>94685</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" s="2">
-        <v>45390.25486111111</v>
+        <v>45398.125</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="F25" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3758888888888889</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>96910</v>
+        <v>97397</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2">
-        <v>45390.18402777778</v>
+        <v>45398.27777777778</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F26" s="3">
-        <v>0.3245555555555555</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>97052</v>
+        <v>97245</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2">
-        <v>45390.72222222222</v>
+        <v>45398.05</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="F27" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.4263888888888889</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>97082</v>
+        <v>97007</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C28" s="2">
-        <v>45390.1375</v>
+        <v>45398.13611111111</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="F28" s="3">
-        <v>0.1111111111111111</v>
+        <v>0.3013888888888889</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>96906</v>
+        <v>97502</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C29" s="2">
-        <v>45390.53611111111</v>
+        <v>45398.19166666667</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="F29" s="3">
         <v>0.05555555555555555</v>
@@ -1573,39 +1696,39 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>96905</v>
+        <v>97492</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C30" s="2">
-        <v>45390.53888888889</v>
+        <v>45398.125</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="F30" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>96980</v>
+        <v>97226</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C31" s="2">
-        <v>45390.5875</v>
+        <v>45398.20138888889</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="F31" s="3">
         <v>0.05555555555555555</v>
@@ -1613,119 +1736,119 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>96645</v>
+        <v>97193</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2">
-        <v>45390.10486111111</v>
+        <v>45398.12430555555</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="F32" s="3">
-        <v>0.3027777777777778</v>
+        <v>0.33125</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>97002</v>
+        <v>97491</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2">
-        <v>45390.26319444444</v>
+        <v>45398.125</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="F33" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>97092</v>
+        <v>97213</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2">
-        <v>45390.675</v>
+        <v>45398.12291666667</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="F34" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.1590277777777778</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>97046</v>
+        <v>97130</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C35" s="2">
-        <v>45390.2875</v>
+        <v>45398.09444444445</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="F35" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3256944444444445</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>96596</v>
+        <v>97305</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2">
-        <v>45390.27152777778</v>
+        <v>45398.10416666666</v>
       </c>
       <c r="D36" t="s">
         <v>83</v>
       </c>
       <c r="E36" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="F36" s="3">
-        <v>0.3618055555555555</v>
+        <v>0.3107777777777778</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>96932</v>
+        <v>97356</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2">
-        <v>45390.71111111111</v>
+        <v>45398.72222222222</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E37" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="F37" s="3">
         <v>0.05555555555555555</v>
@@ -1733,39 +1856,39 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>96828</v>
+        <v>96697</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2">
-        <v>45390.15208333333</v>
+        <v>45398.1875</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="F38" s="3">
-        <v>0.3241388888888889</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>97042</v>
+        <v>97498</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2">
-        <v>45390.58333333334</v>
+        <v>45398.65</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="F39" s="3">
         <v>0.05555555555555555</v>
@@ -1773,279 +1896,279 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>97127</v>
+        <v>97131</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2">
-        <v>45390.22291666667</v>
+        <v>45398.17777777778</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="E40" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="F40" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3256944444444445</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>96621</v>
+        <v>97496</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2">
-        <v>45390.22222222222</v>
+        <v>45398.21527777778</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F41" s="3">
-        <v>0.2944444444444445</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>96402</v>
+        <v>97479</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2">
-        <v>45390.69444444445</v>
+        <v>45398.1875</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E42" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="F42" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3166666666666667</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>96950</v>
+        <v>97406</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2">
-        <v>45390.125</v>
+        <v>45398.16666666666</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="F43" s="3">
-        <v>0.31075</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>97019</v>
+        <v>97186</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2">
-        <v>45390.49166666667</v>
+        <v>45398.1875</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E44" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="F44" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.1538055555555556</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>96038</v>
+        <v>97223</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2">
-        <v>45390.33888888889</v>
+        <v>45398.33263888889</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="F45" s="3">
-        <v>0.1444444444444444</v>
+        <v>0.2909722222222222</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>96035</v>
+        <v>97336</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2">
-        <v>45390.19305555556</v>
+        <v>45398.35</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="F46" s="3">
-        <v>0.1444444444444444</v>
+        <v>0.3458333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>97057</v>
+        <v>97250</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2">
-        <v>45390.70347222222</v>
+        <v>45398.14027777778</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="F47" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3138888888888889</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>96824</v>
+        <v>97229</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2">
-        <v>45390.41666666666</v>
+        <v>45398.26388888889</v>
       </c>
       <c r="D48" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E48" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="F48" s="3">
-        <v>0.3847222222222222</v>
+        <v>0.2909722222222222</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>96936</v>
+        <v>97499</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2">
-        <v>45390.39166666667</v>
+        <v>45398.18472222222</v>
       </c>
       <c r="D49" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="F49" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.6326388888888889</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>97081</v>
+        <v>95309</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2">
-        <v>45390.12916666667</v>
+        <v>45398.16666666666</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="F50" s="3">
-        <v>0.1111111111111111</v>
+        <v>0.2216805555555556</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>96729</v>
+        <v>97562</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2">
-        <v>45390.41736111111</v>
+        <v>45398.24305555555</v>
       </c>
       <c r="D51" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="F51" s="3">
-        <v>0.3027777777777778</v>
+        <v>0.6270833333333333</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>97126</v>
+        <v>97231</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2">
-        <v>45390.1</v>
+        <v>45398.4</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E52" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F52" s="3">
-        <v>0.3652777777777778</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>97089</v>
+        <v>97190</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2">
-        <v>45390.525</v>
+        <v>45398.65972222222</v>
       </c>
       <c r="D53" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E53" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="F53" s="3">
         <v>0.05555555555555555</v>
@@ -2053,139 +2176,139 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>96909</v>
+        <v>96665</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2">
-        <v>45390.12152777778</v>
+        <v>45398.16805555556</v>
       </c>
       <c r="D54" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E54" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="F54" s="3">
-        <v>0.3465277777777778</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>96903</v>
+        <v>97097</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2">
-        <v>45390.49722222222</v>
+        <v>45398.10416666666</v>
       </c>
       <c r="D55" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="E55" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="F55" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>97098</v>
+        <v>97493</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C56" s="2">
-        <v>45390.65833333333</v>
+        <v>45398.29166666666</v>
       </c>
       <c r="D56" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E56" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F56" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>96801</v>
+        <v>97191</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="2">
-        <v>45390.54444444444</v>
+        <v>45398.19861111111</v>
       </c>
       <c r="D57" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="F57" s="3">
-        <v>0.2933888888888889</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>96737</v>
+        <v>97289</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C58" s="2">
-        <v>45390.09722222222</v>
+        <v>45398.58402777778</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="F58" s="3">
-        <v>0.3524722222222222</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>96288</v>
+        <v>97235</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C59" s="2">
-        <v>45390.29861111111</v>
+        <v>45398.39861111111</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E59" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="F59" s="3">
-        <v>0.4159722222222222</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>97091</v>
+        <v>97438</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C60" s="2">
-        <v>45390.72361111111</v>
+        <v>45398.36111111111</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E60" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="F60" s="3">
         <v>0.05555555555555555</v>
@@ -2193,39 +2316,39 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>96623</v>
+        <v>97308</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C61" s="2">
-        <v>45390.26388888889</v>
+        <v>45398.16527777778</v>
       </c>
       <c r="D61" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E61" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="F61" s="3">
-        <v>0.2909722222222222</v>
+        <v>0.3458333333333333</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>96988</v>
+        <v>97468</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C62" s="2">
-        <v>45390.19305555556</v>
+        <v>45398.40833333333</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="E62" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="F62" s="3">
         <v>0.05555555555555555</v>
@@ -2233,39 +2356,39 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>97073</v>
+        <v>97418</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C63" s="2">
-        <v>45390.125</v>
+        <v>45398.125</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E63" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="F63" s="3">
-        <v>0.4472222222222222</v>
+        <v>0.2680555555555555</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>96911</v>
+        <v>97398</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C64" s="2">
-        <v>45390.19305555556</v>
+        <v>45398.41111111111</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="E64" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="F64" s="3">
         <v>0.05555555555555555</v>
@@ -2273,19 +2396,19 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>97013</v>
+        <v>97227</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C65" s="2">
-        <v>45390.58194444444</v>
+        <v>45398.68611111111</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E65" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="F65" s="3">
         <v>0.05555555555555555</v>
@@ -2293,139 +2416,139 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>97044</v>
+        <v>97151</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C66" s="2">
-        <v>45390.3125</v>
+        <v>45398.45833333334</v>
       </c>
       <c r="D66" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E66" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="F66" s="3">
-        <v>0.1666666666666667</v>
+        <v>0.3138888888888889</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>96979</v>
+        <v>96666</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C67" s="2">
-        <v>45390.125</v>
+        <v>45398.38055555556</v>
       </c>
       <c r="D67" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="E67" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="F67" s="3">
-        <v>0.3270833333333333</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>96331</v>
+        <v>97290</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C68" s="2">
-        <v>45390.28472222222</v>
+        <v>45398.39652777778</v>
       </c>
       <c r="D68" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E68" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="F68" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3027777777777778</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>96907</v>
+        <v>97474</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C69" s="2">
-        <v>45390.28819444445</v>
+        <v>45398.26736111111</v>
       </c>
       <c r="D69" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E69" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="F69" s="3">
-        <v>0.3465277777777778</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>96949</v>
+        <v>97399</v>
       </c>
       <c r="B70" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C70" s="2">
-        <v>45390.125</v>
+        <v>45398.37777777778</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="E70" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="F70" s="3">
-        <v>0.31075</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>97021</v>
+        <v>96349</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C71" s="2">
-        <v>45390.4125</v>
+        <v>45398.06805555556</v>
       </c>
       <c r="D71" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="E71" t="s">
-        <v>127</v>
+        <v>215</v>
       </c>
       <c r="F71" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2933888888888889</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>97020</v>
+        <v>96667</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C72" s="2">
-        <v>45390.40555555555</v>
+        <v>45398.38472222222</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E72" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="F72" s="3">
         <v>0.05555555555555555</v>
@@ -2433,79 +2556,79 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>97051</v>
+        <v>97328</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C73" s="2">
-        <v>45390.40416666667</v>
+        <v>45398.07638888889</v>
       </c>
       <c r="D73" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E73" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="F73" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3524722222222222</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>96748</v>
+        <v>97501</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C74" s="2">
-        <v>45390.10138888889</v>
+        <v>45398.23611111111</v>
       </c>
       <c r="D74" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E74" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="F74" s="3">
-        <v>0.349</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>97015</v>
+        <v>97230</v>
       </c>
       <c r="B75" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2">
-        <v>45390.12013888889</v>
+        <v>45398.19722222222</v>
       </c>
       <c r="D75" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E75" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="F75" s="3">
-        <v>0.2976805555555556</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>97067</v>
+        <v>97396</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C76" s="2">
-        <v>45390.30277777778</v>
+        <v>45398.56180555555</v>
       </c>
       <c r="D76" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E76" t="s">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="F76" s="3">
         <v>0.05555555555555555</v>
@@ -2513,19 +2636,19 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>96982</v>
+        <v>97241</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2">
-        <v>45390.23402777778</v>
+        <v>45398.66388888889</v>
       </c>
       <c r="D77" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E77" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="F77" s="3">
         <v>0.05555555555555555</v>
@@ -2533,59 +2656,59 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>96908</v>
+        <v>96810</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2">
-        <v>45390.38888888889</v>
+        <v>45398.32222222222</v>
       </c>
       <c r="D78" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="E78" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="F78" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2773611111111111</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>96739</v>
+        <v>97391</v>
       </c>
       <c r="B79" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2">
-        <v>45390.09722222222</v>
+        <v>45398.1875</v>
       </c>
       <c r="D79" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="F79" s="3">
-        <v>0.3524722222222222</v>
+        <v>0.337375</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>97054</v>
+        <v>97331</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C80" s="2">
-        <v>45390.40277777778</v>
+        <v>45398.19722222222</v>
       </c>
       <c r="D80" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E80" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="F80" s="3">
         <v>0.05555555555555555</v>
@@ -2593,59 +2716,59 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>97014</v>
+        <v>97439</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C81" s="2">
-        <v>45390.18819444445</v>
+        <v>45398.40277777778</v>
       </c>
       <c r="D81" t="s">
+        <v>133</v>
+      </c>
+      <c r="E81" t="s">
         <v>120</v>
       </c>
-      <c r="E81" t="s">
-        <v>123</v>
-      </c>
       <c r="F81" s="3">
-        <v>0.1868055555555556</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>96545</v>
+        <v>97303</v>
       </c>
       <c r="B82" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C82" s="2">
-        <v>45390.10347222222</v>
+        <v>45398.38888888889</v>
       </c>
       <c r="D82" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E82" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="F82" s="3">
-        <v>0.2683055555555555</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>96983</v>
+        <v>97390</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C83" s="2">
-        <v>45390.19861111111</v>
+        <v>45398.38194444445</v>
       </c>
       <c r="D83" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E83" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="F83" s="3">
         <v>0.05555555555555555</v>
@@ -2653,39 +2776,39 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>96634</v>
+        <v>97560</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C84" s="2">
-        <v>45390.375</v>
+        <v>45398.33333333334</v>
       </c>
       <c r="D84" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E84" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="F84" s="3">
-        <v>0.4166666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>97018</v>
+        <v>97494</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C85" s="2">
-        <v>45390.26736111111</v>
+        <v>45398.68888888889</v>
       </c>
       <c r="D85" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E85" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="F85" s="3">
         <v>0.05555555555555555</v>
@@ -2693,19 +2816,19 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>96870</v>
+        <v>97503</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C86" s="2">
-        <v>45390.39444444444</v>
+        <v>45398.19027777778</v>
       </c>
       <c r="D86" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E86" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="F86" s="3">
         <v>0.05555555555555555</v>
@@ -2713,62 +2836,382 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>96948</v>
+        <v>97318</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C87" s="2">
-        <v>45390.15208333333</v>
+        <v>45398.48819444444</v>
       </c>
       <c r="D87" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="E87" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="F87" s="3">
-        <v>0.2871388888888889</v>
+        <v>0.3065833333333333</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>96922</v>
+        <v>97242</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="C88" s="2">
-        <v>45390.1875</v>
+        <v>45398.13055555556</v>
       </c>
       <c r="D88" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="E88" t="s">
-        <v>142</v>
+        <v>227</v>
       </c>
       <c r="F88" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3198333333333333</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>96994</v>
+        <v>97317</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C89" s="2">
-        <v>45390.28055555555</v>
+        <v>45398.15277777778</v>
       </c>
       <c r="D89" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="E89" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="F89" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2686527777777777</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>97225</v>
+      </c>
+      <c r="B90" t="s">
+        <v>69</v>
+      </c>
+      <c r="C90" s="2">
+        <v>45398.19722222222</v>
+      </c>
+      <c r="D90" t="s">
+        <v>129</v>
+      </c>
+      <c r="E90" t="s">
+        <v>139</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0.2909722222222222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>97192</v>
+      </c>
+      <c r="B91" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" s="2">
+        <v>45398.53541666667</v>
+      </c>
+      <c r="D91" t="s">
+        <v>142</v>
+      </c>
+      <c r="E91" t="s">
+        <v>229</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>97150</v>
+      </c>
+      <c r="B92" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" s="2">
+        <v>45398.2375</v>
+      </c>
+      <c r="D92" t="s">
+        <v>143</v>
+      </c>
+      <c r="E92" t="s">
+        <v>230</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>97298</v>
+      </c>
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" s="2">
+        <v>45398.28472222222</v>
+      </c>
+      <c r="D93" t="s">
+        <v>144</v>
+      </c>
+      <c r="E93" t="s">
+        <v>231</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>97330</v>
+      </c>
+      <c r="B94" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94" s="2">
+        <v>45398.73055555556</v>
+      </c>
+      <c r="D94" t="s">
+        <v>145</v>
+      </c>
+      <c r="E94" t="s">
+        <v>232</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>96882</v>
+      </c>
+      <c r="B95" t="s">
+        <v>70</v>
+      </c>
+      <c r="C95" s="2">
+        <v>45398.10069444445</v>
+      </c>
+      <c r="D95" t="s">
+        <v>146</v>
+      </c>
+      <c r="E95" t="s">
+        <v>233</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0.2696944444444444</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>97309</v>
+      </c>
+      <c r="B96" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" s="2">
+        <v>45398.39513888889</v>
+      </c>
+      <c r="D96" t="s">
+        <v>147</v>
+      </c>
+      <c r="E96" t="s">
+        <v>234</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>97335</v>
+      </c>
+      <c r="B97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C97" s="2">
+        <v>45398.39166666667</v>
+      </c>
+      <c r="D97" t="s">
+        <v>148</v>
+      </c>
+      <c r="E97" t="s">
+        <v>235</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0.3458333333333333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>97294</v>
+      </c>
+      <c r="B98" t="s">
+        <v>67</v>
+      </c>
+      <c r="C98" s="2">
+        <v>45398.29027777778</v>
+      </c>
+      <c r="D98" t="s">
+        <v>149</v>
+      </c>
+      <c r="E98" t="s">
+        <v>236</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0.5166666666666667</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>97495</v>
+      </c>
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="2">
+        <v>45398.21944444445</v>
+      </c>
+      <c r="D99" t="s">
+        <v>150</v>
+      </c>
+      <c r="E99" t="s">
+        <v>237</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>97293</v>
+      </c>
+      <c r="B100" t="s">
+        <v>39</v>
+      </c>
+      <c r="C100" s="2">
+        <v>45398.125</v>
+      </c>
+      <c r="D100" t="s">
+        <v>78</v>
+      </c>
+      <c r="E100" t="s">
+        <v>238</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0.3701388888888889</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>97497</v>
+      </c>
+      <c r="B101" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" s="2">
+        <v>45398.69722222222</v>
+      </c>
+      <c r="D101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E101" t="s">
+        <v>239</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>97210</v>
+      </c>
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="2">
+        <v>45398.20625</v>
+      </c>
+      <c r="D102" t="s">
+        <v>152</v>
+      </c>
+      <c r="E102" t="s">
+        <v>240</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0.1590277777777778</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>97004</v>
+      </c>
+      <c r="B103" t="s">
+        <v>56</v>
+      </c>
+      <c r="C103" s="2">
+        <v>45398.27152777778</v>
+      </c>
+      <c r="D103" t="s">
+        <v>153</v>
+      </c>
+      <c r="E103" t="s">
+        <v>241</v>
+      </c>
+      <c r="F103" s="3">
+        <v>0.3013888888888889</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>97139</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="2">
+        <v>45398.27083333334</v>
+      </c>
+      <c r="D104" t="s">
+        <v>154</v>
+      </c>
+      <c r="E104" t="s">
+        <v>242</v>
+      </c>
+      <c r="F104" s="3">
+        <v>0.3152777777777778</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>97480</v>
+      </c>
+      <c r="B105" t="s">
+        <v>71</v>
+      </c>
+      <c r="C105" s="2">
+        <v>45398.10416666666</v>
+      </c>
+      <c r="D105" t="s">
+        <v>83</v>
+      </c>
+      <c r="E105" t="s">
+        <v>243</v>
+      </c>
+      <c r="F105" s="3">
+        <v>0.3152777777777778</v>
       </c>
     </row>
   </sheetData>

--- a/static/tmp/planificacion.xlsx
+++ b/static/tmp/planificacion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="313">
   <si>
     <t>id</t>
   </si>
@@ -34,712 +34,925 @@
     <t>start_to_end_time</t>
   </si>
   <si>
+    <t>('DERWINS CORTEZ G', 'ASOCIADO', 1, 1, '26.536.138-2')</t>
+  </si>
+  <si>
+    <t>('JUAN REYES C', 'ASOCIADO', 1, 1, '17.078.880-K')</t>
+  </si>
+  <si>
+    <t>('LUIS PAILLALEF P', 'PORTEADOR', 0, 1, '10.048.208-8')</t>
+  </si>
+  <si>
+    <t>('Rene Vives H', 'PROPIO', 0, 1, '10.813.755-K')</t>
+  </si>
+  <si>
+    <t>('FERNANDO COFRÉ T', 'PROPIO', 0, 1, '15.112.544-1')</t>
+  </si>
+  <si>
+    <t>('ALAN SANTIS', 'ASOCIADO', 1, 1, '15.089.677-0')</t>
+  </si>
+  <si>
+    <t>('JOSE SANCHEZ', 'ASOCIADO', 1, 1, '27.742.628-5')</t>
+  </si>
+  <si>
+    <t>('JUAN VICENCIO N', 'PROPIO', 0, 1, '15.095.552-1')</t>
+  </si>
+  <si>
+    <t>('CLAUDIO NAVARRO', 'ASOCIADO', 1, 1, '15.375.565-5')</t>
+  </si>
+  <si>
+    <t>('CARLOS OSORIO', 'ASOCIADO', 1, 1, '13.368.536-7')</t>
+  </si>
+  <si>
+    <t>('EDUARDO ROMAN O', 'PROPIO', 0, 1, '11.946.072-7')</t>
+  </si>
+  <si>
+    <t>('RAUL VALDIVIA M', 'PROPIO', 0, 1, '15.314.818-K')</t>
+  </si>
+  <si>
+    <t>('EDUARDO MARAMBIO A', 'ASOCIADO', 1, 1, '18.760.890-2')</t>
+  </si>
+  <si>
+    <t>('GABRIEL PARRA C', 'ASOCIADO', 1, 1, '18.759.852-4')</t>
+  </si>
+  <si>
+    <t>('DIEGO NELCASEAU P', 'ASOCIADO', 1, 1, '19.403.588-8')</t>
+  </si>
+  <si>
+    <t>('JOSE MUÑOZ D', 'PROPIO', 0, 1, '12.278.963-2')</t>
+  </si>
+  <si>
+    <t>('YOSMAR PEREZ P', 'PORTEADOR', 0, 1, '11.257.434-4')</t>
+  </si>
+  <si>
+    <t>('FELIPE ROJAS S', 'ASOCIADO', 1, 1, '19.756.747-3')</t>
+  </si>
+  <si>
+    <t>('JOSE REYES', 'ASOCIADO', 1, 1, '14.003.298-0')</t>
+  </si>
+  <si>
+    <t>('MAURICIO MAULEN', 'ASOCIADO', 1, 1, '11.275.919-0')</t>
+  </si>
+  <si>
+    <t>('CARLOS FABIO V', 'PROPIO', 0, 1, '16.291.210-0')</t>
+  </si>
+  <si>
+    <t>('OWEN AGUILAR G', 'ASOCIADO', 1, 1, '15.873.472-9')</t>
+  </si>
+  <si>
+    <t>('FELIPE RIVAS D', 'PROPIO', 0, 1, '16.517.262-0')</t>
+  </si>
+  <si>
+    <t>('AURELIO ARÉVALO G', 'ASOCIADO', 1, 1, '13.196.601-6')</t>
+  </si>
+  <si>
+    <t>('IVAN PARRA C', 'ASOCIADO', 1, 1, '19.143.325-4')</t>
+  </si>
+  <si>
+    <t>('JUAN BERNACHEA', 'ASOCIADO', 1, 1, '7.741.876-8')</t>
+  </si>
+  <si>
+    <t>('RODRIGO  I', 'PROPIO', 0, 1, '10.355.521-3')</t>
+  </si>
+  <si>
+    <t>('CRISTIAN REAL M', 'PORTEADOR', 0, 1, '16.642.093-8')</t>
+  </si>
+  <si>
+    <t>('Nelson Gallardo R', 'PROPIO', 0, 1, '11.388.715-K')</t>
+  </si>
+  <si>
+    <t>('ANGEL CARREÑO', 'ASOCIADO', 1, 1, '14.003.333-2')</t>
+  </si>
+  <si>
+    <t>('ADOLFO CORVALAN P', 'PROPIO', 0, 1, '19.758.425-4')</t>
+  </si>
+  <si>
+    <t>('FRANCISCO GODOY M', 'ASOCIADO', 1, 1, '15.077.191-9')</t>
+  </si>
+  <si>
+    <t>('DANILO ARMIJO C', 'PROPIO', 0, 1, '14.274.986-6')</t>
+  </si>
+  <si>
+    <t>('Leonardo Leiva C', 'PROPIO', 0, 1, '16.166.731-5')</t>
+  </si>
+  <si>
+    <t>('Pablo Tudela M', 'PROPIO', 0, 1, '15.893.630-5')</t>
+  </si>
+  <si>
+    <t>('JAVIER GODOY B', 'ASOCIADO', 1, 1, '13.714.279-1')</t>
+  </si>
+  <si>
+    <t>('CRISTIAN MUÑOZ S', 'ASOCIADO', 1, 1, '13.196.333-5')</t>
+  </si>
+  <si>
+    <t>('RODRIGO RIQUELME N', 'ASOCIADO', 1, 1, '13.767.617-6')</t>
+  </si>
+  <si>
+    <t>('PATRICIO PARDO V', 'PORTEADOR', 0, 1, '13.546.027-3')</t>
+  </si>
+  <si>
+    <t>('JOSE SANTIS S', 'PROPIO', 0, 1, '15.872.022-1')</t>
+  </si>
+  <si>
+    <t>('SERGIO VEGA V', 'PROPIO', 0, 1, '18.122.272-7')</t>
+  </si>
+  <si>
+    <t>('FLAVIO PACHECO P', 'PROPIO', 0, 1, '27.918.005-4')</t>
+  </si>
+  <si>
+    <t>('MAURICIO RIVAS R', 'ASOCIADO', 1, 1, '18.448.238-K')</t>
+  </si>
+  <si>
     <t>('CARLOS AREVALO M', 'PROPIO', 0, 1, '17.149.048-0')</t>
   </si>
   <si>
-    <t>('ALAN SANTIS', 'ASOCIADO', 1, 1, '15.089.677-0')</t>
-  </si>
-  <si>
-    <t>('AURELIO ARÉVALO G', 'ASOCIADO', 1, 1, '13.196.601-6')</t>
+    <t>('RICARDO GONZALEZ L', 'ASOCIADO', 1, 1, '7.614.149-5')</t>
+  </si>
+  <si>
+    <t>('PATRICIO CARREÑO B', 'PROPIO', 0, 1, '15.348.250-0')</t>
+  </si>
+  <si>
+    <t>('DANIEL  L', 'ASOCIADO', 1, 1, '15.873.188-6')</t>
+  </si>
+  <si>
+    <t>('OSWALDO ESCALONA A', 'PORTEADOR', 0, 1, '27.643.631-7')</t>
+  </si>
+  <si>
+    <t>('LUIS OLIVA M', 'ASOCIADO', 1, 1, '19.383.425-6')</t>
+  </si>
+  <si>
+    <t>('MAURICIO URBINA S', 'PROPIO', 0, 1, '11.630.504-6')</t>
+  </si>
+  <si>
+    <t>('LEONARDO MIRANDA B', 'ASOCIADO', 1, 1, '13.547.264-6')</t>
+  </si>
+  <si>
+    <t>('DANIEL BEJARANO H', 'PROPIO', 0, 1, '27.886.201-1')</t>
+  </si>
+  <si>
+    <t>('MANUEL VIDAL L', 'ASOCIADO', 1, 1, '16.311.233-7')</t>
+  </si>
+  <si>
+    <t>('SAMUEL FAUNDEZ J', 'ASOCIADO', 1, 1, '16.265.186-2')</t>
+  </si>
+  <si>
+    <t>('MARCO CATALDO C', 'ASOCIADO', 1, 1, '16.777.267-6')</t>
+  </si>
+  <si>
+    <t>('LUIS REYES P', 'ASOCIADO', 1, 1, '8.298.532-8')</t>
+  </si>
+  <si>
+    <t>('JORGE ALFARO H', 'ASOCIADO', 1, 1, '16.758.352-0')</t>
+  </si>
+  <si>
+    <t>('MARCO BERNACHEA A', 'ASOCIADO', 1, 1, '13.665.862-K')</t>
   </si>
   <si>
     <t>('NATALY GONZALEZ M', 'ASOCIADO', 1, 1, '17.444.914-7')</t>
   </si>
   <si>
-    <t>('FRANCISCO GODOY M', 'ASOCIADO', 1, 1, '15.077.191-9')</t>
+    <t>('Francisco Paredes A', 'PROPIO', 0, 1, '13.837.221-9')</t>
+  </si>
+  <si>
+    <t>('JHONNY SEPULVEDA', 'ASOCIADO', 1, 1, '16.130.818-8')</t>
+  </si>
+  <si>
+    <t>('JOSE CABELLO S', 'ASOCIADO', 1, 1, '17.816.963-7')</t>
+  </si>
+  <si>
+    <t>('ANDY BETANCOURT H', 'PROPIO', 0, 1, '16.300.244-2')</t>
+  </si>
+  <si>
+    <t>('ANGEL FLORES H', 'ASOCIADO', 1, 1, '16.668.125-1')</t>
+  </si>
+  <si>
+    <t>('CRISTIAN LLANCA P', 'ASOCIADO', 1, 1, '19.143.316-5')</t>
+  </si>
+  <si>
+    <t>('FRANCISCO GARCIA D', 'PROPIO', 0, 1, '18.228.515-3')</t>
+  </si>
+  <si>
+    <t>('Luis Arevalo M', 'ASOCIADO', 1, 1, '16.529.122-0')</t>
   </si>
   <si>
     <t>('Luis Olea V', 'PROPIO', 0, 1, '16.491.628-6')</t>
   </si>
   <si>
-    <t>('JOSE REYES', 'ASOCIADO', 1, 1, '14.003.298-0')</t>
-  </si>
-  <si>
-    <t>('MARCO CATALDO C', 'ASOCIADO', 1, 1, '16.777.267-6')</t>
-  </si>
-  <si>
-    <t>('CRISTIAN LLANCA P', 'ASOCIADO', 1, 1, '19.143.316-5')</t>
-  </si>
-  <si>
-    <t>('SERGIO VEGA V', 'PROPIO', 0, 1, '18.122.272-7')</t>
-  </si>
-  <si>
-    <t>('MANUEL VIDAL L', 'ASOCIADO', 1, 1, '16.311.233-7')</t>
-  </si>
-  <si>
-    <t>('EDUARDO MARAMBIO A', 'ASOCIADO', 1, 1, '18.760.890-2')</t>
-  </si>
-  <si>
-    <t>('Luis Arevalo M', 'ASOCIADO', 1, 1, '16.529.122-0')</t>
-  </si>
-  <si>
-    <t>('JUAN REYES C', 'ASOCIADO', 1, 1, '17.078.880-K')</t>
-  </si>
-  <si>
-    <t>('JOSE MUÑOZ D', 'PROPIO', 0, 1, '12.278.963-2')</t>
-  </si>
-  <si>
-    <t>('FERNANDO COFRÉ T', 'PROPIO', 0, 1, '15.112.544-1')</t>
-  </si>
-  <si>
-    <t>('LEONARDO MIRANDA B', 'ASOCIADO', 1, 1, '13.547.264-6')</t>
-  </si>
-  <si>
-    <t>('DOMINGO LLANOS', 'ASOCIADO', 1, 1, '10.767.591-4')</t>
+    <t>('CAMILO PLAZA G', 'ASOCIADO', 1, 1, '15.401.957-K')</t>
   </si>
   <si>
     <t>('FRANCISCO VIDAL L', 'ASOCIADO', 1, 1, '19.403.547-0')</t>
   </si>
   <si>
-    <t>('CARLOS FABIO V', 'PROPIO', 0, 1, '16.291.210-0')</t>
-  </si>
-  <si>
-    <t>('Nelson Gallardo R', 'PROPIO', 0, 1, '11.388.715-K')</t>
-  </si>
-  <si>
-    <t>('ANGEL FLORES H', 'ASOCIADO', 1, 1, '16.668.125-1')</t>
-  </si>
-  <si>
-    <t>('Pablo Tudela M', 'PROPIO', 0, 1, '15.893.630-5')</t>
-  </si>
-  <si>
-    <t>('JOSE SANTIS S', 'PROPIO', 0, 1, '15.872.022-1')</t>
-  </si>
-  <si>
-    <t>('DIEGO NELCASEAU P', 'ASOCIADO', 1, 1, '19.403.588-8')</t>
-  </si>
-  <si>
-    <t>('RICARDO GONZALEZ L', 'ASOCIADO', 1, 1, '7.614.149-5')</t>
-  </si>
-  <si>
-    <t>('JUAN VICENCIO N', 'PROPIO', 0, 1, '15.095.552-1')</t>
-  </si>
-  <si>
-    <t>('RODRIGO  I', 'PROPIO', 0, 1, '10.355.521-3')</t>
-  </si>
-  <si>
-    <t>('CLAUDIO NAVARRO', 'ASOCIADO', 1, 1, '15.375.565-5')</t>
-  </si>
-  <si>
-    <t>('CARLOS OSORIO', 'ASOCIADO', 1, 1, '13.368.536-7')</t>
-  </si>
-  <si>
-    <t>('MAURICIO URBINA S', 'PROPIO', 0, 1, '11.630.504-6')</t>
-  </si>
-  <si>
-    <t>('JAVIER GODOY B', 'ASOCIADO', 1, 1, '13.714.279-1')</t>
-  </si>
-  <si>
-    <t>('Rene Vives H', 'PROPIO', 0, 1, '10.813.755-K')</t>
-  </si>
-  <si>
-    <t>('FELIPE ROJAS S', 'ASOCIADO', 1, 1, '19.756.747-3')</t>
-  </si>
-  <si>
-    <t>('FELIPE RIVAS D', 'PROPIO', 0, 1, '16.517.262-0')</t>
-  </si>
-  <si>
-    <t>('JOSE SANCHEZ', 'ASOCIADO', 1, 1, '27.742.628-5')</t>
-  </si>
-  <si>
-    <t>('ANDY BETANCOURT H', 'PROPIO', 0, 1, '16.300.244-2')</t>
-  </si>
-  <si>
-    <t>('PATRICIO CARREÑO B', 'PROPIO', 0, 1, '15.348.250-0')</t>
-  </si>
-  <si>
-    <t>('RAUL VALDIVIA M', 'PROPIO', 0, 1, '15.314.818-K')</t>
-  </si>
-  <si>
-    <t>('FRANCISCO GARCIA D', 'PROPIO', 0, 1, '18.228.515-3')</t>
-  </si>
-  <si>
-    <t>('RODRIGO RIQUELME N', 'ASOCIADO', 1, 1, '13.767.617-6')</t>
-  </si>
-  <si>
-    <t>('Francisco Paredes A', 'PROPIO', 0, 1, '13.837.221-9')</t>
-  </si>
-  <si>
-    <t>('ADOLFO CORVALAN P', 'PROPIO', 0, 1, '19.758.425-4')</t>
-  </si>
-  <si>
-    <t>('MAURICIO MAULEN', 'ASOCIADO', 1, 1, '11.275.919-0')</t>
-  </si>
-  <si>
-    <t>('JORGE ALFARO H', 'ASOCIADO', 1, 1, '16.758.352-0')</t>
-  </si>
-  <si>
-    <t>('CRISTIAN MUÑOZ S', 'ASOCIADO', 1, 1, '13.196.333-5')</t>
-  </si>
-  <si>
-    <t>('IVAN PARRA C', 'ASOCIADO', 1, 1, '19.143.325-4')</t>
-  </si>
-  <si>
-    <t>('MARCO BERNACHEA A', 'ASOCIADO', 1, 1, '13.665.862-K')</t>
-  </si>
-  <si>
-    <t>('FLAVIO PACHECO P', 'PROPIO', 0, 1, '27.918.005-4')</t>
-  </si>
-  <si>
-    <t>('Leonardo Leiva C', 'PROPIO', 0, 1, '16.166.731-5')</t>
-  </si>
-  <si>
-    <t>('OWEN AGUILAR G', 'ASOCIADO', 1, 1, '15.873.472-9')</t>
-  </si>
-  <si>
-    <t>('DANIEL  L', 'ASOCIADO', 1, 1, '15.873.188-6')</t>
-  </si>
-  <si>
-    <t>('CAMILO PLAZA G', 'ASOCIADO', 1, 1, '15.401.957-K')</t>
-  </si>
-  <si>
-    <t>('JOSE CABELLO S', 'ASOCIADO', 1, 1, '17.816.963-7')</t>
-  </si>
-  <si>
-    <t>('LUIS VERA M', 'ASOCIADO', 1, 1, '17.991.239-2')</t>
-  </si>
-  <si>
-    <t>('GABRIEL PARRA C', 'ASOCIADO', 1, 1, '18.759.852-4')</t>
-  </si>
-  <si>
-    <t>('LUIS OLIVA M', 'ASOCIADO', 1, 1, '19.383.425-6')</t>
-  </si>
-  <si>
-    <t>('RONNY CORONADO T', 'PROPIO', 0, 1, '12.250.331-3')</t>
-  </si>
-  <si>
-    <t>('ANGEL CARREÑO', 'ASOCIADO', 1, 1, '14.003.333-2')</t>
-  </si>
-  <si>
-    <t>('EDUARDO ROMAN O', 'PROPIO', 0, 1, '11.946.072-7')</t>
-  </si>
-  <si>
-    <t>('DANIEL BEJARANO H', 'PROPIO', 0, 1, '27.886.201-1')</t>
-  </si>
-  <si>
-    <t>('MAURICIO RIVAS R', 'ASOCIADO', 1, 1, '18.448.238-K')</t>
-  </si>
-  <si>
-    <t>2024-06-03 04:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 04:26:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 07:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 09:58:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 07:55:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 13:10:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 03:55:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 09:16:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 10:43:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 11:34:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 05:55:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 02:39:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 16:56:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 03:16:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 12:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 11:38:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 05:24:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 09:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 05:34:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 05:25:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 13:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 10:19:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 11:36:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 08:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 09:25:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 14:04:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 05:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 12:38:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 06:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 13:38:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 12:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 03:11:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 05:43:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 03:20:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 04:10:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 06:16:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 10:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 10:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 02:43:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 06:58:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 11:43:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 02:55:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 02:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 03:31:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 05:28:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 04:06:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 13:06:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 03:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 11:20:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 06:43:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 09:06:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 03:08:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 09:13:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 02:25:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 05:40:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 06:31:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 03:39:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 03:40:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 12:27:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 03:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 04:20:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 05:39:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 09:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 04:13:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 13:26:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 06:08:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 05:50:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 06:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 14:10:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 09:24:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 09:42:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 11:44:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 09:44:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 02:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 05:16:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 02:26:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 05:12:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 09:18:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 03:43:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 09:02:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 17:16:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 06:50:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 14:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 13:54:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 15:50:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 09:26:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 12:56:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 11:30:31</t>
-  </si>
-  <si>
-    <t>2024-06-03 05:46:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 14:59:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 16:09:33</t>
-  </si>
-  <si>
-    <t>2024-06-03 14:20:21</t>
-  </si>
-  <si>
-    <t>2024-06-03 15:56:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 14:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 10:20:21</t>
-  </si>
-  <si>
-    <t>2024-06-03 15:35:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 16:54:33</t>
-  </si>
-  <si>
-    <t>2024-06-03 12:54:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 13:56:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 09:25:28</t>
-  </si>
-  <si>
-    <t>2024-06-03 18:16:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 09:35:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 20:56:55</t>
-  </si>
-  <si>
-    <t>2024-06-03 12:58:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 06:44:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 17:05:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 06:54:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 11:50:21</t>
-  </si>
-  <si>
-    <t>2024-06-03 23:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 13:19:04</t>
-  </si>
-  <si>
-    <t>2024-06-03 15:52:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 15:50:21</t>
-  </si>
-  <si>
-    <t>2024-06-03 15:24:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 12:44:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 13:58:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 11:33:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 15:13:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 14:58:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 13:20:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 05:54:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 11:54:33</t>
-  </si>
-  <si>
-    <t>2024-06-03 10:40:51</t>
-  </si>
-  <si>
-    <t>2024-06-03 12:35:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 17:11:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 08:54:33</t>
-  </si>
-  <si>
-    <t>2024-06-03 13:09:33</t>
-  </si>
-  <si>
-    <t>2024-06-03 18:06:06</t>
-  </si>
-  <si>
-    <t>2024-06-03 10:56:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 10:40:07</t>
-  </si>
-  <si>
-    <t>2024-06-03 06:48:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 16:05:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 05:26:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 14:26:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 09:20:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 12:40:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 08:03:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 10:26:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 05:48:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 15:24:33</t>
-  </si>
-  <si>
-    <t>2024-06-03 08:50:21</t>
-  </si>
-  <si>
-    <t>2024-06-03 13:51:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 07:35:28</t>
-  </si>
-  <si>
-    <t>2024-06-03 10:08:51</t>
-  </si>
-  <si>
-    <t>2024-06-03 20:40:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 12:42:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 09:35:28</t>
-  </si>
-  <si>
-    <t>2024-06-03 10:50:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 10:24:33</t>
-  </si>
-  <si>
-    <t>2024-06-03 10:30:31</t>
-  </si>
-  <si>
-    <t>2024-06-03 14:46:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 08:48:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 07:10:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 16:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 15:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 10:44:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 11:02:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 13:04:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 17:01:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 12:25:15</t>
-  </si>
-  <si>
-    <t>2024-06-03 13:50:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 11:59:28</t>
-  </si>
-  <si>
-    <t>2024-06-03 10:41:33</t>
-  </si>
-  <si>
-    <t>2024-06-03 15:14:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 11:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 06:32:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 10:38:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 09:47:50</t>
-  </si>
-  <si>
-    <t>2024-06-03 10:22:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 18:36:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 08:10:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 15:20:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 17:10:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 10:46:00</t>
-  </si>
-  <si>
-    <t>2024-06-03 14:16:00</t>
+    <t>2024-06-05 13:56:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 08:53:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 04:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 09:32:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 03:27:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 05:20:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 05:05:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 11:25:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 04:04:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:42:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 03:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 08:12:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 06:08:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 03:54:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 02:39:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 07:16:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 06:37:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 08:22:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 09:24:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 05:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 09:20:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 01:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 05:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 06:26:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 04:59:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:08:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 06:51:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 06:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 11:55:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 05:52:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:38:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:49:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 00:03:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:44:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 06:22:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 17:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 14:12:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 06:12:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 09:22:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 08:51:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 06:44:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 06:28:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:37:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 11:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 06:04:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:47:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 06:40:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 09:28:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 05:39:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:12:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 09:58:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:41:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:42:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 06:34:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 07:01:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 03:46:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 09:14:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 08:39:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 03:58:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 02:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 05:46:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 09:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:32:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 05:29:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:05:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 04:13:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:47:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 03:59:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:20:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 05:59:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 06:46:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 06:58:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 00:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 06:13:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 02:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 02:43:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 04:26:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 09:08:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:36:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 09:18:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 03:39:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 09:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 05:58:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 16:06:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:43:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 03:16:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 05:16:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 03:06:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 07:25:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 03:41:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 09:13:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 04:48:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 08:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 05:08:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 05:32:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 03:43:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 02:20:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:50:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 11:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 09:19:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 02:59:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 04:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 07:27:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 09:46:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 03:28:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 05:56:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:24:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 09:10:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 08:54:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 15:16:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:13:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 05:50:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:52:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 06:25:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:45:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 05:24:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 21:14:01</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:48:14</t>
+  </si>
+  <si>
+    <t>2024-06-05 07:28:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 19:24:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 05:14:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 06:35:28</t>
+  </si>
+  <si>
+    <t>2024-06-05 08:36:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 00:17:25</t>
+  </si>
+  <si>
+    <t>2024-06-05 07:57:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 09:42:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:44:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:22:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:40:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 09:40:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 14:50:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 06:20:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 07:46:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 11:58:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:11:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 14:28:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 08:11:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:48:14</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:15:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 07:12:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 14:38:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 17:53:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 01:23:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 19:14:51</t>
+  </si>
+  <si>
+    <t>2024-06-05 21:31:57</t>
+  </si>
+  <si>
+    <t>2024-06-05 07:42:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 18:50:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 15:32:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 07:32:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:42:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:11:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 08:04:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 07:48:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 22:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 19:06:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 07:24:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 20:41:43</t>
+  </si>
+  <si>
+    <t>2024-06-05 08:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:48:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:30:28</t>
+  </si>
+  <si>
+    <t>2024-06-05 19:43:33</t>
+  </si>
+  <si>
+    <t>2024-06-05 11:18:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 08:52:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 18:51:21</t>
+  </si>
+  <si>
+    <t>2024-06-05 14:02:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 07:54:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:45:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 07:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 16:09:33</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:34:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 09:59:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 05:18:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:41:19</t>
+  </si>
+  <si>
+    <t>2024-06-05 07:06:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 17:04:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 14:52:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 06:49:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:25:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 20:31:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 05:33:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:58:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 14:40:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:58:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 08:06:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:09:33</t>
+  </si>
+  <si>
+    <t>2024-06-05 08:30:03</t>
+  </si>
+  <si>
+    <t>2024-06-05 11:46:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:24:33</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:25:21</t>
+  </si>
+  <si>
+    <t>2024-06-05 08:54:33</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:28:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 18:33:33</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:38:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:30:28</t>
+  </si>
+  <si>
+    <t>2024-06-05 17:36:07</t>
+  </si>
+  <si>
+    <t>2024-06-05 07:18:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 17:26:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:46:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:55:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 16:54:33</t>
+  </si>
+  <si>
+    <t>2024-06-05 07:35:28</t>
+  </si>
+  <si>
+    <t>2024-06-05 11:57:28</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 06:50:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 06:36:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 11:11:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 15:26:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:24:33</t>
+  </si>
+  <si>
+    <t>2024-06-05 15:24:33</t>
+  </si>
+  <si>
+    <t>2024-06-05 18:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 06:52:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:29:28</t>
+  </si>
+  <si>
+    <t>2024-06-05 09:47:50</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:47:33</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:55:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 15:10:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 21:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:39:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 11:48:14</t>
+  </si>
+  <si>
+    <t>2024-06-05 15:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:50:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 11:06:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 09:39:33</t>
+  </si>
+  <si>
+    <t>2024-06-05 07:40:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:48:14</t>
+  </si>
+  <si>
+    <t>2024-06-05 14:44:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 08:18:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 17:31:33</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:14:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 19:40:18</t>
+  </si>
+  <si>
+    <t>2024-06-05 21:54:33</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:50:00</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1315,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1130,39 +1343,39 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>100065</v>
+        <v>100660</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2">
-        <v>45446.16666666666</v>
+        <v>45448.58055555556</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="F2" s="3">
-        <v>0.3128611111111111</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>100734</v>
+        <v>100642</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>45446.18472222222</v>
+        <v>45448.37013888889</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="F3" s="3">
         <v>0.05555555555555555</v>
@@ -1170,99 +1383,99 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>100138</v>
+        <v>100663</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>45446.29166666666</v>
+        <v>45448.1875</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="F4" s="3">
-        <v>0.3326388888888889</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>99703</v>
+        <v>100805</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>45446.41527777778</v>
+        <v>45448.39722222222</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2580277777777777</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>99749</v>
+        <v>99965</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>45446.32986111111</v>
+        <v>45448.14375</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F6" s="3">
-        <v>0.2676111111111111</v>
+        <v>0.2368055555555555</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>100007</v>
+        <v>100682</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>45446.32986111111</v>
+        <v>45448.22222222222</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="F7" s="3">
-        <v>0.3340277777777778</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>100428</v>
+        <v>100667</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2">
-        <v>45446.54861111111</v>
+        <v>45448.21180555555</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="F8" s="3">
         <v>0.05555555555555555</v>
@@ -1270,139 +1483,139 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>99743</v>
+        <v>100364</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="2">
-        <v>45446.16319444445</v>
+        <v>45448.47569444445</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="F9" s="3">
-        <v>0.2676111111111111</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>100245</v>
+        <v>100681</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2">
-        <v>45446.38611111111</v>
+        <v>45448.16944444444</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="F10" s="3">
-        <v>0.2631944444444445</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>99707</v>
+        <v>100673</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2">
-        <v>45446.44652777778</v>
+        <v>45448.39722222222</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="F11" s="3">
-        <v>0.2580277777777777</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>100513</v>
+        <v>100444</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>45446.48194444444</v>
+        <v>45448.57083333333</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="F12" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3139027777777778</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>99816</v>
+        <v>99087</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2">
-        <v>45446.24652777778</v>
+        <v>45448.125</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="F13" s="3">
-        <v>0.3340277777777778</v>
+        <v>0.3251666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>99663</v>
+        <v>100680</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2">
-        <v>45446.11041666667</v>
+        <v>45448.34166666667</v>
       </c>
       <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" t="s">
         <v>79</v>
       </c>
-      <c r="E14" t="s">
-        <v>167</v>
-      </c>
       <c r="F14" s="3">
-        <v>0.2822777777777778</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>100406</v>
+        <v>100706</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2">
-        <v>45446.70555555556</v>
+        <v>45448.25555555556</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="F15" s="3">
         <v>0.05555555555555555</v>
@@ -1410,99 +1623,99 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>100240</v>
+        <v>99854</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2">
-        <v>45446.13611111111</v>
+        <v>45448.54166666666</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="F16" s="3">
-        <v>0.2631944444444445</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>100033</v>
+        <v>100768</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2">
-        <v>45446.52083333334</v>
+        <v>45448.21180555555</v>
       </c>
       <c r="D17" t="s">
         <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="F17" s="3">
-        <v>0.3520277777777778</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>100226</v>
+        <v>100614</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2">
-        <v>45446.13611111111</v>
+        <v>45448.1625</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="F18" s="3">
-        <v>0.2631944444444445</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>100409</v>
+        <v>100327</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2">
-        <v>45446.48472222222</v>
+        <v>45448.11041666667</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="F19" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.1642222222222222</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>100262</v>
+        <v>100604</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>45446.225</v>
+        <v>45448.30277777778</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="F20" s="3">
         <v>0.05555555555555555</v>
@@ -1510,39 +1723,39 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>99920</v>
+        <v>100479</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2">
-        <v>45446.375</v>
+        <v>45448.54166666666</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="F21" s="3">
-        <v>0.3368055555555556</v>
+        <v>0.4704305555555555</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>100276</v>
+        <v>100766</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2">
-        <v>45446.23194444444</v>
+        <v>45448.27569444444</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="F22" s="3">
         <v>0.05555555555555555</v>
@@ -1550,79 +1763,79 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>99747</v>
+        <v>100653</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2">
-        <v>45446.22569444445</v>
+        <v>45448.34861111111</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="F23" s="3">
-        <v>0.2676111111111111</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>100078</v>
+        <v>100738</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2">
-        <v>45446.54166666666</v>
+        <v>45448.39166666667</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="F24" s="3">
-        <v>0.4166666666666667</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>100087</v>
+        <v>100496</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2">
-        <v>45446.42986111111</v>
+        <v>45448.22916666666</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="F25" s="3">
-        <v>0.1250555555555556</v>
+        <v>0.3277777777777778</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>100456</v>
+        <v>100341</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="2">
-        <v>45446.48333333333</v>
+        <v>45448.38888888889</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="F26" s="3">
         <v>0.05555555555555555</v>
@@ -1630,59 +1843,59 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>99548</v>
+        <v>99751</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="2">
-        <v>45446.33333333334</v>
+        <v>45448.04166666666</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="F27" s="3">
-        <v>0.3277777777777778</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>99742</v>
+        <v>100672</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="2">
-        <v>45446.39236111111</v>
+        <v>45448.5625</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="F28" s="3">
-        <v>0.2676111111111111</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>100128</v>
+        <v>100690</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C29" s="2">
-        <v>45446.58611111111</v>
+        <v>45448.20833333334</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="F29" s="3">
         <v>0.05555555555555555</v>
@@ -1690,99 +1903,99 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>99379</v>
+        <v>100794</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" s="2">
-        <v>45446.20833333334</v>
+        <v>45448.26805555556</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="F30" s="3">
-        <v>0.3222222222222222</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>100438</v>
+        <v>100263</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" s="2">
-        <v>45446.52638888889</v>
+        <v>45448.20763888889</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="F31" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2909722222222222</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>100125</v>
+        <v>100379</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="2">
-        <v>45446.13611111111</v>
+        <v>45448.125</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="F32" s="3">
-        <v>0.3451388888888889</v>
+        <v>0.3826388888888889</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>100063</v>
+        <v>100736</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C33" s="2">
-        <v>45446.25</v>
+        <v>45448.54722222222</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E33" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="F33" s="3">
-        <v>0.3840277777777778</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>100449</v>
+        <v>100689</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2">
-        <v>45446.56805555556</v>
+        <v>45448.28541666667</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="F34" s="3">
         <v>0.05555555555555555</v>
@@ -1790,419 +2003,419 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>100360</v>
+        <v>97713</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2">
-        <v>45446.5</v>
+        <v>45448.25</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F35" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3251666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>99780</v>
+        <v>100801</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="2">
-        <v>45446.13263888889</v>
+        <v>45448.49652777778</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="F36" s="3">
-        <v>0.1131944444444444</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>99137</v>
+        <v>100616</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C37" s="2">
-        <v>45446.23819444444</v>
+        <v>45448.24444444444</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="F37" s="3">
-        <v>0.2580277777777777</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>100243</v>
+        <v>100782</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C38" s="2">
-        <v>45446.13888888889</v>
+        <v>45448.52638888889</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="F38" s="3">
-        <v>0.5104166666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>99912</v>
+        <v>99944</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2">
-        <v>45446.17361111111</v>
+        <v>45448.45069444444</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="F39" s="3">
-        <v>0.2714305555555556</v>
+        <v>0.2944444444444445</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>100238</v>
+        <v>100640</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2">
-        <v>45446.26111111111</v>
+        <v>45448.00208333333</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="F40" s="3">
-        <v>0.2631944444444445</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>99985</v>
+        <v>99997</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C41" s="2">
-        <v>45446.41666666666</v>
+        <v>45448.53055555555</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="F41" s="3">
-        <v>0.2993055555555555</v>
+        <v>0.2714305555555556</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>100602</v>
+        <v>100074</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2">
-        <v>45446.4375</v>
+        <v>45448.52083333334</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
-        <v>73</v>
+        <v>225</v>
       </c>
       <c r="F42" s="3">
-        <v>0.1111111111111111</v>
+        <v>0.3763611111111111</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>100237</v>
+        <v>100773</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C43" s="2">
-        <v>45446.26111111111</v>
+        <v>45448.26527777778</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="F43" s="3">
-        <v>0.2631944444444445</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>99694</v>
+        <v>100362</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2">
-        <v>45446.11319444444</v>
+        <v>45448.72916666666</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="F44" s="3">
-        <v>0.2580277777777777</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>100244</v>
+        <v>100590</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2">
-        <v>45446.38611111111</v>
+        <v>45448.59166666667</v>
       </c>
       <c r="D45" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="F45" s="3">
-        <v>0.2631944444444445</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>99708</v>
+        <v>100661</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2">
-        <v>45446.29027777778</v>
+        <v>45448.25833333333</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="F46" s="3">
-        <v>0.2580277777777777</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>100468</v>
+        <v>100631</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2">
-        <v>45446.48819444444</v>
+        <v>45448.39027777778</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E47" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="F47" s="3">
-        <v>0.2660416666666667</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>99417</v>
+        <v>100778</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C48" s="2">
-        <v>45446.13611111111</v>
+        <v>45448.36875</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>231</v>
       </c>
       <c r="F48" s="3">
-        <v>0.3013888888888889</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>100008</v>
+        <v>100669</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2">
-        <v>45446.12152777778</v>
+        <v>45448.28055555555</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E49" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="F49" s="3">
-        <v>0.3340277777777778</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>100547</v>
+        <v>100611</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C50" s="2">
-        <v>45446.10416666666</v>
+        <v>45448.26944444444</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E50" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="F50" s="3">
-        <v>0.3403611111111111</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>99938</v>
+        <v>100465</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C51" s="2">
-        <v>45446.14652777778</v>
+        <v>45448.52569444444</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E51" t="s">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="F51" s="3">
-        <v>0.2395833333333333</v>
+        <v>0.3909722222222222</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>100371</v>
+        <v>99973</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C52" s="2">
-        <v>45446.22777777778</v>
+        <v>45448.45833333334</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E52" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="F52" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3375</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>99971</v>
+        <v>100540</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" s="2">
-        <v>45446.33333333334</v>
+        <v>45448.25277777778</v>
       </c>
       <c r="D53" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="E53" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="F53" s="3">
-        <v>0.3368055555555556</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>100503</v>
+        <v>100421</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C54" s="2">
-        <v>45446.17083333333</v>
+        <v>45448.53263888889</v>
       </c>
       <c r="D54" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E54" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="F54" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3296666666666667</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>100368</v>
+        <v>100796</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C55" s="2">
-        <v>45446.54583333333</v>
+        <v>45448.27777777778</v>
       </c>
       <c r="D55" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E55" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="F55" s="3">
         <v>0.05555555555555555</v>
@@ -2210,79 +2423,79 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>99473</v>
+        <v>100821</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C56" s="2">
-        <v>45446.125</v>
+        <v>45448.39444444444</v>
       </c>
       <c r="D56" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E56" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="F56" s="3">
-        <v>0.2638888888888889</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>100401</v>
+        <v>100331</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C57" s="2">
-        <v>45446.47222222222</v>
+        <v>45448.23541666667</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E57" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="F57" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.28575</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>99817</v>
+        <v>100043</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="2">
-        <v>45446.24652777778</v>
+        <v>45448.50833333333</v>
       </c>
       <c r="D58" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="E58" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="F58" s="3">
-        <v>0.3340277777777778</v>
+        <v>0.3135833333333333</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>100437</v>
+        <v>100684</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="2">
-        <v>45446.27986111111</v>
+        <v>45448.41527777778</v>
       </c>
       <c r="D59" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E59" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="F59" s="3">
         <v>0.05555555555555555</v>
@@ -2290,159 +2503,159 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>100012</v>
+        <v>100530</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C60" s="2">
-        <v>45446.12152777778</v>
+        <v>45448.04166666666</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E60" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="F60" s="3">
-        <v>0.3340277777777778</v>
+        <v>0.3277777777777778</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>100500</v>
+        <v>100442</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C61" s="2">
-        <v>45446.37916666667</v>
+        <v>45448.44513888889</v>
       </c>
       <c r="D61" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E61" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="F61" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3405277777777778</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>100603</v>
+        <v>100553</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C62" s="2">
-        <v>45446.13055555556</v>
+        <v>45448.52916666667</v>
       </c>
       <c r="D62" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E62" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="F62" s="3">
-        <v>0.1111111111111111</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>98612</v>
+        <v>100775</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C63" s="2">
-        <v>45446.38402777778</v>
+        <v>45448.27361111111</v>
       </c>
       <c r="D63" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E63" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="F63" s="3">
-        <v>0.2580277777777777</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>100204</v>
+        <v>100729</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C64" s="2">
-        <v>45446.13611111111</v>
+        <v>45448.29236111111</v>
       </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E64" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="F64" s="3">
-        <v>0.2631944444444445</v>
+        <v>0.1555555555555556</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>100229</v>
+        <v>100728</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C65" s="2">
-        <v>45446.13611111111</v>
+        <v>45448.15694444445</v>
       </c>
       <c r="D65" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E65" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="F65" s="3">
-        <v>0.2631944444444445</v>
+        <v>0.1555555555555556</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>99741</v>
+        <v>99702</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C66" s="2">
-        <v>45446.10069444445</v>
+        <v>45448.41527777778</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E66" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="F66" s="3">
-        <v>0.2676111111111111</v>
+        <v>0.2580277777777777</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>100483</v>
+        <v>100703</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C67" s="2">
-        <v>45446.23611111111</v>
+        <v>45448.38472222222</v>
       </c>
       <c r="D67" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E67" t="s">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="F67" s="3">
         <v>0.05555555555555555</v>
@@ -2450,119 +2663,119 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>99422</v>
+        <v>99756</v>
       </c>
       <c r="B68" t="s">
         <v>54</v>
       </c>
       <c r="C68" s="2">
-        <v>45446.27152777778</v>
+        <v>45448.36041666667</v>
       </c>
       <c r="D68" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E68" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="F68" s="3">
-        <v>0.3055555555555556</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>99660</v>
+        <v>100774</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C69" s="2">
-        <v>45446.15208333333</v>
+        <v>45448.16527777778</v>
       </c>
       <c r="D69" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E69" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="F69" s="3">
-        <v>0.1642222222222222</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>99948</v>
+        <v>100373</v>
       </c>
       <c r="B70" t="s">
         <v>55</v>
       </c>
       <c r="C70" s="2">
-        <v>45446.15277777778</v>
+        <v>45448.10416666666</v>
       </c>
       <c r="D70" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E70" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="F70" s="3">
-        <v>0.2700416666666666</v>
+        <v>0.3411944444444445</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>99508</v>
+        <v>100795</v>
       </c>
       <c r="B71" t="s">
         <v>56</v>
       </c>
       <c r="C71" s="2">
-        <v>45446.51875</v>
+        <v>45448.24027777778</v>
       </c>
       <c r="D71" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E71" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="F71" s="3">
-        <v>0.3423611111111111</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>100532</v>
+        <v>99945</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2">
-        <v>45446.14583333334</v>
+        <v>45448.375</v>
       </c>
       <c r="D72" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E72" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="F72" s="3">
-        <v>0.3833333333333334</v>
+        <v>0.3361111111111111</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>100372</v>
+        <v>100674</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2">
-        <v>45446.18055555555</v>
+        <v>45448.56388888889</v>
       </c>
       <c r="D73" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E73" t="s">
-        <v>122</v>
+        <v>256</v>
       </c>
       <c r="F73" s="3">
         <v>0.05555555555555555</v>
@@ -2570,39 +2783,39 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>99659</v>
+        <v>100615</v>
       </c>
       <c r="B74" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C74" s="2">
-        <v>45446.23541666667</v>
+        <v>45448.36041666667</v>
       </c>
       <c r="D74" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E74" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="F74" s="3">
-        <v>0.1642222222222222</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>90528</v>
+        <v>100771</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2">
-        <v>45446.39583333334</v>
+        <v>45448.22847222222</v>
       </c>
       <c r="D75" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E75" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="F75" s="3">
         <v>0.05555555555555555</v>
@@ -2610,379 +2823,379 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>99136</v>
+        <v>100802</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2">
-        <v>45446.17569444444</v>
+        <v>45448.50347222222</v>
       </c>
       <c r="D76" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E76" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="F76" s="3">
-        <v>0.2580277777777777</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>100359</v>
+        <v>100477</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C77" s="2">
-        <v>45446.125</v>
+        <v>45448.54166666666</v>
       </c>
       <c r="D77" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="F77" s="3">
-        <v>0.2680555555555555</v>
+        <v>0.3131944444444444</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>100038</v>
+        <v>100617</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C78" s="2">
-        <v>45446.125</v>
+        <v>45448.17569444444</v>
       </c>
       <c r="D78" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="E78" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="F78" s="3">
-        <v>0.3128611111111111</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>100412</v>
+        <v>100490</v>
       </c>
       <c r="B79" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="C79" s="2">
-        <v>45446.55972222222</v>
+        <v>45448.44930555556</v>
       </c>
       <c r="D79" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E79" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="F79" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.1423611111111111</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>100236</v>
+        <v>100284</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C80" s="2">
-        <v>45446.26111111111</v>
+        <v>45448.25</v>
       </c>
       <c r="D80" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E80" t="s">
         <v>190</v>
       </c>
       <c r="F80" s="3">
-        <v>0.2631944444444445</v>
+        <v>0.3861111111111111</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>100537</v>
+        <v>100261</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2">
-        <v>45446.25555555556</v>
+        <v>45448.16597222222</v>
       </c>
       <c r="D81" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E81" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="F81" s="3">
-        <v>0.1111111111111111</v>
+        <v>0.2909722222222222</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>100220</v>
+        <v>100710</v>
       </c>
       <c r="B82" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C82" s="2">
-        <v>45446.38611111111</v>
+        <v>45448.55555555555</v>
       </c>
       <c r="D82" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>262</v>
       </c>
       <c r="F82" s="3">
-        <v>0.2631944444444445</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>100447</v>
+        <v>100262</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2">
-        <v>45446.24305555555</v>
+        <v>45448.24930555555</v>
       </c>
       <c r="D83" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E83" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="F83" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2909722222222222</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>100056</v>
+        <v>100650</v>
       </c>
       <c r="B84" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C84" s="2">
-        <v>45446.27083333334</v>
+        <v>45448.28194444445</v>
       </c>
       <c r="D84" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E84" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="F84" s="3">
-        <v>0.4166666666666667</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>100490</v>
+        <v>99698</v>
       </c>
       <c r="B85" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C85" s="2">
-        <v>45446.59027777778</v>
+        <v>45448.29027777778</v>
       </c>
       <c r="D85" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="E85" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="F85" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2580277777777777</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>100472</v>
+        <v>100070</v>
       </c>
       <c r="B86" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2">
-        <v>45446.39166666667</v>
+        <v>45448.02083333334</v>
       </c>
       <c r="D86" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E86" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="F86" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.333375</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>100057</v>
+        <v>100289</v>
       </c>
       <c r="B87" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2">
-        <v>45446.10416666666</v>
+        <v>45448.10416666666</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="E87" t="s">
-        <v>82</v>
+        <v>267</v>
       </c>
       <c r="F87" s="3">
-        <v>0.4166666666666667</v>
+        <v>0.3861111111111111</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>100234</v>
+        <v>99706</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2">
-        <v>45446.38611111111</v>
+        <v>45448.25902777778</v>
       </c>
       <c r="D88" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="E88" t="s">
-        <v>88</v>
+        <v>268</v>
       </c>
       <c r="F88" s="3">
-        <v>0.1555555555555556</v>
+        <v>0.2580277777777777</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>100504</v>
+        <v>100077</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C89" s="2">
-        <v>45446.40416666667</v>
+        <v>45448.08333333334</v>
       </c>
       <c r="D89" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="E89" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="F89" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3509444444444444</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>100440</v>
+        <v>99713</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2">
-        <v>45446.48888888889</v>
+        <v>45448.11319444444</v>
       </c>
       <c r="D90" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="E90" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="F90" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2580277777777777</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>99941</v>
+        <v>100772</v>
       </c>
       <c r="B91" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C91" s="2">
-        <v>45446.40555555555</v>
+        <v>45448.18472222222</v>
       </c>
       <c r="D91" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="E91" t="s">
-        <v>225</v>
+        <v>139</v>
       </c>
       <c r="F91" s="3">
-        <v>0.3034722222222222</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>100048</v>
+        <v>100613</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C92" s="2">
-        <v>45446.20833333334</v>
+        <v>45448.38055555556</v>
       </c>
       <c r="D92" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="E92" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="F92" s="3">
-        <v>0.3092083333333333</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>99374</v>
+        <v>100092</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C93" s="2">
-        <v>45446.08333333334</v>
+        <v>45448.525</v>
       </c>
       <c r="D93" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="E93" t="s">
-        <v>140</v>
+        <v>272</v>
       </c>
       <c r="F93" s="3">
-        <v>0.3222222222222222</v>
+        <v>0.2483055555555555</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>100735</v>
+        <v>100803</v>
       </c>
       <c r="B94" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C94" s="2">
-        <v>45446.52083333334</v>
+        <v>45448.38888888889</v>
       </c>
       <c r="D94" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="F94" s="3">
         <v>0.05555555555555555</v>
@@ -2990,99 +3203,99 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>100144</v>
+        <v>100695</v>
       </c>
       <c r="B95" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C95" s="2">
-        <v>45446.21944444445</v>
+        <v>45448.3875</v>
       </c>
       <c r="D95" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E95" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="F95" s="3">
-        <v>0.2801944444444444</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>100361</v>
+        <v>100335</v>
       </c>
       <c r="B96" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C96" s="2">
-        <v>45446.10138888889</v>
+        <v>45448.15208333333</v>
       </c>
       <c r="D96" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="E96" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="F96" s="3">
-        <v>0.3441388888888889</v>
+        <v>0.28575</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>100549</v>
+        <v>100035</v>
       </c>
       <c r="B97" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C97" s="2">
-        <v>45446.25</v>
+        <v>45448.5</v>
       </c>
       <c r="D97" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="E97" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F97" s="3">
-        <v>0.3847222222222222</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>99987</v>
+        <v>100019</v>
       </c>
       <c r="B98" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C98" s="2">
-        <v>45446.16319444445</v>
+        <v>45448.39583333334</v>
       </c>
       <c r="D98" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="E98" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="F98" s="3">
-        <v>0.3159722222222222</v>
+        <v>0.3375833333333333</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>100430</v>
+        <v>100610</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C99" s="2">
-        <v>45446.21666666667</v>
+        <v>45448.24861111111</v>
       </c>
       <c r="D99" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E99" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="F99" s="3">
         <v>0.05555555555555555</v>
@@ -3090,19 +3303,19 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>100494</v>
+        <v>100554</v>
       </c>
       <c r="B100" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C100" s="2">
-        <v>45446.3875</v>
+        <v>45448.67083333333</v>
       </c>
       <c r="D100" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E100" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="F100" s="3">
         <v>0.05555555555555555</v>
@@ -3110,239 +3323,239 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>99841</v>
+        <v>100326</v>
       </c>
       <c r="B101" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C101" s="2">
-        <v>45446.15486111111</v>
+        <v>45448.1875</v>
       </c>
       <c r="D101" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="E101" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="F101" s="3">
-        <v>0.2533611111111111</v>
+        <v>0.3861111111111111</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>100450</v>
+        <v>100386</v>
       </c>
       <c r="B102" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C102" s="2">
-        <v>45446.37638888889</v>
+        <v>45448.20833333334</v>
       </c>
       <c r="D102" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="E102" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="F102" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>100471</v>
+        <v>99700</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C103" s="2">
-        <v>45446.71944444445</v>
+        <v>45448.44652777778</v>
       </c>
       <c r="D103" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E103" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="F103" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2580277777777777</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>70736</v>
+        <v>100382</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="C104" s="2">
-        <v>45446.39583333334</v>
+        <v>45448.125</v>
       </c>
       <c r="D104" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="E104" t="s">
-        <v>214</v>
+        <v>281</v>
       </c>
       <c r="F104" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.1913055555555555</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>99913</v>
+        <v>100556</v>
       </c>
       <c r="B105" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C105" s="2">
-        <v>45446.28472222222</v>
+        <v>45448.1875</v>
       </c>
       <c r="D105" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="E105" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="F105" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.31075</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>100239</v>
+        <v>100134</v>
       </c>
       <c r="B106" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C106" s="2">
-        <v>45446.13611111111</v>
+        <v>45448.13611111111</v>
       </c>
       <c r="D106" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="E106" t="s">
-        <v>169</v>
+        <v>283</v>
       </c>
       <c r="F106" s="3">
-        <v>0.2631944444444445</v>
+        <v>0.3013888888888889</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>100218</v>
+        <v>100685</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C107" s="2">
-        <v>45446.26111111111</v>
+        <v>45448.22916666666</v>
       </c>
       <c r="D107" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E107" t="s">
-        <v>190</v>
+        <v>284</v>
       </c>
       <c r="F107" s="3">
-        <v>0.2631944444444445</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>100219</v>
+        <v>100807</v>
       </c>
       <c r="B108" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="C108" s="2">
-        <v>45446.26111111111</v>
+        <v>45448.21944444445</v>
       </c>
       <c r="D108" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="E108" t="s">
-        <v>104</v>
+        <v>285</v>
       </c>
       <c r="F108" s="3">
-        <v>0.1555555555555556</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>100551</v>
+        <v>100603</v>
       </c>
       <c r="B109" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C109" s="2">
-        <v>45446.58333333334</v>
+        <v>45448.12916666667</v>
       </c>
       <c r="D109" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="E109" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="F109" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3368055555555556</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>100507</v>
+        <v>100006</v>
       </c>
       <c r="B110" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C110" s="2">
-        <v>45446.57916666667</v>
+        <v>45448.30902777778</v>
       </c>
       <c r="D110" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="E110" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="F110" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3340277777777778</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>100550</v>
+        <v>99803</v>
       </c>
       <c r="B111" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C111" s="2">
-        <v>45446.65972222222</v>
+        <v>45448.15347222222</v>
       </c>
       <c r="D111" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="E111" t="s">
-        <v>239</v>
+        <v>135</v>
       </c>
       <c r="F111" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.23125</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>100431</v>
+        <v>100658</v>
       </c>
       <c r="B112" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C112" s="2">
-        <v>45446.39305555556</v>
+        <v>45448.39027777778</v>
       </c>
       <c r="D112" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="E112" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F112" s="3">
         <v>0.05555555555555555</v>
@@ -3350,21 +3563,701 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>100455</v>
+        <v>99143</v>
       </c>
       <c r="B113" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C113" s="2">
-        <v>45446.53888888889</v>
+        <v>45448.17569444444</v>
       </c>
       <c r="D113" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E113" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="F113" s="3">
+        <v>0.2580277777777777</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>99711</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="2">
+        <v>45448.38402777778</v>
+      </c>
+      <c r="D114" t="s">
+        <v>170</v>
+      </c>
+      <c r="E114" t="s">
+        <v>289</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0.2580277777777777</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>100770</v>
+      </c>
+      <c r="B115" t="s">
+        <v>53</v>
+      </c>
+      <c r="C115" s="2">
+        <v>45448.2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>171</v>
+      </c>
+      <c r="E115" t="s">
+        <v>88</v>
+      </c>
+      <c r="F115" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>100434</v>
+      </c>
+      <c r="B116" t="s">
+        <v>30</v>
+      </c>
+      <c r="C116" s="2">
+        <v>45448.35416666666</v>
+      </c>
+      <c r="D116" t="s">
+        <v>172</v>
+      </c>
+      <c r="E116" t="s">
+        <v>290</v>
+      </c>
+      <c r="F116" s="3">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>100702</v>
+      </c>
+      <c r="B117" t="s">
+        <v>44</v>
+      </c>
+      <c r="C117" s="2">
+        <v>45448.21388888889</v>
+      </c>
+      <c r="D117" t="s">
+        <v>173</v>
+      </c>
+      <c r="E117" t="s">
+        <v>120</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>100767</v>
+      </c>
+      <c r="B118" t="s">
+        <v>70</v>
+      </c>
+      <c r="C118" s="2">
+        <v>45448.23055555556</v>
+      </c>
+      <c r="D118" t="s">
+        <v>174</v>
+      </c>
+      <c r="E118" t="s">
+        <v>291</v>
+      </c>
+      <c r="F118" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>100142</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="2">
+        <v>45448.28194444445</v>
+      </c>
+      <c r="D119" t="s">
+        <v>149</v>
+      </c>
+      <c r="E119" t="s">
+        <v>292</v>
+      </c>
+      <c r="F119" s="3">
+        <v>0.2801944444444444</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>99824</v>
+      </c>
+      <c r="B120" t="s">
+        <v>50</v>
+      </c>
+      <c r="C120" s="2">
+        <v>45448.15486111111</v>
+      </c>
+      <c r="D120" t="s">
+        <v>175</v>
+      </c>
+      <c r="E120" t="s">
+        <v>293</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0.2533611111111111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>100363</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="2">
+        <v>45448.09722222222</v>
+      </c>
+      <c r="D121" t="s">
+        <v>176</v>
+      </c>
+      <c r="E121" t="s">
+        <v>294</v>
+      </c>
+      <c r="F121" s="3">
+        <v>0.3524722222222222</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>90528</v>
+      </c>
+      <c r="B122" t="s">
+        <v>37</v>
+      </c>
+      <c r="C122" s="2">
+        <v>45448.25</v>
+      </c>
+      <c r="D122" t="s">
+        <v>105</v>
+      </c>
+      <c r="E122" t="s">
+        <v>262</v>
+      </c>
+      <c r="F122" s="3">
+        <v>0.3611111111111111</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>100388</v>
+      </c>
+      <c r="B123" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" s="2">
+        <v>45448.125</v>
+      </c>
+      <c r="D123" t="s">
+        <v>86</v>
+      </c>
+      <c r="E123" t="s">
+        <v>295</v>
+      </c>
+      <c r="F123" s="3">
+        <v>0.3298611111111111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>100678</v>
+      </c>
+      <c r="B124" t="s">
+        <v>62</v>
+      </c>
+      <c r="C124" s="2">
+        <v>45448.57638888889</v>
+      </c>
+      <c r="D124" t="s">
+        <v>177</v>
+      </c>
+      <c r="E124" t="s">
+        <v>296</v>
+      </c>
+      <c r="F124" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>100402</v>
+      </c>
+      <c r="B125" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" s="2">
+        <v>45448.47916666666</v>
+      </c>
+      <c r="D125" t="s">
+        <v>178</v>
+      </c>
+      <c r="E125" t="s">
+        <v>297</v>
+      </c>
+      <c r="F125" s="3">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>100636</v>
+      </c>
+      <c r="B126" t="s">
+        <v>44</v>
+      </c>
+      <c r="C126" s="2">
+        <v>45448.38819444444</v>
+      </c>
+      <c r="D126" t="s">
+        <v>179</v>
+      </c>
+      <c r="E126" t="s">
+        <v>298</v>
+      </c>
+      <c r="F126" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>100264</v>
+      </c>
+      <c r="B127" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" s="2">
+        <v>45448.12430555555</v>
+      </c>
+      <c r="D127" t="s">
+        <v>180</v>
+      </c>
+      <c r="E127" t="s">
+        <v>129</v>
+      </c>
+      <c r="F127" s="3">
+        <v>0.2909722222222222</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>99088</v>
+      </c>
+      <c r="B128" t="s">
+        <v>38</v>
+      </c>
+      <c r="C128" s="2">
+        <v>45448.16666666666</v>
+      </c>
+      <c r="D128" t="s">
+        <v>181</v>
+      </c>
+      <c r="E128" t="s">
+        <v>299</v>
+      </c>
+      <c r="F128" s="3">
+        <v>0.3251666666666667</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>100734</v>
+      </c>
+      <c r="B129" t="s">
+        <v>71</v>
+      </c>
+      <c r="C129" s="2">
+        <v>45448.41666666666</v>
+      </c>
+      <c r="D129" t="s">
+        <v>182</v>
+      </c>
+      <c r="E129" t="s">
+        <v>300</v>
+      </c>
+      <c r="F129" s="3">
+        <v>0.2083333333333333</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>100707</v>
+      </c>
+      <c r="B130" t="s">
+        <v>67</v>
+      </c>
+      <c r="C130" s="2">
+        <v>45448.39583333334</v>
+      </c>
+      <c r="D130" t="s">
+        <v>161</v>
+      </c>
+      <c r="E130" t="s">
+        <v>301</v>
+      </c>
+      <c r="F130" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>99968</v>
+      </c>
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="2">
+        <v>45448.31041666667</v>
+      </c>
+      <c r="D131" t="s">
+        <v>183</v>
+      </c>
+      <c r="E131" t="s">
+        <v>103</v>
+      </c>
+      <c r="F131" s="3">
+        <v>0.2368055555555555</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>100651</v>
+      </c>
+      <c r="B132" t="s">
+        <v>72</v>
+      </c>
+      <c r="C132" s="2">
+        <v>45448.40694444445</v>
+      </c>
+      <c r="D132" t="s">
+        <v>184</v>
+      </c>
+      <c r="E132" t="s">
+        <v>302</v>
+      </c>
+      <c r="F132" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>99141</v>
+      </c>
+      <c r="B133" t="s">
+        <v>39</v>
+      </c>
+      <c r="C133" s="2">
+        <v>45448.14444444444</v>
+      </c>
+      <c r="D133" t="s">
+        <v>185</v>
+      </c>
+      <c r="E133" t="s">
+        <v>303</v>
+      </c>
+      <c r="F133" s="3">
+        <v>0.2580277777777777</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>100739</v>
+      </c>
+      <c r="B134" t="s">
+        <v>45</v>
+      </c>
+      <c r="C134" s="2">
+        <v>45448.39027777778</v>
+      </c>
+      <c r="D134" t="s">
+        <v>117</v>
+      </c>
+      <c r="E134" t="s">
+        <v>230</v>
+      </c>
+      <c r="F134" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>100804</v>
+      </c>
+      <c r="B135" t="s">
+        <v>71</v>
+      </c>
+      <c r="C135" s="2">
+        <v>45448.20833333334</v>
+      </c>
+      <c r="D135" t="s">
+        <v>100</v>
+      </c>
+      <c r="E135" t="s">
+        <v>304</v>
+      </c>
+      <c r="F135" s="3">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>100612</v>
+      </c>
+      <c r="B136" t="s">
+        <v>45</v>
+      </c>
+      <c r="C136" s="2">
+        <v>45448.24722222222</v>
+      </c>
+      <c r="D136" t="s">
+        <v>186</v>
+      </c>
+      <c r="E136" t="s">
+        <v>92</v>
+      </c>
+      <c r="F136" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>99089</v>
+      </c>
+      <c r="B137" t="s">
+        <v>73</v>
+      </c>
+      <c r="C137" s="2">
+        <v>45448.20833333334</v>
+      </c>
+      <c r="D137" t="s">
+        <v>100</v>
+      </c>
+      <c r="E137" t="s">
+        <v>305</v>
+      </c>
+      <c r="F137" s="3">
+        <v>0.3251666666666667</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>100654</v>
+      </c>
+      <c r="B138" t="s">
+        <v>69</v>
+      </c>
+      <c r="C138" s="2">
+        <v>45448.55833333333</v>
+      </c>
+      <c r="D138" t="s">
+        <v>187</v>
+      </c>
+      <c r="E138" t="s">
+        <v>306</v>
+      </c>
+      <c r="F138" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>100797</v>
+      </c>
+      <c r="B139" t="s">
+        <v>74</v>
+      </c>
+      <c r="C139" s="2">
+        <v>45448.29027777778</v>
+      </c>
+      <c r="D139" t="s">
+        <v>150</v>
+      </c>
+      <c r="E139" t="s">
+        <v>307</v>
+      </c>
+      <c r="F139" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>100417</v>
+      </c>
+      <c r="B140" t="s">
+        <v>75</v>
+      </c>
+      <c r="C140" s="2">
+        <v>45448.38194444445</v>
+      </c>
+      <c r="D140" t="s">
+        <v>188</v>
+      </c>
+      <c r="E140" t="s">
+        <v>308</v>
+      </c>
+      <c r="F140" s="3">
+        <v>0.3483055555555555</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>100696</v>
+      </c>
+      <c r="B141" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" s="2">
+        <v>45448.37083333333</v>
+      </c>
+      <c r="D141" t="s">
+        <v>189</v>
+      </c>
+      <c r="E141" t="s">
+        <v>309</v>
+      </c>
+      <c r="F141" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>99907</v>
+      </c>
+      <c r="B142" t="s">
+        <v>31</v>
+      </c>
+      <c r="C142" s="2">
+        <v>45448.52083333334</v>
+      </c>
+      <c r="D142" t="s">
+        <v>112</v>
+      </c>
+      <c r="E142" t="s">
+        <v>310</v>
+      </c>
+      <c r="F142" s="3">
+        <v>0.2988194444444445</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>100511</v>
+      </c>
+      <c r="B143" t="s">
+        <v>73</v>
+      </c>
+      <c r="C143" s="2">
+        <v>45448.54166666666</v>
+      </c>
+      <c r="D143" t="s">
+        <v>89</v>
+      </c>
+      <c r="E143" t="s">
+        <v>311</v>
+      </c>
+      <c r="F143" s="3">
+        <v>0.3712222222222222</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>100069</v>
+      </c>
+      <c r="B144" t="s">
+        <v>41</v>
+      </c>
+      <c r="C144" s="2">
+        <v>45448.1875</v>
+      </c>
+      <c r="D144" t="s">
+        <v>78</v>
+      </c>
+      <c r="E144" t="s">
+        <v>245</v>
+      </c>
+      <c r="F144" s="3">
+        <v>0.3972222222222222</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>100656</v>
+      </c>
+      <c r="B145" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" s="2">
+        <v>45448.47916666666</v>
+      </c>
+      <c r="D145" t="s">
+        <v>178</v>
+      </c>
+      <c r="E145" t="s">
+        <v>312</v>
+      </c>
+      <c r="F145" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>100058</v>
+      </c>
+      <c r="B146" t="s">
+        <v>58</v>
+      </c>
+      <c r="C146" s="2">
+        <v>45448.10416666666</v>
+      </c>
+      <c r="D146" t="s">
+        <v>138</v>
+      </c>
+      <c r="E146" t="s">
+        <v>112</v>
+      </c>
+      <c r="F146" s="3">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>100686</v>
+      </c>
+      <c r="B147" t="s">
+        <v>75</v>
+      </c>
+      <c r="C147" s="2">
+        <v>45448.25277777778</v>
+      </c>
+      <c r="D147" t="s">
+        <v>123</v>
+      </c>
+      <c r="E147" t="s">
+        <v>236</v>
+      </c>
+      <c r="F147" s="3">
         <v>0.05555555555555555</v>
       </c>
     </row>

--- a/static/tmp/planificacion.xlsx
+++ b/static/tmp/planificacion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="267">
   <si>
     <t>id</t>
   </si>
@@ -34,925 +34,787 @@
     <t>start_to_end_time</t>
   </si>
   <si>
-    <t>('DERWINS CORTEZ G', 'ASOCIADO', 1, 1, '26.536.138-2')</t>
+    <t>('SAMUEL FAUNDEZ J', 'ASOCIADO', 1, 1, '16.265.186-2')</t>
+  </si>
+  <si>
+    <t>('OWEN AGUILAR G', 'ASOCIADO', 1, 1, '15.873.472-9')</t>
+  </si>
+  <si>
+    <t>('JORGE ALFARO H', 'ASOCIADO', 1, 1, '16.758.352-0')</t>
+  </si>
+  <si>
+    <t>('CRISTIAN REAL M', 'PORTEADOR', 0, 1, '16.642.093-8')</t>
+  </si>
+  <si>
+    <t>('Pablo Tudela M', 'PROPIO', 0, 1, '15.893.630-5')</t>
+  </si>
+  <si>
+    <t>('Luis Olea V', 'PROPIO', 0, 1, '16.491.628-6')</t>
+  </si>
+  <si>
+    <t>('RODRIGO  I', 'PROPIO', 0, 1, '10.355.521-3')</t>
+  </si>
+  <si>
+    <t>('RODRIGO RIQUELME N', 'ASOCIADO', 1, 1, '13.767.617-6')</t>
+  </si>
+  <si>
+    <t>('CARLOS FABIO V', 'PROPIO', 0, 1, '16.291.210-0')</t>
+  </si>
+  <si>
+    <t>('JHONNY SEPULVEDA', 'ASOCIADO', 1, 1, '16.130.818-8')</t>
+  </si>
+  <si>
+    <t>('DANIEL  L', 'ASOCIADO', 1, 1, '15.873.188-6')</t>
+  </si>
+  <si>
+    <t>('MANUEL VIDAL L', 'ASOCIADO', 1, 1, '16.311.233-7')</t>
+  </si>
+  <si>
+    <t>('FELIPE RIVAS D', 'PROPIO', 0, 1, '16.517.262-0')</t>
+  </si>
+  <si>
+    <t>('ANGEL FLORES H', 'ASOCIADO', 1, 1, '16.668.125-1')</t>
+  </si>
+  <si>
+    <t>('PATRICIO PARDO V', 'PORTEADOR', 0, 1, '13.546.027-3')</t>
+  </si>
+  <si>
+    <t>('MAURICIO URBINA S', 'PROPIO', 0, 1, '11.630.504-6')</t>
+  </si>
+  <si>
+    <t>('EDUARDO ROMAN O', 'PROPIO', 0, 1, '11.946.072-7')</t>
+  </si>
+  <si>
+    <t>('CRISTIAN MUÑOZ S', 'ASOCIADO', 1, 1, '13.196.333-5')</t>
+  </si>
+  <si>
+    <t>('FERNANDO COFRÉ T', 'PROPIO', 0, 1, '15.112.544-1')</t>
+  </si>
+  <si>
+    <t>('CLAUDIO NAVARRO', 'ASOCIADO', 1, 1, '15.375.565-5')</t>
+  </si>
+  <si>
+    <t>('Luis Arevalo M', 'ASOCIADO', 1, 1, '16.529.122-0')</t>
+  </si>
+  <si>
+    <t>('ANGEL CARREÑO', 'ASOCIADO', 1, 1, '14.003.333-2')</t>
+  </si>
+  <si>
+    <t>('JAVIER GODOY B', 'ASOCIADO', 1, 1, '13.714.279-1')</t>
+  </si>
+  <si>
+    <t>('Rene Vives H', 'PROPIO', 0, 1, '10.813.755-K')</t>
   </si>
   <si>
     <t>('JUAN REYES C', 'ASOCIADO', 1, 1, '17.078.880-K')</t>
   </si>
   <si>
-    <t>('LUIS PAILLALEF P', 'PORTEADOR', 0, 1, '10.048.208-8')</t>
-  </si>
-  <si>
-    <t>('Rene Vives H', 'PROPIO', 0, 1, '10.813.755-K')</t>
-  </si>
-  <si>
-    <t>('FERNANDO COFRÉ T', 'PROPIO', 0, 1, '15.112.544-1')</t>
+    <t>('MARCO BERNACHEA A', 'ASOCIADO', 1, 1, '13.665.862-K')</t>
+  </si>
+  <si>
+    <t>('Leonardo Leiva C', 'PROPIO', 0, 1, '16.166.731-5')</t>
+  </si>
+  <si>
+    <t>('JOSE MUÑOZ D', 'PROPIO', 0, 1, '12.278.963-2')</t>
+  </si>
+  <si>
+    <t>('NATALY GONZALEZ M', 'ASOCIADO', 1, 1, '17.444.914-7')</t>
+  </si>
+  <si>
+    <t>('RAUL VALDIVIA M', 'PROPIO', 0, 1, '15.314.818-K')</t>
+  </si>
+  <si>
+    <t>('SERGIO VEGA V', 'PROPIO', 0, 1, '18.122.272-7')</t>
+  </si>
+  <si>
+    <t>('FRANCISCO GODOY M', 'ASOCIADO', 1, 1, '15.077.191-9')</t>
+  </si>
+  <si>
+    <t>('RONNY CORONADO T', 'PROPIO', 0, 1, '12.250.331-3')</t>
+  </si>
+  <si>
+    <t>('JOSE REYES', 'ASOCIADO', 1, 1, '14.003.298-0')</t>
+  </si>
+  <si>
+    <t>('ALEX CASTILLO S', 'TERCERO', 2, 0, '15.228.034-3')</t>
+  </si>
+  <si>
+    <t>('MARCO CATALDO C', 'ASOCIADO', 1, 1, '16.777.267-6')</t>
+  </si>
+  <si>
+    <t>('AURELIO ARÉVALO G', 'ASOCIADO', 1, 1, '13.196.601-6')</t>
+  </si>
+  <si>
+    <t>('Nelson Gallardo R', 'PROPIO', 0, 1, '11.388.715-K')</t>
+  </si>
+  <si>
+    <t>('GUILLERMO GARAY', 'TERCERO', 2, 0, '15.648.946-8')</t>
+  </si>
+  <si>
+    <t>('ELIAS CASTILLO', 'TERCERO', 2, 0, '13.394.115-0')</t>
   </si>
   <si>
     <t>('ALAN SANTIS', 'ASOCIADO', 1, 1, '15.089.677-0')</t>
   </si>
   <si>
-    <t>('JOSE SANCHEZ', 'ASOCIADO', 1, 1, '27.742.628-5')</t>
+    <t>('JOSE CABELLO S', 'ASOCIADO', 1, 1, '17.816.963-7')</t>
+  </si>
+  <si>
+    <t>('CARLOS AREVALO M', 'PROPIO', 0, 1, '17.149.048-0')</t>
+  </si>
+  <si>
+    <t>('FRANCISCO GARCIA D', 'PROPIO', 0, 1, '18.228.515-3')</t>
+  </si>
+  <si>
+    <t>('ANDY BETANCOURT H', 'PROPIO', 0, 1, '16.300.244-2')</t>
+  </si>
+  <si>
+    <t>('CAMILO PLAZA G', 'ASOCIADO', 1, 1, '15.401.957-K')</t>
+  </si>
+  <si>
+    <t>('Francisco Paredes A', 'PROPIO', 0, 1, '13.837.221-9')</t>
   </si>
   <si>
     <t>('JUAN VICENCIO N', 'PROPIO', 0, 1, '15.095.552-1')</t>
   </si>
   <si>
-    <t>('CLAUDIO NAVARRO', 'ASOCIADO', 1, 1, '15.375.565-5')</t>
+    <t>('MAURICIO MAULEN', 'ASOCIADO', 1, 1, '11.275.919-0')</t>
   </si>
   <si>
     <t>('CARLOS OSORIO', 'ASOCIADO', 1, 1, '13.368.536-7')</t>
   </si>
   <si>
-    <t>('EDUARDO ROMAN O', 'PROPIO', 0, 1, '11.946.072-7')</t>
-  </si>
-  <si>
-    <t>('RAUL VALDIVIA M', 'PROPIO', 0, 1, '15.314.818-K')</t>
-  </si>
-  <si>
-    <t>('EDUARDO MARAMBIO A', 'ASOCIADO', 1, 1, '18.760.890-2')</t>
-  </si>
-  <si>
-    <t>('GABRIEL PARRA C', 'ASOCIADO', 1, 1, '18.759.852-4')</t>
-  </si>
-  <si>
-    <t>('DIEGO NELCASEAU P', 'ASOCIADO', 1, 1, '19.403.588-8')</t>
-  </si>
-  <si>
-    <t>('JOSE MUÑOZ D', 'PROPIO', 0, 1, '12.278.963-2')</t>
-  </si>
-  <si>
-    <t>('YOSMAR PEREZ P', 'PORTEADOR', 0, 1, '11.257.434-4')</t>
-  </si>
-  <si>
-    <t>('FELIPE ROJAS S', 'ASOCIADO', 1, 1, '19.756.747-3')</t>
-  </si>
-  <si>
-    <t>('JOSE REYES', 'ASOCIADO', 1, 1, '14.003.298-0')</t>
-  </si>
-  <si>
-    <t>('MAURICIO MAULEN', 'ASOCIADO', 1, 1, '11.275.919-0')</t>
-  </si>
-  <si>
-    <t>('CARLOS FABIO V', 'PROPIO', 0, 1, '16.291.210-0')</t>
-  </si>
-  <si>
-    <t>('OWEN AGUILAR G', 'ASOCIADO', 1, 1, '15.873.472-9')</t>
-  </si>
-  <si>
-    <t>('FELIPE RIVAS D', 'PROPIO', 0, 1, '16.517.262-0')</t>
-  </si>
-  <si>
-    <t>('AURELIO ARÉVALO G', 'ASOCIADO', 1, 1, '13.196.601-6')</t>
-  </si>
-  <si>
-    <t>('IVAN PARRA C', 'ASOCIADO', 1, 1, '19.143.325-4')</t>
-  </si>
-  <si>
-    <t>('JUAN BERNACHEA', 'ASOCIADO', 1, 1, '7.741.876-8')</t>
-  </si>
-  <si>
-    <t>('RODRIGO  I', 'PROPIO', 0, 1, '10.355.521-3')</t>
-  </si>
-  <si>
-    <t>('CRISTIAN REAL M', 'PORTEADOR', 0, 1, '16.642.093-8')</t>
-  </si>
-  <si>
-    <t>('Nelson Gallardo R', 'PROPIO', 0, 1, '11.388.715-K')</t>
-  </si>
-  <si>
-    <t>('ANGEL CARREÑO', 'ASOCIADO', 1, 1, '14.003.333-2')</t>
-  </si>
-  <si>
-    <t>('ADOLFO CORVALAN P', 'PROPIO', 0, 1, '19.758.425-4')</t>
-  </si>
-  <si>
-    <t>('FRANCISCO GODOY M', 'ASOCIADO', 1, 1, '15.077.191-9')</t>
-  </si>
-  <si>
-    <t>('DANILO ARMIJO C', 'PROPIO', 0, 1, '14.274.986-6')</t>
-  </si>
-  <si>
-    <t>('Leonardo Leiva C', 'PROPIO', 0, 1, '16.166.731-5')</t>
-  </si>
-  <si>
-    <t>('Pablo Tudela M', 'PROPIO', 0, 1, '15.893.630-5')</t>
-  </si>
-  <si>
-    <t>('JAVIER GODOY B', 'ASOCIADO', 1, 1, '13.714.279-1')</t>
-  </si>
-  <si>
-    <t>('CRISTIAN MUÑOZ S', 'ASOCIADO', 1, 1, '13.196.333-5')</t>
-  </si>
-  <si>
-    <t>('RODRIGO RIQUELME N', 'ASOCIADO', 1, 1, '13.767.617-6')</t>
-  </si>
-  <si>
-    <t>('PATRICIO PARDO V', 'PORTEADOR', 0, 1, '13.546.027-3')</t>
-  </si>
-  <si>
     <t>('JOSE SANTIS S', 'PROPIO', 0, 1, '15.872.022-1')</t>
   </si>
   <si>
-    <t>('SERGIO VEGA V', 'PROPIO', 0, 1, '18.122.272-7')</t>
-  </si>
-  <si>
-    <t>('FLAVIO PACHECO P', 'PROPIO', 0, 1, '27.918.005-4')</t>
-  </si>
-  <si>
-    <t>('MAURICIO RIVAS R', 'ASOCIADO', 1, 1, '18.448.238-K')</t>
-  </si>
-  <si>
-    <t>('CARLOS AREVALO M', 'PROPIO', 0, 1, '17.149.048-0')</t>
-  </si>
-  <si>
-    <t>('RICARDO GONZALEZ L', 'ASOCIADO', 1, 1, '7.614.149-5')</t>
-  </si>
-  <si>
-    <t>('PATRICIO CARREÑO B', 'PROPIO', 0, 1, '15.348.250-0')</t>
-  </si>
-  <si>
-    <t>('DANIEL  L', 'ASOCIADO', 1, 1, '15.873.188-6')</t>
-  </si>
-  <si>
-    <t>('OSWALDO ESCALONA A', 'PORTEADOR', 0, 1, '27.643.631-7')</t>
-  </si>
-  <si>
-    <t>('LUIS OLIVA M', 'ASOCIADO', 1, 1, '19.383.425-6')</t>
-  </si>
-  <si>
-    <t>('MAURICIO URBINA S', 'PROPIO', 0, 1, '11.630.504-6')</t>
-  </si>
-  <si>
-    <t>('LEONARDO MIRANDA B', 'ASOCIADO', 1, 1, '13.547.264-6')</t>
-  </si>
-  <si>
-    <t>('DANIEL BEJARANO H', 'PROPIO', 0, 1, '27.886.201-1')</t>
-  </si>
-  <si>
-    <t>('MANUEL VIDAL L', 'ASOCIADO', 1, 1, '16.311.233-7')</t>
-  </si>
-  <si>
-    <t>('SAMUEL FAUNDEZ J', 'ASOCIADO', 1, 1, '16.265.186-2')</t>
-  </si>
-  <si>
-    <t>('MARCO CATALDO C', 'ASOCIADO', 1, 1, '16.777.267-6')</t>
-  </si>
-  <si>
-    <t>('LUIS REYES P', 'ASOCIADO', 1, 1, '8.298.532-8')</t>
-  </si>
-  <si>
-    <t>('JORGE ALFARO H', 'ASOCIADO', 1, 1, '16.758.352-0')</t>
-  </si>
-  <si>
-    <t>('MARCO BERNACHEA A', 'ASOCIADO', 1, 1, '13.665.862-K')</t>
-  </si>
-  <si>
-    <t>('NATALY GONZALEZ M', 'ASOCIADO', 1, 1, '17.444.914-7')</t>
-  </si>
-  <si>
-    <t>('Francisco Paredes A', 'PROPIO', 0, 1, '13.837.221-9')</t>
-  </si>
-  <si>
-    <t>('JHONNY SEPULVEDA', 'ASOCIADO', 1, 1, '16.130.818-8')</t>
-  </si>
-  <si>
-    <t>('JOSE CABELLO S', 'ASOCIADO', 1, 1, '17.816.963-7')</t>
-  </si>
-  <si>
-    <t>('ANDY BETANCOURT H', 'PROPIO', 0, 1, '16.300.244-2')</t>
-  </si>
-  <si>
-    <t>('ANGEL FLORES H', 'ASOCIADO', 1, 1, '16.668.125-1')</t>
-  </si>
-  <si>
-    <t>('CRISTIAN LLANCA P', 'ASOCIADO', 1, 1, '19.143.316-5')</t>
-  </si>
-  <si>
-    <t>('FRANCISCO GARCIA D', 'PROPIO', 0, 1, '18.228.515-3')</t>
-  </si>
-  <si>
-    <t>('Luis Arevalo M', 'ASOCIADO', 1, 1, '16.529.122-0')</t>
-  </si>
-  <si>
-    <t>('Luis Olea V', 'PROPIO', 0, 1, '16.491.628-6')</t>
-  </si>
-  <si>
-    <t>('CAMILO PLAZA G', 'ASOCIADO', 1, 1, '15.401.957-K')</t>
-  </si>
-  <si>
-    <t>('FRANCISCO VIDAL L', 'ASOCIADO', 1, 1, '19.403.547-0')</t>
+    <t>('ANGEL RIQUELME L', 'TERCERO', 2, 0, '13.041.363-3')</t>
+  </si>
+  <si>
+    <t>2024-06-06 04:32:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 04:08:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 14:12:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 06:32:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 09:58:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:42:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 10:43:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 09:28:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 09:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 04:43:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 11:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:17:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 08:50:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 02:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 12:39:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 07:28:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 16:22:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 13:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 07:20:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:32:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 15:36:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 13:06:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 04:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 17:26:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 12:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 02:53:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:02:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 02:43:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 06:04:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 00:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 05:28:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 09:48:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 10:24:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:44:00</t>
   </si>
   <si>
     <t>2024-06-05 13:56:00</t>
   </si>
   <si>
-    <t>2024-06-05 08:53:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 04:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 09:32:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 03:27:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 05:20:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 05:05:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 11:25:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 04:04:00</t>
+    <t>2024-06-06 06:43:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 06:06:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:38:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 17:08:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:20:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 16:20:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 16:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:56:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 06:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 03:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 02:29:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 04:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:24:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 02:56:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:06:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 13:17:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 02:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 10:39:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 05:39:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:38:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 10:44:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 03:28:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:40:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 03:39:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:52:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 05:02:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:37:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 17:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 04:16:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 08:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:08:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 05:46:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:12:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:36:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 07:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 05:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 09:13:00</t>
   </si>
   <si>
     <t>2024-06-05 13:42:00</t>
   </si>
   <si>
-    <t>2024-06-05 03:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 08:12:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 06:08:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 13:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 03:54:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 02:39:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 07:16:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 06:37:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 08:22:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 09:24:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 05:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 09:20:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 01:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 13:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 05:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 06:26:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 04:59:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 13:08:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 06:51:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 06:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 11:55:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 05:52:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 12:38:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:49:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 00:03:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 12:44:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 12:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 06:22:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 17:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 14:12:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 06:12:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 09:22:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 08:51:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 06:44:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 06:28:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 12:37:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 11:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 06:04:00</t>
+    <t>2024-06-05 16:23:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:28:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:24:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 15:58:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 16:18:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 03:10:00</t>
   </si>
   <si>
     <t>2024-06-05 12:47:00</t>
   </si>
   <si>
-    <t>2024-06-05 06:40:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 09:28:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 05:39:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 12:12:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 09:58:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:41:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 12:42:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 06:34:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 07:01:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 03:46:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 09:14:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 08:39:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 03:58:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 02:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 05:46:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 09:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 13:32:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 05:29:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 12:05:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 04:13:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:47:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 03:59:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 13:20:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 05:59:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 06:46:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 06:58:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 00:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 06:13:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 02:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 02:43:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 04:26:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 09:08:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 12:36:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 09:18:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 03:39:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 12:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 09:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 05:58:00</t>
+    <t>2024-06-06 03:26:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 11:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 08:30:00</t>
   </si>
   <si>
     <t>2024-06-05 16:06:00</t>
   </si>
   <si>
-    <t>2024-06-05 10:43:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 03:16:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 05:16:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 03:06:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 07:25:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 03:41:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 09:13:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 04:48:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 08:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 05:08:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 05:32:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 03:43:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 02:20:00</t>
+    <t>2024-06-06 03:16:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 16:28:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 14:30:00</t>
   </si>
   <si>
     <t>2024-06-05 13:50:00</t>
   </si>
   <si>
-    <t>2024-06-05 11:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 09:19:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 02:59:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 04:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 07:27:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 09:46:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 03:28:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 05:56:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 13:24:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 09:10:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 08:54:00</t>
+    <t>2024-06-06 09:44:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 03:27:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:46:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 18:47:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 02:47:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 05:52:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 11:57:21</t>
+  </si>
+  <si>
+    <t>2024-06-06 07:52:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 16:09:33</t>
+  </si>
+  <si>
+    <t>2024-06-06 10:51:28</t>
+  </si>
+  <si>
+    <t>2024-06-06 16:54:33</t>
+  </si>
+  <si>
+    <t>2024-06-06 10:48:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 00:17:25</t>
+  </si>
+  <si>
+    <t>2024-06-06 16:50:52</t>
+  </si>
+  <si>
+    <t>2024-06-06 10:54:33</t>
+  </si>
+  <si>
+    <t>2024-06-06 14:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 19:05:20</t>
+  </si>
+  <si>
+    <t>2024-06-05 15:42:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 14:50:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 10:10:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 11:46:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 20:22:57</t>
+  </si>
+  <si>
+    <t>2024-06-06 13:39:33</t>
+  </si>
+  <si>
+    <t>2024-06-05 17:42:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 22:14:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 08:40:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 14:52:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 16:56:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 22:04:38</t>
+  </si>
+  <si>
+    <t>2024-06-05 22:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 12:40:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 18:46:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 18:42:52</t>
+  </si>
+  <si>
+    <t>2024-06-06 19:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 09:23:39</t>
+  </si>
+  <si>
+    <t>2024-06-05 14:22:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 08:54:33</t>
+  </si>
+  <si>
+    <t>2024-06-06 15:17:28</t>
+  </si>
+  <si>
+    <t>2024-06-06 09:30:12</t>
+  </si>
+  <si>
+    <t>2024-06-06 13:46:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 11:08:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 19:30:16</t>
+  </si>
+  <si>
+    <t>2024-06-05 19:14:51</t>
   </si>
   <si>
     <t>2024-06-05 15:16:00</t>
   </si>
   <si>
-    <t>2024-06-05 10:13:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 05:50:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:52:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 06:25:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 12:45:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 05:24:00</t>
+    <t>2024-06-06 18:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 12:54:33</t>
+  </si>
+  <si>
+    <t>2024-06-05 14:58:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 21:20:12</t>
+  </si>
+  <si>
+    <t>2024-06-05 18:28:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 14:40:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 17:40:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 17:20:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 09:40:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 15:16:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 09:14:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 08:55:21</t>
+  </si>
+  <si>
+    <t>2024-06-06 17:03:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 13:13:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 14:44:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 20:40:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 07:34:33</t>
+  </si>
+  <si>
+    <t>2024-06-05 14:26:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 20:10:18</t>
+  </si>
+  <si>
+    <t>2024-06-06 18:40:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 09:35:28</t>
+  </si>
+  <si>
+    <t>2024-06-05 14:38:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 17:54:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 09:39:33</t>
+  </si>
+  <si>
+    <t>2024-06-05 22:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 14:02:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 14:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 07:35:28</t>
+  </si>
+  <si>
+    <t>2024-06-06 10:41:19</t>
+  </si>
+  <si>
+    <t>2024-06-06 06:22:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 10:47:33</t>
+  </si>
+  <si>
+    <t>2024-06-06 13:04:24</t>
+  </si>
+  <si>
+    <t>2024-06-06 12:35:28</t>
+  </si>
+  <si>
+    <t>2024-06-06 13:14:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 19:43:33</t>
+  </si>
+  <si>
+    <t>2024-06-05 18:33:33</t>
+  </si>
+  <si>
+    <t>2024-06-06 11:16:49</t>
+  </si>
+  <si>
+    <t>2024-06-06 11:23:02</t>
+  </si>
+  <si>
+    <t>2024-06-06 10:23:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 08:20:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 13:23:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 15:24:33</t>
+  </si>
+  <si>
+    <t>2024-06-05 19:40:18</t>
+  </si>
+  <si>
+    <t>2024-06-06 06:35:28</t>
   </si>
   <si>
     <t>2024-06-05 21:14:01</t>
   </si>
   <si>
-    <t>2024-06-05 10:48:14</t>
-  </si>
-  <si>
-    <t>2024-06-05 07:28:00</t>
+    <t>2024-06-05 14:04:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 10:58:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:48:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:44:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 20:26:45</t>
+  </si>
+  <si>
+    <t>2024-06-06 11:59:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 17:18:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 17:38:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 10:28:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 20:41:43</t>
+  </si>
+  <si>
+    <t>2024-06-06 10:38:07</t>
+  </si>
+  <si>
+    <t>2024-06-05 21:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 09:50:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 14:36:28</t>
+  </si>
+  <si>
+    <t>2024-06-06 10:36:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 20:55:57</t>
+  </si>
+  <si>
+    <t>2024-06-05 17:48:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 23:42:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 20:31:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 15:10:00</t>
+  </si>
+  <si>
+    <t>2024-06-05 21:31:57</t>
+  </si>
+  <si>
+    <t>2024-06-06 16:54:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 10:30:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 21:54:33</t>
+  </si>
+  <si>
+    <t>2024-06-06 10:22:00</t>
   </si>
   <si>
     <t>2024-06-05 19:24:00</t>
   </si>
   <si>
-    <t>2024-06-05 05:14:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 06:35:28</t>
-  </si>
-  <si>
-    <t>2024-06-05 08:36:00</t>
-  </si>
-  <si>
-    <t>2024-06-06 00:17:25</t>
-  </si>
-  <si>
-    <t>2024-06-05 07:57:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 09:42:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:44:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 13:22:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:40:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 09:40:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 14:50:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 06:20:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 07:46:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 11:58:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 12:11:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 14:28:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 08:11:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 13:48:14</t>
-  </si>
-  <si>
-    <t>2024-06-05 13:15:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 07:12:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 14:38:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 17:53:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 01:23:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 19:14:51</t>
-  </si>
-  <si>
-    <t>2024-06-05 21:31:57</t>
-  </si>
-  <si>
-    <t>2024-06-05 07:42:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 18:50:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 15:32:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 07:32:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:42:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:11:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 08:04:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 07:48:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 22:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 19:06:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 07:24:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 20:41:43</t>
-  </si>
-  <si>
-    <t>2024-06-05 08:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:48:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 12:30:28</t>
-  </si>
-  <si>
-    <t>2024-06-05 19:43:33</t>
-  </si>
-  <si>
-    <t>2024-06-05 11:18:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 08:52:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 18:51:21</t>
-  </si>
-  <si>
-    <t>2024-06-05 14:02:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 07:54:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:45:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 07:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 16:09:33</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:34:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 09:59:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 05:18:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:41:19</t>
-  </si>
-  <si>
-    <t>2024-06-05 07:06:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 17:04:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 14:52:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 06:49:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 13:25:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 20:31:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 05:33:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:58:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 14:40:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 12:58:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 08:06:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 13:09:33</t>
-  </si>
-  <si>
-    <t>2024-06-05 08:30:03</t>
-  </si>
-  <si>
-    <t>2024-06-05 11:46:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 12:24:33</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:25:21</t>
-  </si>
-  <si>
-    <t>2024-06-05 08:54:33</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:28:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 18:33:33</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:38:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:30:28</t>
-  </si>
-  <si>
-    <t>2024-06-05 17:36:07</t>
-  </si>
-  <si>
-    <t>2024-06-05 07:18:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 17:26:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 13:46:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 12:55:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 16:54:33</t>
-  </si>
-  <si>
-    <t>2024-06-05 07:35:28</t>
-  </si>
-  <si>
-    <t>2024-06-05 11:57:28</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 06:50:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 06:36:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 11:11:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 15:26:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:24:33</t>
-  </si>
-  <si>
-    <t>2024-06-05 15:24:33</t>
-  </si>
-  <si>
-    <t>2024-06-05 18:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 06:52:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 13:29:28</t>
-  </si>
-  <si>
-    <t>2024-06-05 09:47:50</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:47:33</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:55:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 15:10:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 21:30:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:39:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 11:48:14</t>
-  </si>
-  <si>
-    <t>2024-06-05 15:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:50:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 11:06:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 09:39:33</t>
-  </si>
-  <si>
-    <t>2024-06-05 07:40:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 12:48:14</t>
-  </si>
-  <si>
-    <t>2024-06-05 14:44:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 08:18:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 17:31:33</t>
-  </si>
-  <si>
-    <t>2024-06-05 10:14:00</t>
-  </si>
-  <si>
-    <t>2024-06-05 19:40:18</t>
-  </si>
-  <si>
-    <t>2024-06-05 21:54:33</t>
-  </si>
-  <si>
-    <t>2024-06-05 12:50:00</t>
+    <t>2024-06-06 01:02:00</t>
+  </si>
+  <si>
+    <t>2024-06-06 06:12:00</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1177,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F147"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1343,19 +1205,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>100660</v>
+        <v>100741</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2">
-        <v>45448.58055555556</v>
+        <v>45449.18888888889</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="F2" s="3">
         <v>0.05555555555555555</v>
@@ -1363,19 +1225,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>100642</v>
+        <v>100606</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>45448.37013888889</v>
+        <v>45449.17222222222</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="F3" s="3">
         <v>0.05555555555555555</v>
@@ -1383,39 +1245,39 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>100663</v>
+        <v>100590</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>45448.1875</v>
+        <v>45448.59166666667</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="F4" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.9065000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>100805</v>
+        <v>100277</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>45448.39722222222</v>
+        <v>45449.27222222222</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="F5" s="3">
         <v>0.05555555555555555</v>
@@ -1423,79 +1285,79 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>99965</v>
+        <v>99709</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>45448.14375</v>
+        <v>45449.41527777778</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F6" s="3">
-        <v>0.2368055555555555</v>
+        <v>0.2580277777777777</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>100682</v>
+        <v>100553</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>45448.22222222222</v>
+        <v>45448.52916666667</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="F7" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.92325</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>100667</v>
+        <v>99701</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2">
-        <v>45448.21180555555</v>
+        <v>45449.44652777778</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="F8" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2580277777777777</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>100364</v>
+        <v>100546</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="2">
-        <v>45448.47569444445</v>
+        <v>45449.39444444444</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="F9" s="3">
         <v>0.05555555555555555</v>
@@ -1503,159 +1365,159 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>100681</v>
+        <v>100479</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2">
-        <v>45448.16944444444</v>
+        <v>45448.54166666666</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="F10" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.4704305555555555</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>100673</v>
+        <v>100050</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2">
-        <v>45448.39722222222</v>
+        <v>45449.375</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="F11" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>100444</v>
+        <v>99696</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>45448.57083333333</v>
+        <v>45449.19652777778</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="F12" s="3">
-        <v>0.3139027777777778</v>
+        <v>0.2580277777777777</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>99087</v>
+        <v>100904</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="2">
-        <v>45448.125</v>
+        <v>45449.375</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="F13" s="3">
-        <v>0.3251666666666667</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>100680</v>
+        <v>100456</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2">
-        <v>45448.34166666667</v>
+        <v>45449.47916666666</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="F14" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3162083333333334</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>100706</v>
+        <v>100490</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2">
-        <v>45448.25555555556</v>
+        <v>45448.51180555556</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="F15" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.1423611111111111</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>99854</v>
+        <v>99843</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2">
-        <v>45448.54166666666</v>
+        <v>45448.5625</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="F16" s="3">
-        <v>0.2666666666666667</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>100768</v>
+        <v>100862</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2">
-        <v>45448.21180555555</v>
+        <v>45449.36805555555</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="F17" s="3">
         <v>0.05555555555555555</v>
@@ -1663,119 +1525,119 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>100614</v>
+        <v>100288</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2">
-        <v>45448.1625</v>
+        <v>45449.10416666666</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="F18" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3861111111111111</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>100327</v>
+        <v>100467</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2">
-        <v>45448.11041666667</v>
+        <v>45449.52708333333</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="F19" s="3">
-        <v>0.1642222222222222</v>
+        <v>0.3221944444444444</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>100604</v>
+        <v>99772</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2">
-        <v>45448.30277777778</v>
+        <v>45449.31111111111</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="F20" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2580277777777777</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>100479</v>
+        <v>100776</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="2">
-        <v>45448.54166666666</v>
+        <v>45448.68194444444</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="F21" s="3">
-        <v>0.4704305555555555</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>100766</v>
+        <v>100408</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="2">
-        <v>45448.27569444444</v>
+        <v>45449.54166666666</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="F22" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3847222222222222</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>100653</v>
+        <v>100860</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="2">
-        <v>45448.34861111111</v>
+        <v>45449.30555555555</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="F23" s="3">
         <v>0.05555555555555555</v>
@@ -1783,19 +1645,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>100738</v>
+        <v>100605</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="2">
-        <v>45448.39166666667</v>
+        <v>45448.5625</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="F24" s="3">
         <v>0.05555555555555555</v>
@@ -1803,39 +1665,39 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>100496</v>
+        <v>100629</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2">
-        <v>45448.22916666666</v>
+        <v>45448.56388888889</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="F25" s="3">
-        <v>0.3277777777777778</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>100341</v>
+        <v>100278</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2">
-        <v>45448.38888888889</v>
+        <v>45448.65</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="F26" s="3">
         <v>0.05555555555555555</v>
@@ -1843,79 +1705,79 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>99751</v>
+        <v>100484</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2">
-        <v>45448.04166666666</v>
+        <v>45449.54583333333</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="F27" s="3">
-        <v>0.3611111111111111</v>
+        <v>0.3740555555555556</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>100672</v>
+        <v>100035</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2">
-        <v>45448.5625</v>
+        <v>45448.5</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="F28" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>100690</v>
+        <v>99976</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="2">
-        <v>45448.20833333334</v>
+        <v>45449.1875</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="F29" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3402777777777778</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>100794</v>
+        <v>100777</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2">
-        <v>45448.26805555556</v>
+        <v>45448.72638888889</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="F30" s="3">
         <v>0.05555555555555555</v>
@@ -1923,119 +1785,119 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>100263</v>
+        <v>100618</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2">
-        <v>45448.20763888889</v>
+        <v>45448.65</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="F31" s="3">
-        <v>0.2909722222222222</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>100379</v>
+        <v>100503</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2">
-        <v>45448.125</v>
+        <v>45449.5</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="F32" s="3">
-        <v>0.3826388888888889</v>
+        <v>0.2797777777777778</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>100736</v>
+        <v>100068</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2">
-        <v>45448.54722222222</v>
+        <v>45449.375</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="F33" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>100689</v>
+        <v>99813</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="2">
-        <v>45448.28541666667</v>
+        <v>45449.12013888889</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E34" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="F34" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2712916666666667</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>97713</v>
+        <v>99812</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C35" s="2">
-        <v>45448.25</v>
+        <v>45449.12013888889</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="F35" s="3">
-        <v>0.3251666666666667</v>
+        <v>0.2712916666666667</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>100801</v>
+        <v>100622</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="2">
-        <v>45448.49652777778</v>
+        <v>45448.54305555556</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="F36" s="3">
         <v>0.05555555555555555</v>
@@ -2043,179 +1905,179 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>100616</v>
+        <v>99139</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2">
-        <v>45448.24444444444</v>
+        <v>45449.11319444444</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="F37" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2580277777777777</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>100782</v>
+        <v>99138</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C38" s="2">
-        <v>45448.52638888889</v>
+        <v>45449.11319444444</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="F38" s="3">
-        <v>0.08333333333333333</v>
+        <v>0.2580277777777777</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>99944</v>
+        <v>100750</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="2">
-        <v>45448.45069444444</v>
+        <v>45449.25277777778</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="E39" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="F39" s="3">
-        <v>0.2944444444444445</v>
+        <v>0.3843611111111112</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>100640</v>
+        <v>100031</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="2">
-        <v>45448.00208333333</v>
+        <v>45449.02083333334</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="F40" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3751388888888889</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>99997</v>
+        <v>100406</v>
       </c>
       <c r="B41" t="s">
         <v>38</v>
       </c>
       <c r="C41" s="2">
-        <v>45448.53055555555</v>
+        <v>45449.22777777778</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E41" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="F41" s="3">
-        <v>0.2714305555555556</v>
+        <v>0.3458333333333333</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>100074</v>
+        <v>100749</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="2">
-        <v>45448.52083333334</v>
+        <v>45449.40833333333</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="F42" s="3">
-        <v>0.3763611111111111</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>100773</v>
+        <v>100024</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C43" s="2">
-        <v>45448.26527777778</v>
+        <v>45449.43333333333</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E43" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="F43" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3793611111111111</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>100362</v>
+        <v>99997</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C44" s="2">
-        <v>45448.72916666666</v>
+        <v>45448.53055555555</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E44" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="F44" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2714305555555556</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>100590</v>
+        <v>100660</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C45" s="2">
-        <v>45448.59166666667</v>
+        <v>45448.58055555556</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E45" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="F45" s="3">
         <v>0.05555555555555555</v>
@@ -2223,79 +2085,79 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>100661</v>
+        <v>100804</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C46" s="2">
-        <v>45448.25833333333</v>
+        <v>45449.54166666666</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="E46" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="F46" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>100631</v>
+        <v>99145</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C47" s="2">
-        <v>45448.39027777778</v>
+        <v>45449.27986111111</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="F47" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2580277777777777</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>100778</v>
+        <v>100752</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C48" s="2">
-        <v>45448.36875</v>
+        <v>45449.25416666667</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="F48" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3829722222222223</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>100669</v>
+        <v>100543</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C49" s="2">
-        <v>45448.28055555555</v>
+        <v>45448.56805555556</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E49" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="F49" s="3">
         <v>0.05555555555555555</v>
@@ -2303,79 +2165,79 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>100611</v>
+        <v>100441</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C50" s="2">
-        <v>45448.26944444444</v>
+        <v>45449.5</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="E50" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="F50" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3890277777777778</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>100465</v>
+        <v>100624</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C51" s="2">
-        <v>45448.52569444444</v>
+        <v>45448.71388888889</v>
       </c>
       <c r="D51" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="E51" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="F51" s="3">
-        <v>0.3909722222222222</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>99973</v>
+        <v>100710</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C52" s="2">
-        <v>45448.45833333334</v>
+        <v>45448.55555555555</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="E52" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="F52" s="3">
-        <v>0.3375</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>100540</v>
+        <v>99487</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C53" s="2">
-        <v>45448.25277777778</v>
+        <v>45448.68055555555</v>
       </c>
       <c r="D53" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E53" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="F53" s="3">
         <v>0.05555555555555555</v>
@@ -2383,199 +2245,199 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>100421</v>
+        <v>100620</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C54" s="2">
-        <v>45448.53263888889</v>
+        <v>45448.66666666666</v>
       </c>
       <c r="D54" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E54" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="F54" s="3">
-        <v>0.3296666666666667</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>100796</v>
+        <v>100905</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C55" s="2">
-        <v>45448.27777777778</v>
+        <v>45448.53888888889</v>
       </c>
       <c r="D55" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E55" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="F55" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.8638888888888889</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>100821</v>
+        <v>100290</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C56" s="2">
-        <v>45448.39444444444</v>
+        <v>45449.25</v>
       </c>
       <c r="D56" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="E56" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="F56" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3861111111111111</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>100331</v>
+        <v>100356</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C57" s="2">
-        <v>45448.23541666667</v>
+        <v>45449.125</v>
       </c>
       <c r="D57" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E57" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="F57" s="3">
-        <v>0.28575</v>
+        <v>0.2597222222222222</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>100043</v>
+        <v>99699</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C58" s="2">
-        <v>45448.50833333333</v>
+        <v>45449.27986111111</v>
       </c>
       <c r="D58" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E58" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="F58" s="3">
-        <v>0.3135833333333333</v>
+        <v>0.2580277777777777</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>100684</v>
+        <v>100604</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C59" s="2">
-        <v>45448.41527777778</v>
+        <v>45449.10347222222</v>
       </c>
       <c r="D59" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="F59" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2683055555555555</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>100530</v>
+        <v>100674</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C60" s="2">
-        <v>45448.04166666666</v>
+        <v>45448.56388888889</v>
       </c>
       <c r="D60" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E60" t="s">
-        <v>243</v>
+        <v>176</v>
       </c>
       <c r="F60" s="3">
-        <v>0.3277777777777778</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>100442</v>
+        <v>99839</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C61" s="2">
-        <v>45448.44513888889</v>
+        <v>45448.55555555555</v>
       </c>
       <c r="D61" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E61" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="F61" s="3">
-        <v>0.3405277777777778</v>
+        <v>1.154861111111111</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>100553</v>
+        <v>100053</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C62" s="2">
-        <v>45448.52916666667</v>
+        <v>45449.16666666666</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E62" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="F62" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3840277777777778</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>100775</v>
+        <v>100654</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C63" s="2">
-        <v>45448.27361111111</v>
+        <v>45448.55833333333</v>
       </c>
       <c r="D63" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="F63" s="3">
         <v>0.05555555555555555</v>
@@ -2583,259 +2445,259 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>100729</v>
+        <v>99994</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C64" s="2">
-        <v>45448.29236111111</v>
+        <v>45449.5</v>
       </c>
       <c r="D64" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="E64" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F64" s="3">
-        <v>0.1555555555555556</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>100728</v>
+        <v>100739</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C65" s="2">
-        <v>45448.15694444445</v>
+        <v>45449.12222222222</v>
       </c>
       <c r="D65" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="E65" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="F65" s="3">
-        <v>0.1555555555555556</v>
+        <v>0.1934444444444444</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>99702</v>
+        <v>100625</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C66" s="2">
-        <v>45448.41527777778</v>
+        <v>45448.54583333333</v>
       </c>
       <c r="D66" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E66" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="F66" s="3">
-        <v>0.2580277777777777</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>100703</v>
+        <v>100091</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C67" s="2">
-        <v>45448.38472222222</v>
+        <v>45449.5</v>
       </c>
       <c r="D67" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="E67" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="F67" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>99756</v>
+        <v>100614</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C68" s="2">
-        <v>45448.36041666667</v>
+        <v>45449.55347222222</v>
       </c>
       <c r="D68" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E68" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="F68" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2870138888888889</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>100774</v>
+        <v>100425</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C69" s="2">
-        <v>45448.16527777778</v>
+        <v>45449.08333333334</v>
       </c>
       <c r="D69" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E69" t="s">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c r="F69" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>100373</v>
+        <v>99947</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C70" s="2">
-        <v>45448.10416666666</v>
+        <v>45449.44375</v>
       </c>
       <c r="D70" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E70" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="F70" s="3">
-        <v>0.3411944444444445</v>
+        <v>0.3340277777777778</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>100795</v>
+        <v>100329</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C71" s="2">
-        <v>45448.24027777778</v>
+        <v>45449.23541666667</v>
       </c>
       <c r="D71" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E71" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="F71" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.1642222222222222</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>99945</v>
+        <v>100782</v>
       </c>
       <c r="B72" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C72" s="2">
-        <v>45448.375</v>
+        <v>45448.52638888889</v>
       </c>
       <c r="D72" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E72" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="F72" s="3">
-        <v>0.3361111111111111</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>100674</v>
+        <v>100420</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C73" s="2">
-        <v>45448.56388888889</v>
+        <v>45449.44722222222</v>
       </c>
       <c r="D73" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="E73" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="F73" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2986111111111111</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>100615</v>
+        <v>99140</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C74" s="2">
-        <v>45448.36041666667</v>
+        <v>45449.14444444444</v>
       </c>
       <c r="D74" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E74" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="F74" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2580277777777777</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>100771</v>
+        <v>100041</v>
       </c>
       <c r="B75" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C75" s="2">
-        <v>45448.22847222222</v>
+        <v>45448.52083333334</v>
       </c>
       <c r="D75" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="E75" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="F75" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>100802</v>
+        <v>100628</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C76" s="2">
-        <v>45448.50347222222</v>
+        <v>45448.52916666667</v>
       </c>
       <c r="D76" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="E76" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="F76" s="3">
         <v>0.05555555555555555</v>
@@ -2843,479 +2705,479 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>100477</v>
+        <v>100542</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C77" s="2">
-        <v>45448.54166666666</v>
+        <v>45448.52777777778</v>
       </c>
       <c r="D77" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="E77" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="F77" s="3">
-        <v>0.3131944444444444</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>100617</v>
+        <v>100351</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="C78" s="2">
-        <v>45448.17569444444</v>
+        <v>45449.15208333333</v>
       </c>
       <c r="D78" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E78" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="F78" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.1642222222222222</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>100490</v>
+        <v>100800</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2">
-        <v>45448.44930555556</v>
+        <v>45448.57777777778</v>
       </c>
       <c r="D79" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E79" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="F79" s="3">
-        <v>0.1423611111111111</v>
+        <v>0.8675833333333333</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>100284</v>
+        <v>100643</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C80" s="2">
-        <v>45448.25</v>
+        <v>45449.20972222222</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E80" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="F80" s="3">
-        <v>0.3861111111111111</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>100261</v>
+        <v>100465</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C81" s="2">
-        <v>45448.16597222222</v>
+        <v>45448.52569444444</v>
       </c>
       <c r="D81" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E81" t="s">
-        <v>261</v>
+        <v>179</v>
       </c>
       <c r="F81" s="3">
-        <v>0.2909722222222222</v>
+        <v>0.3909722222222222</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>100710</v>
+        <v>100362</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C82" s="2">
-        <v>45448.55555555555</v>
+        <v>45448.72916666666</v>
       </c>
       <c r="D82" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E82" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="F82" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.7205277777777778</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>100262</v>
+        <v>100061</v>
       </c>
       <c r="B83" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C83" s="2">
-        <v>45448.24930555555</v>
+        <v>45449.17777777778</v>
       </c>
       <c r="D83" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="E83" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="F83" s="3">
-        <v>0.2909722222222222</v>
+        <v>0.3669444444444445</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>100650</v>
+        <v>100390</v>
       </c>
       <c r="B84" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C84" s="2">
-        <v>45448.28194444445</v>
+        <v>45449.33333333334</v>
       </c>
       <c r="D84" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="E84" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="F84" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.1913055555555555</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>99698</v>
+        <v>100736</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C85" s="2">
-        <v>45448.29027777778</v>
+        <v>45448.54722222222</v>
       </c>
       <c r="D85" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="E85" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="F85" s="3">
-        <v>0.2580277777777777</v>
+        <v>0.7684444444444445</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>100070</v>
+        <v>100821</v>
       </c>
       <c r="B86" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C86" s="2">
-        <v>45448.02083333334</v>
+        <v>45449.10416666666</v>
       </c>
       <c r="D86" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="E86" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="F86" s="3">
-        <v>0.333375</v>
+        <v>0.4472222222222222</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>100289</v>
+        <v>100332</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C87" s="2">
-        <v>45448.10416666666</v>
+        <v>45449.24027777778</v>
       </c>
       <c r="D87" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E87" t="s">
-        <v>267</v>
+        <v>214</v>
       </c>
       <c r="F87" s="3">
-        <v>0.3861111111111111</v>
+        <v>0.1593611111111111</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>99706</v>
+        <v>100043</v>
       </c>
       <c r="B88" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C88" s="2">
-        <v>45448.25902777778</v>
+        <v>45448.50833333333</v>
       </c>
       <c r="D88" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E88" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="F88" s="3">
-        <v>0.2580277777777777</v>
+        <v>0.3135833333333333</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>100077</v>
+        <v>100092</v>
       </c>
       <c r="B89" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C89" s="2">
-        <v>45448.08333333334</v>
+        <v>45448.525</v>
       </c>
       <c r="D89" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="E89" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="F89" s="3">
-        <v>0.3509444444444444</v>
+        <v>0.2483055555555555</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>99713</v>
+        <v>100115</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="C90" s="2">
-        <v>45448.11319444444</v>
+        <v>45449.1875</v>
       </c>
       <c r="D90" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="E90" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="F90" s="3">
-        <v>0.2580277777777777</v>
+        <v>0.2825138888888889</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>100772</v>
+        <v>100656</v>
       </c>
       <c r="B91" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="C91" s="2">
-        <v>45448.18472222222</v>
+        <v>45449.16666666666</v>
       </c>
       <c r="D91" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="E91" t="s">
-        <v>139</v>
+        <v>231</v>
       </c>
       <c r="F91" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3076666666666667</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>100613</v>
+        <v>100475</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C92" s="2">
-        <v>45448.38055555556</v>
+        <v>45449.10416666666</v>
       </c>
       <c r="D92" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="E92" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F92" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3284722222222222</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>100092</v>
+        <v>100646</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C93" s="2">
-        <v>45448.525</v>
+        <v>45449.29166666666</v>
       </c>
       <c r="D93" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="E93" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="F93" s="3">
-        <v>0.2483055555555555</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>100803</v>
+        <v>100409</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C94" s="2">
-        <v>45448.38888888889</v>
+        <v>45449.22916666666</v>
       </c>
       <c r="D94" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="E94" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="F94" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3284722222222222</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>100695</v>
+        <v>99704</v>
       </c>
       <c r="B95" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C95" s="2">
-        <v>45448.3875</v>
+        <v>45449.38402777778</v>
       </c>
       <c r="D95" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="E95" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="F95" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2580277777777777</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>100335</v>
+        <v>100672</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C96" s="2">
-        <v>45448.15208333333</v>
+        <v>45448.5625</v>
       </c>
       <c r="D96" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="E96" t="s">
-        <v>274</v>
+        <v>168</v>
       </c>
       <c r="F96" s="3">
-        <v>0.28575</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>100035</v>
+        <v>99907</v>
       </c>
       <c r="B97" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C97" s="2">
-        <v>45448.5</v>
+        <v>45448.52083333334</v>
       </c>
       <c r="D97" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="E97" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F97" s="3">
-        <v>0.4166666666666667</v>
+        <v>0.2988194444444445</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>100019</v>
+        <v>99647</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C98" s="2">
-        <v>45448.39583333334</v>
+        <v>45449.08333333334</v>
       </c>
       <c r="D98" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="E98" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="F98" s="3">
-        <v>0.3375833333333333</v>
+        <v>0.1913055555555555</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>100610</v>
+        <v>100444</v>
       </c>
       <c r="B99" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C99" s="2">
-        <v>45448.24861111111</v>
+        <v>45448.57083333333</v>
       </c>
       <c r="D99" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="E99" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="F99" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3139027777777778</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>100554</v>
+        <v>100645</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C100" s="2">
-        <v>45448.67083333333</v>
+        <v>45448.53055555555</v>
       </c>
       <c r="D100" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="E100" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="F100" s="3">
         <v>0.05555555555555555</v>
@@ -3323,139 +3185,139 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>100326</v>
+        <v>100740</v>
       </c>
       <c r="B101" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C101" s="2">
-        <v>45448.1875</v>
+        <v>45448.68263888889</v>
       </c>
       <c r="D101" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="E101" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="F101" s="3">
-        <v>0.3861111111111111</v>
+        <v>0.7743055555555556</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>100386</v>
+        <v>100621</v>
       </c>
       <c r="B102" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="C102" s="2">
-        <v>45448.20833333334</v>
+        <v>45448.51944444444</v>
       </c>
       <c r="D102" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="E102" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="F102" s="3">
-        <v>0.3298611111111111</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>99700</v>
+        <v>100623</v>
       </c>
       <c r="B103" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C103" s="2">
-        <v>45448.44652777778</v>
+        <v>45448.51666666667</v>
       </c>
       <c r="D103" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="E103" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="F103" s="3">
-        <v>0.2580277777777777</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>100382</v>
+        <v>100060</v>
       </c>
       <c r="B104" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C104" s="2">
-        <v>45448.125</v>
+        <v>45449.5</v>
       </c>
       <c r="D104" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E104" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="F104" s="3">
-        <v>0.1913055555555555</v>
+        <v>0.3519166666666667</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>100556</v>
+        <v>100738</v>
       </c>
       <c r="B105" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="C105" s="2">
-        <v>45448.1875</v>
+        <v>45449.12222222222</v>
       </c>
       <c r="D105" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E105" t="s">
-        <v>282</v>
+        <v>210</v>
       </c>
       <c r="F105" s="3">
-        <v>0.31075</v>
+        <v>0.1934444444444444</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>100134</v>
+        <v>100422</v>
       </c>
       <c r="B106" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C106" s="2">
-        <v>45448.13611111111</v>
+        <v>45449.22777777778</v>
       </c>
       <c r="D106" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="E106" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="F106" s="3">
-        <v>0.3013888888888889</v>
+        <v>0.2715277777777778</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>100685</v>
+        <v>99871</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C107" s="2">
-        <v>45448.22916666666</v>
+        <v>45448.66527777778</v>
       </c>
       <c r="D107" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="E107" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="F107" s="3">
         <v>0.05555555555555555</v>
@@ -3463,19 +3325,19 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>100807</v>
+        <v>100619</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C108" s="2">
-        <v>45448.21944444445</v>
+        <v>45448.67916666667</v>
       </c>
       <c r="D108" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="E108" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="F108" s="3">
         <v>0.05555555555555555</v>
@@ -3483,179 +3345,179 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>100603</v>
+        <v>100401</v>
       </c>
       <c r="B109" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C109" s="2">
-        <v>45448.12916666667</v>
+        <v>45449.13194444445</v>
       </c>
       <c r="D109" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="E109" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="F109" s="3">
-        <v>0.3368055555555556</v>
+        <v>0.3041666666666666</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>100006</v>
+        <v>100421</v>
       </c>
       <c r="B110" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C110" s="2">
-        <v>45448.30902777778</v>
+        <v>45448.53263888889</v>
       </c>
       <c r="D110" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="E110" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="F110" s="3">
-        <v>0.3340277777777778</v>
+        <v>0.3296666666666667</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>99803</v>
+        <v>100753</v>
       </c>
       <c r="B111" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C111" s="2">
-        <v>45448.15347222222</v>
+        <v>45449.14305555556</v>
       </c>
       <c r="D111" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="E111" t="s">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="F111" s="3">
-        <v>0.23125</v>
+        <v>0.3000833333333334</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>100658</v>
+        <v>100402</v>
       </c>
       <c r="B112" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C112" s="2">
-        <v>45448.39027777778</v>
+        <v>45448.47916666666</v>
       </c>
       <c r="D112" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E112" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="F112" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>99143</v>
+        <v>100630</v>
       </c>
       <c r="B113" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C113" s="2">
-        <v>45448.17569444444</v>
+        <v>45449.35416666666</v>
       </c>
       <c r="D113" t="s">
         <v>144</v>
       </c>
       <c r="E113" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="F113" s="3">
-        <v>0.2580277777777777</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>99711</v>
+        <v>100554</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C114" s="2">
-        <v>45448.38402777778</v>
+        <v>45448.67083333333</v>
       </c>
       <c r="D114" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="E114" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="F114" s="3">
-        <v>0.2580277777777777</v>
+        <v>0.9378333333333334</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>100770</v>
+        <v>100127</v>
       </c>
       <c r="B115" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C115" s="2">
-        <v>45448.2</v>
+        <v>45449.13611111111</v>
       </c>
       <c r="D115" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="E115" t="s">
-        <v>88</v>
+        <v>253</v>
       </c>
       <c r="F115" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3055555555555556</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>100434</v>
+        <v>100076</v>
       </c>
       <c r="B116" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C116" s="2">
-        <v>45448.35416666666</v>
+        <v>45449.5</v>
       </c>
       <c r="D116" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="E116" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="F116" s="3">
-        <v>0.4166666666666667</v>
+        <v>0.3721944444444444</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>100702</v>
+        <v>100644</v>
       </c>
       <c r="B117" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C117" s="2">
-        <v>45448.21388888889</v>
+        <v>45448.68611111111</v>
       </c>
       <c r="D117" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="E117" t="s">
-        <v>120</v>
+        <v>255</v>
       </c>
       <c r="F117" s="3">
         <v>0.05555555555555555</v>
@@ -3663,602 +3525,302 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>100767</v>
+        <v>100423</v>
       </c>
       <c r="B118" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C118" s="2">
-        <v>45448.23055555556</v>
+        <v>45449.60416666666</v>
       </c>
       <c r="D118" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="E118" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="F118" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3833333333333334</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>100142</v>
+        <v>100477</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C119" s="2">
-        <v>45448.28194444445</v>
+        <v>45448.54166666666</v>
       </c>
       <c r="D119" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="E119" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="F119" s="3">
-        <v>0.2801944444444444</v>
+        <v>0.3131944444444444</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>99824</v>
+        <v>100678</v>
       </c>
       <c r="B120" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C120" s="2">
-        <v>45448.15486111111</v>
+        <v>45448.57638888889</v>
       </c>
       <c r="D120" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="E120" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="F120" s="3">
-        <v>0.2533611111111111</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>100363</v>
+        <v>100285</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C121" s="2">
-        <v>45448.09722222222</v>
+        <v>45449.1875</v>
       </c>
       <c r="D121" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="E121" t="s">
-        <v>294</v>
+        <v>189</v>
       </c>
       <c r="F121" s="3">
-        <v>0.3524722222222222</v>
+        <v>0.3861111111111111</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>90528</v>
+        <v>100074</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C122" s="2">
-        <v>45448.25</v>
+        <v>45448.52083333334</v>
       </c>
       <c r="D122" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E122" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F122" s="3">
-        <v>0.3611111111111111</v>
+        <v>0.3763611111111111</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>100388</v>
+        <v>100801</v>
       </c>
       <c r="B123" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C123" s="2">
-        <v>45448.125</v>
+        <v>45449.40555555555</v>
       </c>
       <c r="D123" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="E123" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="F123" s="3">
-        <v>0.3298611111111111</v>
+        <v>0.2986111111111111</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>100678</v>
+        <v>100135</v>
       </c>
       <c r="B124" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C124" s="2">
-        <v>45448.57638888889</v>
+        <v>45449.13611111111</v>
       </c>
       <c r="D124" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="E124" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="F124" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.3013888888888889</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>100402</v>
+        <v>100511</v>
       </c>
       <c r="B125" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C125" s="2">
-        <v>45448.47916666666</v>
+        <v>45449.54166666666</v>
       </c>
       <c r="D125" t="s">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="E125" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="F125" s="3">
-        <v>0.4166666666666667</v>
+        <v>0.3712222222222222</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>100636</v>
+        <v>100054</v>
       </c>
       <c r="B126" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C126" s="2">
-        <v>45448.38819444444</v>
+        <v>45449.14375</v>
       </c>
       <c r="D126" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="E126" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="F126" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2881944444444444</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>100264</v>
+        <v>100541</v>
       </c>
       <c r="B127" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C127" s="2">
-        <v>45448.12430555555</v>
+        <v>45448.55833333333</v>
       </c>
       <c r="D127" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="E127" t="s">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="F127" s="3">
-        <v>0.2909722222222222</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>99088</v>
+        <v>100343</v>
       </c>
       <c r="B128" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C128" s="2">
-        <v>45448.16666666666</v>
+        <v>45449.5</v>
       </c>
       <c r="D128" t="s">
-        <v>181</v>
+        <v>85</v>
       </c>
       <c r="E128" t="s">
-        <v>299</v>
+        <v>209</v>
       </c>
       <c r="F128" s="3">
-        <v>0.3251666666666667</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>100734</v>
+        <v>100632</v>
       </c>
       <c r="B129" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C129" s="2">
-        <v>45448.41666666666</v>
+        <v>45448.57361111111</v>
       </c>
       <c r="D129" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="E129" t="s">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c r="F129" s="3">
-        <v>0.2083333333333333</v>
+        <v>1.2875</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>100707</v>
+        <v>99854</v>
       </c>
       <c r="B130" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C130" s="2">
-        <v>45448.39583333334</v>
+        <v>45448.54166666666</v>
       </c>
       <c r="D130" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="E130" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="F130" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>99968</v>
+        <v>99869</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C131" s="2">
-        <v>45448.31041666667</v>
+        <v>45448.78263888889</v>
       </c>
       <c r="D131" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="E131" t="s">
-        <v>103</v>
+        <v>265</v>
       </c>
       <c r="F131" s="3">
-        <v>0.2368055555555555</v>
+        <v>0.2604166666666667</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>100651</v>
+        <v>100097</v>
       </c>
       <c r="B132" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="C132" s="2">
-        <v>45448.40694444445</v>
+        <v>45449.11597222222</v>
       </c>
       <c r="D132" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="E132" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="F132" s="3">
-        <v>0.05555555555555555</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>99141</v>
-      </c>
-      <c r="B133" t="s">
-        <v>39</v>
-      </c>
-      <c r="C133" s="2">
-        <v>45448.14444444444</v>
-      </c>
-      <c r="D133" t="s">
-        <v>185</v>
-      </c>
-      <c r="E133" t="s">
-        <v>303</v>
-      </c>
-      <c r="F133" s="3">
-        <v>0.2580277777777777</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>100739</v>
-      </c>
-      <c r="B134" t="s">
-        <v>45</v>
-      </c>
-      <c r="C134" s="2">
-        <v>45448.39027777778</v>
-      </c>
-      <c r="D134" t="s">
-        <v>117</v>
-      </c>
-      <c r="E134" t="s">
-        <v>230</v>
-      </c>
-      <c r="F134" s="3">
-        <v>0.05555555555555555</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>100804</v>
-      </c>
-      <c r="B135" t="s">
-        <v>71</v>
-      </c>
-      <c r="C135" s="2">
-        <v>45448.20833333334</v>
-      </c>
-      <c r="D135" t="s">
-        <v>100</v>
-      </c>
-      <c r="E135" t="s">
-        <v>304</v>
-      </c>
-      <c r="F135" s="3">
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>100612</v>
-      </c>
-      <c r="B136" t="s">
-        <v>45</v>
-      </c>
-      <c r="C136" s="2">
-        <v>45448.24722222222</v>
-      </c>
-      <c r="D136" t="s">
-        <v>186</v>
-      </c>
-      <c r="E136" t="s">
-        <v>92</v>
-      </c>
-      <c r="F136" s="3">
-        <v>0.05555555555555555</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>99089</v>
-      </c>
-      <c r="B137" t="s">
-        <v>73</v>
-      </c>
-      <c r="C137" s="2">
-        <v>45448.20833333334</v>
-      </c>
-      <c r="D137" t="s">
-        <v>100</v>
-      </c>
-      <c r="E137" t="s">
-        <v>305</v>
-      </c>
-      <c r="F137" s="3">
-        <v>0.3251666666666667</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>100654</v>
-      </c>
-      <c r="B138" t="s">
-        <v>69</v>
-      </c>
-      <c r="C138" s="2">
-        <v>45448.55833333333</v>
-      </c>
-      <c r="D138" t="s">
-        <v>187</v>
-      </c>
-      <c r="E138" t="s">
-        <v>306</v>
-      </c>
-      <c r="F138" s="3">
-        <v>0.05555555555555555</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>100797</v>
-      </c>
-      <c r="B139" t="s">
-        <v>74</v>
-      </c>
-      <c r="C139" s="2">
-        <v>45448.29027777778</v>
-      </c>
-      <c r="D139" t="s">
-        <v>150</v>
-      </c>
-      <c r="E139" t="s">
-        <v>307</v>
-      </c>
-      <c r="F139" s="3">
-        <v>0.05555555555555555</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>100417</v>
-      </c>
-      <c r="B140" t="s">
-        <v>75</v>
-      </c>
-      <c r="C140" s="2">
-        <v>45448.38194444445</v>
-      </c>
-      <c r="D140" t="s">
-        <v>188</v>
-      </c>
-      <c r="E140" t="s">
-        <v>308</v>
-      </c>
-      <c r="F140" s="3">
-        <v>0.3483055555555555</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>100696</v>
-      </c>
-      <c r="B141" t="s">
-        <v>22</v>
-      </c>
-      <c r="C141" s="2">
-        <v>45448.37083333333</v>
-      </c>
-      <c r="D141" t="s">
-        <v>189</v>
-      </c>
-      <c r="E141" t="s">
-        <v>309</v>
-      </c>
-      <c r="F141" s="3">
-        <v>0.05555555555555555</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>99907</v>
-      </c>
-      <c r="B142" t="s">
-        <v>31</v>
-      </c>
-      <c r="C142" s="2">
-        <v>45448.52083333334</v>
-      </c>
-      <c r="D142" t="s">
-        <v>112</v>
-      </c>
-      <c r="E142" t="s">
-        <v>310</v>
-      </c>
-      <c r="F142" s="3">
-        <v>0.2988194444444445</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>100511</v>
-      </c>
-      <c r="B143" t="s">
-        <v>73</v>
-      </c>
-      <c r="C143" s="2">
-        <v>45448.54166666666</v>
-      </c>
-      <c r="D143" t="s">
-        <v>89</v>
-      </c>
-      <c r="E143" t="s">
-        <v>311</v>
-      </c>
-      <c r="F143" s="3">
-        <v>0.3712222222222222</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>100069</v>
-      </c>
-      <c r="B144" t="s">
-        <v>41</v>
-      </c>
-      <c r="C144" s="2">
-        <v>45448.1875</v>
-      </c>
-      <c r="D144" t="s">
-        <v>78</v>
-      </c>
-      <c r="E144" t="s">
-        <v>245</v>
-      </c>
-      <c r="F144" s="3">
-        <v>0.3972222222222222</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>100656</v>
-      </c>
-      <c r="B145" t="s">
-        <v>23</v>
-      </c>
-      <c r="C145" s="2">
-        <v>45448.47916666666</v>
-      </c>
-      <c r="D145" t="s">
-        <v>178</v>
-      </c>
-      <c r="E145" t="s">
-        <v>312</v>
-      </c>
-      <c r="F145" s="3">
-        <v>0.05555555555555555</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>100058</v>
-      </c>
-      <c r="B146" t="s">
-        <v>58</v>
-      </c>
-      <c r="C146" s="2">
-        <v>45448.10416666666</v>
-      </c>
-      <c r="D146" t="s">
-        <v>138</v>
-      </c>
-      <c r="E146" t="s">
-        <v>112</v>
-      </c>
-      <c r="F146" s="3">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>100686</v>
-      </c>
-      <c r="B147" t="s">
-        <v>75</v>
-      </c>
-      <c r="C147" s="2">
-        <v>45448.25277777778</v>
-      </c>
-      <c r="D147" t="s">
-        <v>123</v>
-      </c>
-      <c r="E147" t="s">
-        <v>236</v>
-      </c>
-      <c r="F147" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.1423611111111111</v>
       </c>
     </row>
   </sheetData>
